--- a/Code/Results/Cases/Case_3_44/res_line/loading_percent.xlsx
+++ b/Code/Results/Cases/Case_3_44/res_line/loading_percent.xlsx
@@ -412,19 +412,19 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>17.30798328012277</v>
+        <v>17.30798328012264</v>
       </c>
       <c r="C2">
-        <v>15.57592099795364</v>
+        <v>15.57592099795369</v>
       </c>
       <c r="D2">
-        <v>3.298427235356043</v>
+        <v>3.298427235356109</v>
       </c>
       <c r="E2">
         <v>0</v>
       </c>
       <c r="F2">
-        <v>40.18934132355493</v>
+        <v>40.18934132355486</v>
       </c>
       <c r="G2">
         <v>0</v>
@@ -433,16 +433,16 @@
         <v>25.6377865749219</v>
       </c>
       <c r="I2">
-        <v>11.3823246481996</v>
+        <v>11.38232464819954</v>
       </c>
       <c r="J2">
-        <v>16.54889715543795</v>
+        <v>16.54889715543788</v>
       </c>
       <c r="K2">
         <v>0</v>
       </c>
       <c r="L2">
-        <v>18.35950874882091</v>
+        <v>18.35950874882088</v>
       </c>
     </row>
     <row r="3" spans="1:12">
@@ -450,31 +450,31 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>16.09338196881894</v>
+        <v>16.09338196881903</v>
       </c>
       <c r="C3">
-        <v>14.44800550350477</v>
+        <v>14.44800550350482</v>
       </c>
       <c r="D3">
-        <v>3.30982199941194</v>
+        <v>3.309821999411808</v>
       </c>
       <c r="E3">
         <v>0</v>
       </c>
       <c r="F3">
-        <v>38.13553338056951</v>
+        <v>38.13553338056938</v>
       </c>
       <c r="G3">
         <v>0</v>
       </c>
       <c r="H3">
-        <v>24.68901403823791</v>
+        <v>24.68901403823781</v>
       </c>
       <c r="I3">
-        <v>10.8350699831559</v>
+        <v>10.83506998315592</v>
       </c>
       <c r="J3">
-        <v>15.41106026882666</v>
+        <v>15.41106026882678</v>
       </c>
       <c r="K3">
         <v>0</v>
@@ -488,13 +488,13 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>15.30977291304874</v>
+        <v>15.30977291304883</v>
       </c>
       <c r="C4">
-        <v>13.72207845688515</v>
+        <v>13.72207845688533</v>
       </c>
       <c r="D4">
-        <v>3.316188206939172</v>
+        <v>3.316188206938974</v>
       </c>
       <c r="E4">
         <v>0</v>
@@ -506,19 +506,19 @@
         <v>0</v>
       </c>
       <c r="H4">
-        <v>24.1116672022437</v>
+        <v>24.11166720224362</v>
       </c>
       <c r="I4">
-        <v>10.49882614094671</v>
+        <v>10.49882614094674</v>
       </c>
       <c r="J4">
-        <v>14.67802053234606</v>
+        <v>14.67802053234618</v>
       </c>
       <c r="K4">
         <v>0</v>
       </c>
       <c r="L4">
-        <v>16.2220484077813</v>
+        <v>16.22204840778135</v>
       </c>
     </row>
     <row r="5" spans="1:12">
@@ -526,37 +526,37 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>14.98076708654836</v>
+        <v>14.98076708654839</v>
       </c>
       <c r="C5">
-        <v>13.41768534109888</v>
+        <v>13.41768534109893</v>
       </c>
       <c r="D5">
-        <v>3.318632029499847</v>
+        <v>3.318632029499646</v>
       </c>
       <c r="E5">
         <v>0</v>
       </c>
       <c r="F5">
-        <v>36.33658736837277</v>
+        <v>36.33658736837268</v>
       </c>
       <c r="G5">
         <v>0</v>
       </c>
       <c r="H5">
-        <v>23.87780718689831</v>
+        <v>23.87780718689822</v>
       </c>
       <c r="I5">
-        <v>10.36182336331378</v>
+        <v>10.36182336331381</v>
       </c>
       <c r="J5">
-        <v>14.37050330735407</v>
+        <v>14.37050330735411</v>
       </c>
       <c r="K5">
         <v>0</v>
       </c>
       <c r="L5">
-        <v>15.87143465933643</v>
+        <v>15.87143465933642</v>
       </c>
     </row>
     <row r="6" spans="1:12">
@@ -567,28 +567,28 @@
         <v>14.92554676536506</v>
       </c>
       <c r="C6">
-        <v>13.36661841186558</v>
+        <v>13.36661841186557</v>
       </c>
       <c r="D6">
-        <v>3.319028957125127</v>
+        <v>3.319028957125194</v>
       </c>
       <c r="E6">
         <v>0</v>
       </c>
       <c r="F6">
-        <v>36.24952484622187</v>
+        <v>36.24952484622181</v>
       </c>
       <c r="G6">
         <v>0</v>
       </c>
       <c r="H6">
-        <v>23.83906388905214</v>
+        <v>23.83906388905206</v>
       </c>
       <c r="I6">
-        <v>10.33907813984689</v>
+        <v>10.33907813984688</v>
       </c>
       <c r="J6">
-        <v>14.31890494782115</v>
+        <v>14.31890494782116</v>
       </c>
       <c r="K6">
         <v>0</v>
@@ -605,16 +605,16 @@
         <v>15.30537522326704</v>
       </c>
       <c r="C7">
-        <v>13.7180082385049</v>
+        <v>13.71800823850491</v>
       </c>
       <c r="D7">
-        <v>3.316221764343144</v>
+        <v>3.316221764343076</v>
       </c>
       <c r="E7">
         <v>0</v>
       </c>
       <c r="F7">
-        <v>36.85273771110819</v>
+        <v>36.8527377111082</v>
       </c>
       <c r="G7">
         <v>0</v>
@@ -623,16 +623,16 @@
         <v>24.10850740152129</v>
       </c>
       <c r="I7">
-        <v>10.49697827215733</v>
+        <v>10.4969782721573</v>
       </c>
       <c r="J7">
-        <v>14.67390905202592</v>
+        <v>14.67390905202591</v>
       </c>
       <c r="K7">
         <v>0</v>
       </c>
       <c r="L7">
-        <v>16.21735947651734</v>
+        <v>16.21735947651737</v>
       </c>
     </row>
     <row r="8" spans="1:12">
@@ -640,13 +640,13 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>16.89693987052578</v>
+        <v>16.89693987052574</v>
       </c>
       <c r="C8">
-        <v>15.19383313665784</v>
+        <v>15.19383313665788</v>
       </c>
       <c r="D8">
-        <v>3.302492027144661</v>
+        <v>3.302492027144795</v>
       </c>
       <c r="E8">
         <v>0</v>
@@ -658,10 +658,10 @@
         <v>0</v>
       </c>
       <c r="H8">
-        <v>25.30962310326567</v>
+        <v>25.3096231032657</v>
       </c>
       <c r="I8">
-        <v>11.19371436981918</v>
+        <v>11.19371436981914</v>
       </c>
       <c r="J8">
         <v>16.16361841642261</v>
@@ -670,7 +670,7 @@
         <v>0</v>
       </c>
       <c r="L8">
-        <v>17.91867544396024</v>
+        <v>17.91867544396025</v>
       </c>
     </row>
     <row r="9" spans="1:12">
@@ -678,37 +678,37 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>19.72581986717649</v>
+        <v>19.72581986717657</v>
       </c>
       <c r="C9">
         <v>17.83181866670247</v>
       </c>
       <c r="D9">
-        <v>3.270159837983754</v>
+        <v>3.270159837983687</v>
       </c>
       <c r="E9">
         <v>0</v>
       </c>
       <c r="F9">
-        <v>44.51821381597062</v>
+        <v>44.51821381597067</v>
       </c>
       <c r="G9">
         <v>0</v>
       </c>
       <c r="H9">
-        <v>27.70363580852301</v>
+        <v>27.70363580852303</v>
       </c>
       <c r="I9">
-        <v>12.55667598430806</v>
+        <v>12.55667598430809</v>
       </c>
       <c r="J9">
-        <v>18.81941039613459</v>
+        <v>18.81941039613462</v>
       </c>
       <c r="K9">
         <v>0</v>
       </c>
       <c r="L9">
-        <v>20.96522658004498</v>
+        <v>20.96522658004502</v>
       </c>
     </row>
     <row r="10" spans="1:12">
@@ -716,37 +716,37 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>21.6384927290009</v>
+        <v>21.63849272900087</v>
       </c>
       <c r="C10">
-        <v>19.62739753012998</v>
+        <v>19.62739753012994</v>
       </c>
       <c r="D10">
-        <v>3.242459257698854</v>
+        <v>3.242459257699124</v>
       </c>
       <c r="E10">
         <v>0</v>
       </c>
       <c r="F10">
-        <v>48.13530721887968</v>
+        <v>48.13530721887962</v>
       </c>
       <c r="G10">
         <v>0</v>
       </c>
       <c r="H10">
-        <v>29.48613937828777</v>
+        <v>29.48613937828776</v>
       </c>
       <c r="I10">
-        <v>13.55697191524283</v>
+        <v>13.55697191524281</v>
       </c>
       <c r="J10">
-        <v>20.62050932034305</v>
+        <v>20.620509320343</v>
       </c>
       <c r="K10">
         <v>0</v>
       </c>
       <c r="L10">
-        <v>23.04290925044609</v>
+        <v>23.04290925044607</v>
       </c>
     </row>
     <row r="11" spans="1:12">
@@ -754,37 +754,37 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>22.47578652812645</v>
+        <v>22.4757865281265</v>
       </c>
       <c r="C11">
-        <v>20.41677686233776</v>
+        <v>20.41677686233773</v>
       </c>
       <c r="D11">
-        <v>3.228829437275623</v>
+        <v>3.228829437275688</v>
       </c>
       <c r="E11">
         <v>0</v>
       </c>
       <c r="F11">
-        <v>49.76529335862266</v>
+        <v>49.76529335862265</v>
       </c>
       <c r="G11">
         <v>0</v>
       </c>
       <c r="H11">
-        <v>30.30340746595144</v>
+        <v>30.30340746595143</v>
       </c>
       <c r="I11">
-        <v>14.01679703515888</v>
+        <v>14.0167970351589</v>
       </c>
       <c r="J11">
-        <v>21.41033382650428</v>
+        <v>21.41033382650431</v>
       </c>
       <c r="K11">
         <v>0</v>
       </c>
       <c r="L11">
-        <v>23.95737574522945</v>
+        <v>23.95737574522952</v>
       </c>
     </row>
     <row r="12" spans="1:12">
@@ -792,37 +792,37 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>22.78843314230207</v>
+        <v>22.78843314230199</v>
       </c>
       <c r="C12">
-        <v>20.71208321772105</v>
+        <v>20.71208321772117</v>
       </c>
       <c r="D12">
-        <v>3.223503455467073</v>
+        <v>3.223503455467006</v>
       </c>
       <c r="E12">
         <v>0</v>
       </c>
       <c r="F12">
-        <v>50.38067892966804</v>
+        <v>50.38067892966794</v>
       </c>
       <c r="G12">
         <v>0</v>
       </c>
       <c r="H12">
-        <v>30.61400114684096</v>
+        <v>30.61400114684092</v>
       </c>
       <c r="I12">
-        <v>14.23128503663198</v>
+        <v>14.23128503663193</v>
       </c>
       <c r="J12">
-        <v>21.70547198030672</v>
+        <v>21.70547198030663</v>
       </c>
       <c r="K12">
         <v>0</v>
       </c>
       <c r="L12">
-        <v>24.2996511994208</v>
+        <v>24.29965119942072</v>
       </c>
     </row>
     <row r="13" spans="1:12">
@@ -830,37 +830,37 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>22.72129045282462</v>
+        <v>22.72129045282453</v>
       </c>
       <c r="C13">
-        <v>20.64863869173418</v>
+        <v>20.6486386917341</v>
       </c>
       <c r="D13">
-        <v>3.224658117895498</v>
+        <v>3.224658117895632</v>
       </c>
       <c r="E13">
         <v>0</v>
       </c>
       <c r="F13">
-        <v>50.24821950693448</v>
+        <v>50.24821950693451</v>
       </c>
       <c r="G13">
         <v>0</v>
       </c>
       <c r="H13">
-        <v>30.54705581444177</v>
+        <v>30.54705581444183</v>
       </c>
       <c r="I13">
-        <v>14.18516766183122</v>
+        <v>14.18516766183124</v>
       </c>
       <c r="J13">
-        <v>21.64207934473895</v>
+        <v>21.64207934473887</v>
       </c>
       <c r="K13">
         <v>0</v>
       </c>
       <c r="L13">
-        <v>24.22610756427662</v>
+        <v>24.22610756427657</v>
       </c>
     </row>
     <row r="14" spans="1:12">
@@ -868,37 +868,37 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>22.50159486195182</v>
+        <v>22.50159486195193</v>
       </c>
       <c r="C14">
-        <v>20.44114227109037</v>
+        <v>20.44114227109025</v>
       </c>
       <c r="D14">
-        <v>3.228394670459505</v>
+        <v>3.228394670459508</v>
       </c>
       <c r="E14">
         <v>0</v>
       </c>
       <c r="F14">
-        <v>49.81595597991078</v>
+        <v>49.81595597991095</v>
       </c>
       <c r="G14">
         <v>0</v>
       </c>
       <c r="H14">
-        <v>30.32893650663395</v>
+        <v>30.32893650663409</v>
       </c>
       <c r="I14">
-        <v>14.03447804745047</v>
+        <v>14.03447804745046</v>
       </c>
       <c r="J14">
-        <v>21.43469239218578</v>
+        <v>21.43469239218582</v>
       </c>
       <c r="K14">
         <v>0</v>
       </c>
       <c r="L14">
-        <v>23.98561289054404</v>
+        <v>23.98561289054405</v>
       </c>
     </row>
     <row r="15" spans="1:12">
@@ -906,37 +906,37 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>22.36645905016687</v>
+        <v>22.3664590501668</v>
       </c>
       <c r="C15">
-        <v>20.31358462572791</v>
+        <v>20.31358462572797</v>
       </c>
       <c r="D15">
-        <v>3.230661433430496</v>
+        <v>3.230661433430292</v>
       </c>
       <c r="E15">
         <v>0</v>
       </c>
       <c r="F15">
-        <v>49.55095425156448</v>
+        <v>49.55095425156446</v>
       </c>
       <c r="G15">
         <v>0</v>
       </c>
       <c r="H15">
-        <v>30.19548408713642</v>
+        <v>30.1954840871364</v>
       </c>
       <c r="I15">
-        <v>13.95280965332239</v>
+        <v>13.95280965332236</v>
       </c>
       <c r="J15">
-        <v>21.3071566770772</v>
+        <v>21.30715667707719</v>
       </c>
       <c r="K15">
         <v>0</v>
       </c>
       <c r="L15">
-        <v>23.83779314994605</v>
+        <v>23.83779314994606</v>
       </c>
     </row>
     <row r="16" spans="1:12">
@@ -944,37 +944,37 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>21.58313828270679</v>
+        <v>21.58313828270667</v>
       </c>
       <c r="C16">
-        <v>19.57528489076423</v>
+        <v>19.57528489076412</v>
       </c>
       <c r="D16">
-        <v>3.243327922722932</v>
+        <v>3.243327922723066</v>
       </c>
       <c r="E16">
         <v>0</v>
       </c>
       <c r="F16">
-        <v>48.02850054293038</v>
+        <v>48.02850054293032</v>
       </c>
       <c r="G16">
         <v>0</v>
       </c>
       <c r="H16">
-        <v>29.43287225437589</v>
+        <v>29.43287225437587</v>
       </c>
       <c r="I16">
         <v>13.52720412855045</v>
       </c>
       <c r="J16">
-        <v>20.56832273134383</v>
+        <v>20.56832273134373</v>
       </c>
       <c r="K16">
         <v>0</v>
       </c>
       <c r="L16">
-        <v>22.98256213318226</v>
+        <v>22.98256213318222</v>
       </c>
     </row>
     <row r="17" spans="1:12">
@@ -982,37 +982,37 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>21.09439728365303</v>
+        <v>21.09439728365293</v>
       </c>
       <c r="C17">
-        <v>19.11555607783227</v>
+        <v>19.11555607783236</v>
       </c>
       <c r="D17">
-        <v>3.250823768537315</v>
+        <v>3.250823768537379</v>
       </c>
       <c r="E17">
         <v>0</v>
       </c>
       <c r="F17">
-        <v>47.09077749395972</v>
+        <v>47.09077749395961</v>
       </c>
       <c r="G17">
         <v>0</v>
       </c>
       <c r="H17">
-        <v>28.96678414693536</v>
+        <v>28.96678414693535</v>
       </c>
       <c r="I17">
-        <v>13.2664462597323</v>
+        <v>13.26644625973228</v>
       </c>
       <c r="J17">
-        <v>20.10771027525642</v>
+        <v>20.10771027525632</v>
       </c>
       <c r="K17">
         <v>0</v>
       </c>
       <c r="L17">
-        <v>22.45031371230083</v>
+        <v>22.4503137123008</v>
       </c>
     </row>
     <row r="18" spans="1:12">
@@ -1020,31 +1020,31 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>20.81018011433895</v>
+        <v>20.81018011433892</v>
       </c>
       <c r="C18">
-        <v>18.84852732832337</v>
+        <v>18.84852732832358</v>
       </c>
       <c r="D18">
-        <v>3.25503949107925</v>
+        <v>3.255039491079184</v>
       </c>
       <c r="E18">
         <v>0</v>
       </c>
       <c r="F18">
-        <v>46.54993832879722</v>
+        <v>46.54993832879724</v>
       </c>
       <c r="G18">
         <v>0</v>
       </c>
       <c r="H18">
-        <v>28.69928862204658</v>
+        <v>28.69928862204662</v>
       </c>
       <c r="I18">
         <v>13.11654035407362</v>
       </c>
       <c r="J18">
-        <v>19.83998143949032</v>
+        <v>19.83998143949036</v>
       </c>
       <c r="K18">
         <v>0</v>
@@ -1058,37 +1058,37 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>20.71340712876566</v>
+        <v>20.7134071287657</v>
       </c>
       <c r="C19">
-        <v>18.7576592164497</v>
+        <v>18.7576592164498</v>
       </c>
       <c r="D19">
-        <v>3.256450898724197</v>
+        <v>3.256450898724199</v>
       </c>
       <c r="E19">
         <v>0</v>
       </c>
       <c r="F19">
-        <v>46.36655580046985</v>
+        <v>46.36655580046995</v>
       </c>
       <c r="G19">
         <v>0</v>
       </c>
       <c r="H19">
-        <v>28.60881537386376</v>
+        <v>28.60881537386384</v>
       </c>
       <c r="I19">
-        <v>13.06579369929452</v>
+        <v>13.06579369929453</v>
       </c>
       <c r="J19">
-        <v>19.74884447545837</v>
+        <v>19.74884447545841</v>
       </c>
       <c r="K19">
         <v>0</v>
       </c>
       <c r="L19">
-        <v>22.03611273394587</v>
+        <v>22.03611273394596</v>
       </c>
     </row>
     <row r="20" spans="1:12">
@@ -1096,31 +1096,31 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>21.14674405649699</v>
+        <v>21.146744056497</v>
       </c>
       <c r="C20">
-        <v>19.16476233537333</v>
+        <v>19.16476233537344</v>
       </c>
       <c r="D20">
-        <v>3.250035840031393</v>
+        <v>3.250035840031459</v>
       </c>
       <c r="E20">
         <v>0</v>
       </c>
       <c r="F20">
-        <v>47.19075133977393</v>
+        <v>47.19075133977389</v>
       </c>
       <c r="G20">
         <v>0</v>
       </c>
       <c r="H20">
-        <v>29.01633824384706</v>
+        <v>29.01633824384703</v>
       </c>
       <c r="I20">
         <v>13.29419561664661</v>
       </c>
       <c r="J20">
-        <v>20.15703072487661</v>
+        <v>20.15703072487662</v>
       </c>
       <c r="K20">
         <v>0</v>
@@ -1134,37 +1134,37 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>22.56624213241346</v>
+        <v>22.56624213241372</v>
       </c>
       <c r="C21">
-        <v>20.50218422550555</v>
+        <v>20.50218422550563</v>
       </c>
       <c r="D21">
-        <v>3.227301769171088</v>
+        <v>3.227301769171091</v>
       </c>
       <c r="E21">
         <v>0</v>
       </c>
       <c r="F21">
-        <v>49.94296884596593</v>
+        <v>49.94296884596613</v>
       </c>
       <c r="G21">
         <v>0</v>
       </c>
       <c r="H21">
-        <v>30.39297130328171</v>
+        <v>30.39297130328176</v>
       </c>
       <c r="I21">
-        <v>14.07878650378574</v>
+        <v>14.07878650378571</v>
       </c>
       <c r="J21">
-        <v>21.49571167477476</v>
+        <v>21.49571167477493</v>
       </c>
       <c r="K21">
         <v>0</v>
       </c>
       <c r="L21">
-        <v>24.05635745396171</v>
+        <v>24.05635745396178</v>
       </c>
     </row>
     <row r="22" spans="1:12">
@@ -1172,37 +1172,37 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>23.46838046687734</v>
+        <v>23.46838046687756</v>
       </c>
       <c r="C22">
         <v>21.35538781705287</v>
       </c>
       <c r="D22">
-        <v>3.211474292694224</v>
+        <v>3.211474292694092</v>
       </c>
       <c r="E22">
         <v>0</v>
       </c>
       <c r="F22">
-        <v>51.73118334743785</v>
+        <v>51.73118334743806</v>
       </c>
       <c r="G22">
         <v>0</v>
       </c>
       <c r="H22">
-        <v>31.29931468890792</v>
+        <v>31.299314688908</v>
       </c>
       <c r="I22">
-        <v>14.70002924064057</v>
+        <v>14.70002924064067</v>
       </c>
       <c r="J22">
-        <v>22.34775275293692</v>
+        <v>22.34775275293703</v>
       </c>
       <c r="K22">
         <v>0</v>
       </c>
       <c r="L22">
-        <v>25.04561230385068</v>
+        <v>25.04561230385083</v>
       </c>
     </row>
     <row r="23" spans="1:12">
@@ -1210,37 +1210,37 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>22.98912449552377</v>
+        <v>22.98912449552394</v>
       </c>
       <c r="C23">
-        <v>20.90180543511919</v>
+        <v>20.90180543511931</v>
       </c>
       <c r="D23">
-        <v>3.220016624654052</v>
+        <v>3.220016624653922</v>
       </c>
       <c r="E23">
         <v>0</v>
       </c>
       <c r="F23">
-        <v>50.77757677389499</v>
+        <v>50.77757677389507</v>
       </c>
       <c r="G23">
         <v>0</v>
       </c>
       <c r="H23">
-        <v>30.81488894785706</v>
+        <v>30.81488894785704</v>
       </c>
       <c r="I23">
-        <v>14.36931145921448</v>
+        <v>14.36931145921445</v>
       </c>
       <c r="J23">
-        <v>21.89498700054548</v>
+        <v>21.89498700054563</v>
       </c>
       <c r="K23">
         <v>0</v>
       </c>
       <c r="L23">
-        <v>24.51960017012547</v>
+        <v>24.51960017012551</v>
       </c>
     </row>
     <row r="24" spans="1:12">
@@ -1248,37 +1248,37 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>21.12308817387533</v>
+        <v>21.12308817387536</v>
       </c>
       <c r="C24">
-        <v>19.14252469700453</v>
+        <v>19.14252469700472</v>
       </c>
       <c r="D24">
-        <v>3.250392353256309</v>
+        <v>3.250392353256111</v>
       </c>
       <c r="E24">
         <v>0</v>
       </c>
       <c r="F24">
-        <v>47.14555857722086</v>
+        <v>47.14555857722097</v>
       </c>
       <c r="G24">
         <v>0</v>
       </c>
       <c r="H24">
-        <v>28.99393340245635</v>
+        <v>28.9939334024564</v>
       </c>
       <c r="I24">
-        <v>13.28165012118676</v>
+        <v>13.28165012118681</v>
       </c>
       <c r="J24">
-        <v>20.13474205559936</v>
+        <v>20.13474205559948</v>
       </c>
       <c r="K24">
         <v>0</v>
       </c>
       <c r="L24">
-        <v>22.48153038600748</v>
+        <v>22.48153038600754</v>
       </c>
     </row>
     <row r="25" spans="1:12">
@@ -1286,37 +1286,37 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>18.99060687941218</v>
+        <v>18.99060687941222</v>
       </c>
       <c r="C25">
-        <v>17.14427720256918</v>
+        <v>17.14427720256925</v>
       </c>
       <c r="D25">
-        <v>3.279547527407006</v>
+        <v>3.279547527406944</v>
       </c>
       <c r="E25">
         <v>0</v>
       </c>
       <c r="F25">
-        <v>43.1709374667613</v>
+        <v>43.17093746676146</v>
       </c>
       <c r="G25">
         <v>0</v>
       </c>
       <c r="H25">
-        <v>27.0520426960956</v>
+        <v>27.05204269609572</v>
       </c>
       <c r="I25">
-        <v>12.18837360444438</v>
+        <v>12.18837360444439</v>
       </c>
       <c r="J25">
-        <v>18.12824491733698</v>
+        <v>18.12824491733702</v>
       </c>
       <c r="K25">
         <v>0</v>
       </c>
       <c r="L25">
-        <v>20.17053082233794</v>
+        <v>20.17053082233788</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_3_44/res_line/loading_percent.xlsx
+++ b/Code/Results/Cases/Case_3_44/res_line/loading_percent.xlsx
@@ -412,19 +412,19 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>17.30798328012264</v>
+        <v>17.30798328012277</v>
       </c>
       <c r="C2">
-        <v>15.57592099795369</v>
+        <v>15.57592099795364</v>
       </c>
       <c r="D2">
-        <v>3.298427235356109</v>
+        <v>3.298427235356043</v>
       </c>
       <c r="E2">
         <v>0</v>
       </c>
       <c r="F2">
-        <v>40.18934132355486</v>
+        <v>40.18934132355493</v>
       </c>
       <c r="G2">
         <v>0</v>
@@ -433,16 +433,16 @@
         <v>25.6377865749219</v>
       </c>
       <c r="I2">
-        <v>11.38232464819954</v>
+        <v>11.3823246481996</v>
       </c>
       <c r="J2">
-        <v>16.54889715543788</v>
+        <v>16.54889715543795</v>
       </c>
       <c r="K2">
         <v>0</v>
       </c>
       <c r="L2">
-        <v>18.35950874882088</v>
+        <v>18.35950874882091</v>
       </c>
     </row>
     <row r="3" spans="1:12">
@@ -450,31 +450,31 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>16.09338196881903</v>
+        <v>16.09338196881894</v>
       </c>
       <c r="C3">
-        <v>14.44800550350482</v>
+        <v>14.44800550350477</v>
       </c>
       <c r="D3">
-        <v>3.309821999411808</v>
+        <v>3.30982199941194</v>
       </c>
       <c r="E3">
         <v>0</v>
       </c>
       <c r="F3">
-        <v>38.13553338056938</v>
+        <v>38.13553338056951</v>
       </c>
       <c r="G3">
         <v>0</v>
       </c>
       <c r="H3">
-        <v>24.68901403823781</v>
+        <v>24.68901403823791</v>
       </c>
       <c r="I3">
-        <v>10.83506998315592</v>
+        <v>10.8350699831559</v>
       </c>
       <c r="J3">
-        <v>15.41106026882678</v>
+        <v>15.41106026882666</v>
       </c>
       <c r="K3">
         <v>0</v>
@@ -488,13 +488,13 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>15.30977291304883</v>
+        <v>15.30977291304874</v>
       </c>
       <c r="C4">
-        <v>13.72207845688533</v>
+        <v>13.72207845688515</v>
       </c>
       <c r="D4">
-        <v>3.316188206938974</v>
+        <v>3.316188206939172</v>
       </c>
       <c r="E4">
         <v>0</v>
@@ -506,19 +506,19 @@
         <v>0</v>
       </c>
       <c r="H4">
-        <v>24.11166720224362</v>
+        <v>24.1116672022437</v>
       </c>
       <c r="I4">
-        <v>10.49882614094674</v>
+        <v>10.49882614094671</v>
       </c>
       <c r="J4">
-        <v>14.67802053234618</v>
+        <v>14.67802053234606</v>
       </c>
       <c r="K4">
         <v>0</v>
       </c>
       <c r="L4">
-        <v>16.22204840778135</v>
+        <v>16.2220484077813</v>
       </c>
     </row>
     <row r="5" spans="1:12">
@@ -526,37 +526,37 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>14.98076708654839</v>
+        <v>14.98076708654836</v>
       </c>
       <c r="C5">
-        <v>13.41768534109893</v>
+        <v>13.41768534109888</v>
       </c>
       <c r="D5">
-        <v>3.318632029499646</v>
+        <v>3.318632029499847</v>
       </c>
       <c r="E5">
         <v>0</v>
       </c>
       <c r="F5">
-        <v>36.33658736837268</v>
+        <v>36.33658736837277</v>
       </c>
       <c r="G5">
         <v>0</v>
       </c>
       <c r="H5">
-        <v>23.87780718689822</v>
+        <v>23.87780718689831</v>
       </c>
       <c r="I5">
-        <v>10.36182336331381</v>
+        <v>10.36182336331378</v>
       </c>
       <c r="J5">
-        <v>14.37050330735411</v>
+        <v>14.37050330735407</v>
       </c>
       <c r="K5">
         <v>0</v>
       </c>
       <c r="L5">
-        <v>15.87143465933642</v>
+        <v>15.87143465933643</v>
       </c>
     </row>
     <row r="6" spans="1:12">
@@ -567,28 +567,28 @@
         <v>14.92554676536506</v>
       </c>
       <c r="C6">
-        <v>13.36661841186557</v>
+        <v>13.36661841186558</v>
       </c>
       <c r="D6">
-        <v>3.319028957125194</v>
+        <v>3.319028957125127</v>
       </c>
       <c r="E6">
         <v>0</v>
       </c>
       <c r="F6">
-        <v>36.24952484622181</v>
+        <v>36.24952484622187</v>
       </c>
       <c r="G6">
         <v>0</v>
       </c>
       <c r="H6">
-        <v>23.83906388905206</v>
+        <v>23.83906388905214</v>
       </c>
       <c r="I6">
-        <v>10.33907813984688</v>
+        <v>10.33907813984689</v>
       </c>
       <c r="J6">
-        <v>14.31890494782116</v>
+        <v>14.31890494782115</v>
       </c>
       <c r="K6">
         <v>0</v>
@@ -605,16 +605,16 @@
         <v>15.30537522326704</v>
       </c>
       <c r="C7">
-        <v>13.71800823850491</v>
+        <v>13.7180082385049</v>
       </c>
       <c r="D7">
-        <v>3.316221764343076</v>
+        <v>3.316221764343144</v>
       </c>
       <c r="E7">
         <v>0</v>
       </c>
       <c r="F7">
-        <v>36.8527377111082</v>
+        <v>36.85273771110819</v>
       </c>
       <c r="G7">
         <v>0</v>
@@ -623,16 +623,16 @@
         <v>24.10850740152129</v>
       </c>
       <c r="I7">
-        <v>10.4969782721573</v>
+        <v>10.49697827215733</v>
       </c>
       <c r="J7">
-        <v>14.67390905202591</v>
+        <v>14.67390905202592</v>
       </c>
       <c r="K7">
         <v>0</v>
       </c>
       <c r="L7">
-        <v>16.21735947651737</v>
+        <v>16.21735947651734</v>
       </c>
     </row>
     <row r="8" spans="1:12">
@@ -640,13 +640,13 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>16.89693987052574</v>
+        <v>16.89693987052578</v>
       </c>
       <c r="C8">
-        <v>15.19383313665788</v>
+        <v>15.19383313665784</v>
       </c>
       <c r="D8">
-        <v>3.302492027144795</v>
+        <v>3.302492027144661</v>
       </c>
       <c r="E8">
         <v>0</v>
@@ -658,10 +658,10 @@
         <v>0</v>
       </c>
       <c r="H8">
-        <v>25.3096231032657</v>
+        <v>25.30962310326567</v>
       </c>
       <c r="I8">
-        <v>11.19371436981914</v>
+        <v>11.19371436981918</v>
       </c>
       <c r="J8">
         <v>16.16361841642261</v>
@@ -670,7 +670,7 @@
         <v>0</v>
       </c>
       <c r="L8">
-        <v>17.91867544396025</v>
+        <v>17.91867544396024</v>
       </c>
     </row>
     <row r="9" spans="1:12">
@@ -678,37 +678,37 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>19.72581986717657</v>
+        <v>19.72581986717649</v>
       </c>
       <c r="C9">
         <v>17.83181866670247</v>
       </c>
       <c r="D9">
-        <v>3.270159837983687</v>
+        <v>3.270159837983754</v>
       </c>
       <c r="E9">
         <v>0</v>
       </c>
       <c r="F9">
-        <v>44.51821381597067</v>
+        <v>44.51821381597062</v>
       </c>
       <c r="G9">
         <v>0</v>
       </c>
       <c r="H9">
-        <v>27.70363580852303</v>
+        <v>27.70363580852301</v>
       </c>
       <c r="I9">
-        <v>12.55667598430809</v>
+        <v>12.55667598430806</v>
       </c>
       <c r="J9">
-        <v>18.81941039613462</v>
+        <v>18.81941039613459</v>
       </c>
       <c r="K9">
         <v>0</v>
       </c>
       <c r="L9">
-        <v>20.96522658004502</v>
+        <v>20.96522658004498</v>
       </c>
     </row>
     <row r="10" spans="1:12">
@@ -716,37 +716,37 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>21.63849272900087</v>
+        <v>21.6384927290009</v>
       </c>
       <c r="C10">
-        <v>19.62739753012994</v>
+        <v>19.62739753012998</v>
       </c>
       <c r="D10">
-        <v>3.242459257699124</v>
+        <v>3.242459257698854</v>
       </c>
       <c r="E10">
         <v>0</v>
       </c>
       <c r="F10">
-        <v>48.13530721887962</v>
+        <v>48.13530721887968</v>
       </c>
       <c r="G10">
         <v>0</v>
       </c>
       <c r="H10">
-        <v>29.48613937828776</v>
+        <v>29.48613937828777</v>
       </c>
       <c r="I10">
-        <v>13.55697191524281</v>
+        <v>13.55697191524283</v>
       </c>
       <c r="J10">
-        <v>20.620509320343</v>
+        <v>20.62050932034305</v>
       </c>
       <c r="K10">
         <v>0</v>
       </c>
       <c r="L10">
-        <v>23.04290925044607</v>
+        <v>23.04290925044609</v>
       </c>
     </row>
     <row r="11" spans="1:12">
@@ -754,37 +754,37 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>22.4757865281265</v>
+        <v>22.47578652812645</v>
       </c>
       <c r="C11">
-        <v>20.41677686233773</v>
+        <v>20.41677686233776</v>
       </c>
       <c r="D11">
-        <v>3.228829437275688</v>
+        <v>3.228829437275623</v>
       </c>
       <c r="E11">
         <v>0</v>
       </c>
       <c r="F11">
-        <v>49.76529335862265</v>
+        <v>49.76529335862266</v>
       </c>
       <c r="G11">
         <v>0</v>
       </c>
       <c r="H11">
-        <v>30.30340746595143</v>
+        <v>30.30340746595144</v>
       </c>
       <c r="I11">
-        <v>14.0167970351589</v>
+        <v>14.01679703515888</v>
       </c>
       <c r="J11">
-        <v>21.41033382650431</v>
+        <v>21.41033382650428</v>
       </c>
       <c r="K11">
         <v>0</v>
       </c>
       <c r="L11">
-        <v>23.95737574522952</v>
+        <v>23.95737574522945</v>
       </c>
     </row>
     <row r="12" spans="1:12">
@@ -792,37 +792,37 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>22.78843314230199</v>
+        <v>22.78843314230207</v>
       </c>
       <c r="C12">
-        <v>20.71208321772117</v>
+        <v>20.71208321772105</v>
       </c>
       <c r="D12">
-        <v>3.223503455467006</v>
+        <v>3.223503455467073</v>
       </c>
       <c r="E12">
         <v>0</v>
       </c>
       <c r="F12">
-        <v>50.38067892966794</v>
+        <v>50.38067892966804</v>
       </c>
       <c r="G12">
         <v>0</v>
       </c>
       <c r="H12">
-        <v>30.61400114684092</v>
+        <v>30.61400114684096</v>
       </c>
       <c r="I12">
-        <v>14.23128503663193</v>
+        <v>14.23128503663198</v>
       </c>
       <c r="J12">
-        <v>21.70547198030663</v>
+        <v>21.70547198030672</v>
       </c>
       <c r="K12">
         <v>0</v>
       </c>
       <c r="L12">
-        <v>24.29965119942072</v>
+        <v>24.2996511994208</v>
       </c>
     </row>
     <row r="13" spans="1:12">
@@ -830,37 +830,37 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>22.72129045282453</v>
+        <v>22.72129045282462</v>
       </c>
       <c r="C13">
-        <v>20.6486386917341</v>
+        <v>20.64863869173418</v>
       </c>
       <c r="D13">
-        <v>3.224658117895632</v>
+        <v>3.224658117895498</v>
       </c>
       <c r="E13">
         <v>0</v>
       </c>
       <c r="F13">
-        <v>50.24821950693451</v>
+        <v>50.24821950693448</v>
       </c>
       <c r="G13">
         <v>0</v>
       </c>
       <c r="H13">
-        <v>30.54705581444183</v>
+        <v>30.54705581444177</v>
       </c>
       <c r="I13">
-        <v>14.18516766183124</v>
+        <v>14.18516766183122</v>
       </c>
       <c r="J13">
-        <v>21.64207934473887</v>
+        <v>21.64207934473895</v>
       </c>
       <c r="K13">
         <v>0</v>
       </c>
       <c r="L13">
-        <v>24.22610756427657</v>
+        <v>24.22610756427662</v>
       </c>
     </row>
     <row r="14" spans="1:12">
@@ -868,37 +868,37 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>22.50159486195193</v>
+        <v>22.50159486195182</v>
       </c>
       <c r="C14">
-        <v>20.44114227109025</v>
+        <v>20.44114227109037</v>
       </c>
       <c r="D14">
-        <v>3.228394670459508</v>
+        <v>3.228394670459505</v>
       </c>
       <c r="E14">
         <v>0</v>
       </c>
       <c r="F14">
-        <v>49.81595597991095</v>
+        <v>49.81595597991078</v>
       </c>
       <c r="G14">
         <v>0</v>
       </c>
       <c r="H14">
-        <v>30.32893650663409</v>
+        <v>30.32893650663395</v>
       </c>
       <c r="I14">
-        <v>14.03447804745046</v>
+        <v>14.03447804745047</v>
       </c>
       <c r="J14">
-        <v>21.43469239218582</v>
+        <v>21.43469239218578</v>
       </c>
       <c r="K14">
         <v>0</v>
       </c>
       <c r="L14">
-        <v>23.98561289054405</v>
+        <v>23.98561289054404</v>
       </c>
     </row>
     <row r="15" spans="1:12">
@@ -906,37 +906,37 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>22.3664590501668</v>
+        <v>22.36645905016687</v>
       </c>
       <c r="C15">
-        <v>20.31358462572797</v>
+        <v>20.31358462572791</v>
       </c>
       <c r="D15">
-        <v>3.230661433430292</v>
+        <v>3.230661433430496</v>
       </c>
       <c r="E15">
         <v>0</v>
       </c>
       <c r="F15">
-        <v>49.55095425156446</v>
+        <v>49.55095425156448</v>
       </c>
       <c r="G15">
         <v>0</v>
       </c>
       <c r="H15">
-        <v>30.1954840871364</v>
+        <v>30.19548408713642</v>
       </c>
       <c r="I15">
-        <v>13.95280965332236</v>
+        <v>13.95280965332239</v>
       </c>
       <c r="J15">
-        <v>21.30715667707719</v>
+        <v>21.3071566770772</v>
       </c>
       <c r="K15">
         <v>0</v>
       </c>
       <c r="L15">
-        <v>23.83779314994606</v>
+        <v>23.83779314994605</v>
       </c>
     </row>
     <row r="16" spans="1:12">
@@ -944,37 +944,37 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>21.58313828270667</v>
+        <v>21.58313828270679</v>
       </c>
       <c r="C16">
-        <v>19.57528489076412</v>
+        <v>19.57528489076423</v>
       </c>
       <c r="D16">
-        <v>3.243327922723066</v>
+        <v>3.243327922722932</v>
       </c>
       <c r="E16">
         <v>0</v>
       </c>
       <c r="F16">
-        <v>48.02850054293032</v>
+        <v>48.02850054293038</v>
       </c>
       <c r="G16">
         <v>0</v>
       </c>
       <c r="H16">
-        <v>29.43287225437587</v>
+        <v>29.43287225437589</v>
       </c>
       <c r="I16">
         <v>13.52720412855045</v>
       </c>
       <c r="J16">
-        <v>20.56832273134373</v>
+        <v>20.56832273134383</v>
       </c>
       <c r="K16">
         <v>0</v>
       </c>
       <c r="L16">
-        <v>22.98256213318222</v>
+        <v>22.98256213318226</v>
       </c>
     </row>
     <row r="17" spans="1:12">
@@ -982,37 +982,37 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>21.09439728365293</v>
+        <v>21.09439728365303</v>
       </c>
       <c r="C17">
-        <v>19.11555607783236</v>
+        <v>19.11555607783227</v>
       </c>
       <c r="D17">
-        <v>3.250823768537379</v>
+        <v>3.250823768537315</v>
       </c>
       <c r="E17">
         <v>0</v>
       </c>
       <c r="F17">
-        <v>47.09077749395961</v>
+        <v>47.09077749395972</v>
       </c>
       <c r="G17">
         <v>0</v>
       </c>
       <c r="H17">
-        <v>28.96678414693535</v>
+        <v>28.96678414693536</v>
       </c>
       <c r="I17">
-        <v>13.26644625973228</v>
+        <v>13.2664462597323</v>
       </c>
       <c r="J17">
-        <v>20.10771027525632</v>
+        <v>20.10771027525642</v>
       </c>
       <c r="K17">
         <v>0</v>
       </c>
       <c r="L17">
-        <v>22.4503137123008</v>
+        <v>22.45031371230083</v>
       </c>
     </row>
     <row r="18" spans="1:12">
@@ -1020,31 +1020,31 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>20.81018011433892</v>
+        <v>20.81018011433895</v>
       </c>
       <c r="C18">
-        <v>18.84852732832358</v>
+        <v>18.84852732832337</v>
       </c>
       <c r="D18">
-        <v>3.255039491079184</v>
+        <v>3.25503949107925</v>
       </c>
       <c r="E18">
         <v>0</v>
       </c>
       <c r="F18">
-        <v>46.54993832879724</v>
+        <v>46.54993832879722</v>
       </c>
       <c r="G18">
         <v>0</v>
       </c>
       <c r="H18">
-        <v>28.69928862204662</v>
+        <v>28.69928862204658</v>
       </c>
       <c r="I18">
         <v>13.11654035407362</v>
       </c>
       <c r="J18">
-        <v>19.83998143949036</v>
+        <v>19.83998143949032</v>
       </c>
       <c r="K18">
         <v>0</v>
@@ -1058,37 +1058,37 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>20.7134071287657</v>
+        <v>20.71340712876566</v>
       </c>
       <c r="C19">
-        <v>18.7576592164498</v>
+        <v>18.7576592164497</v>
       </c>
       <c r="D19">
-        <v>3.256450898724199</v>
+        <v>3.256450898724197</v>
       </c>
       <c r="E19">
         <v>0</v>
       </c>
       <c r="F19">
-        <v>46.36655580046995</v>
+        <v>46.36655580046985</v>
       </c>
       <c r="G19">
         <v>0</v>
       </c>
       <c r="H19">
-        <v>28.60881537386384</v>
+        <v>28.60881537386376</v>
       </c>
       <c r="I19">
-        <v>13.06579369929453</v>
+        <v>13.06579369929452</v>
       </c>
       <c r="J19">
-        <v>19.74884447545841</v>
+        <v>19.74884447545837</v>
       </c>
       <c r="K19">
         <v>0</v>
       </c>
       <c r="L19">
-        <v>22.03611273394596</v>
+        <v>22.03611273394587</v>
       </c>
     </row>
     <row r="20" spans="1:12">
@@ -1096,31 +1096,31 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>21.146744056497</v>
+        <v>21.14674405649699</v>
       </c>
       <c r="C20">
-        <v>19.16476233537344</v>
+        <v>19.16476233537333</v>
       </c>
       <c r="D20">
-        <v>3.250035840031459</v>
+        <v>3.250035840031393</v>
       </c>
       <c r="E20">
         <v>0</v>
       </c>
       <c r="F20">
-        <v>47.19075133977389</v>
+        <v>47.19075133977393</v>
       </c>
       <c r="G20">
         <v>0</v>
       </c>
       <c r="H20">
-        <v>29.01633824384703</v>
+        <v>29.01633824384706</v>
       </c>
       <c r="I20">
         <v>13.29419561664661</v>
       </c>
       <c r="J20">
-        <v>20.15703072487662</v>
+        <v>20.15703072487661</v>
       </c>
       <c r="K20">
         <v>0</v>
@@ -1134,37 +1134,37 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>22.56624213241372</v>
+        <v>22.56624213241346</v>
       </c>
       <c r="C21">
-        <v>20.50218422550563</v>
+        <v>20.50218422550555</v>
       </c>
       <c r="D21">
-        <v>3.227301769171091</v>
+        <v>3.227301769171088</v>
       </c>
       <c r="E21">
         <v>0</v>
       </c>
       <c r="F21">
-        <v>49.94296884596613</v>
+        <v>49.94296884596593</v>
       </c>
       <c r="G21">
         <v>0</v>
       </c>
       <c r="H21">
-        <v>30.39297130328176</v>
+        <v>30.39297130328171</v>
       </c>
       <c r="I21">
-        <v>14.07878650378571</v>
+        <v>14.07878650378574</v>
       </c>
       <c r="J21">
-        <v>21.49571167477493</v>
+        <v>21.49571167477476</v>
       </c>
       <c r="K21">
         <v>0</v>
       </c>
       <c r="L21">
-        <v>24.05635745396178</v>
+        <v>24.05635745396171</v>
       </c>
     </row>
     <row r="22" spans="1:12">
@@ -1172,37 +1172,37 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>23.46838046687756</v>
+        <v>23.46838046687734</v>
       </c>
       <c r="C22">
         <v>21.35538781705287</v>
       </c>
       <c r="D22">
-        <v>3.211474292694092</v>
+        <v>3.211474292694224</v>
       </c>
       <c r="E22">
         <v>0</v>
       </c>
       <c r="F22">
-        <v>51.73118334743806</v>
+        <v>51.73118334743785</v>
       </c>
       <c r="G22">
         <v>0</v>
       </c>
       <c r="H22">
-        <v>31.299314688908</v>
+        <v>31.29931468890792</v>
       </c>
       <c r="I22">
-        <v>14.70002924064067</v>
+        <v>14.70002924064057</v>
       </c>
       <c r="J22">
-        <v>22.34775275293703</v>
+        <v>22.34775275293692</v>
       </c>
       <c r="K22">
         <v>0</v>
       </c>
       <c r="L22">
-        <v>25.04561230385083</v>
+        <v>25.04561230385068</v>
       </c>
     </row>
     <row r="23" spans="1:12">
@@ -1210,37 +1210,37 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>22.98912449552394</v>
+        <v>22.98912449552377</v>
       </c>
       <c r="C23">
-        <v>20.90180543511931</v>
+        <v>20.90180543511919</v>
       </c>
       <c r="D23">
-        <v>3.220016624653922</v>
+        <v>3.220016624654052</v>
       </c>
       <c r="E23">
         <v>0</v>
       </c>
       <c r="F23">
-        <v>50.77757677389507</v>
+        <v>50.77757677389499</v>
       </c>
       <c r="G23">
         <v>0</v>
       </c>
       <c r="H23">
-        <v>30.81488894785704</v>
+        <v>30.81488894785706</v>
       </c>
       <c r="I23">
-        <v>14.36931145921445</v>
+        <v>14.36931145921448</v>
       </c>
       <c r="J23">
-        <v>21.89498700054563</v>
+        <v>21.89498700054548</v>
       </c>
       <c r="K23">
         <v>0</v>
       </c>
       <c r="L23">
-        <v>24.51960017012551</v>
+        <v>24.51960017012547</v>
       </c>
     </row>
     <row r="24" spans="1:12">
@@ -1248,37 +1248,37 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>21.12308817387536</v>
+        <v>21.12308817387533</v>
       </c>
       <c r="C24">
-        <v>19.14252469700472</v>
+        <v>19.14252469700453</v>
       </c>
       <c r="D24">
-        <v>3.250392353256111</v>
+        <v>3.250392353256309</v>
       </c>
       <c r="E24">
         <v>0</v>
       </c>
       <c r="F24">
-        <v>47.14555857722097</v>
+        <v>47.14555857722086</v>
       </c>
       <c r="G24">
         <v>0</v>
       </c>
       <c r="H24">
-        <v>28.9939334024564</v>
+        <v>28.99393340245635</v>
       </c>
       <c r="I24">
-        <v>13.28165012118681</v>
+        <v>13.28165012118676</v>
       </c>
       <c r="J24">
-        <v>20.13474205559948</v>
+        <v>20.13474205559936</v>
       </c>
       <c r="K24">
         <v>0</v>
       </c>
       <c r="L24">
-        <v>22.48153038600754</v>
+        <v>22.48153038600748</v>
       </c>
     </row>
     <row r="25" spans="1:12">
@@ -1286,37 +1286,37 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>18.99060687941222</v>
+        <v>18.99060687941218</v>
       </c>
       <c r="C25">
-        <v>17.14427720256925</v>
+        <v>17.14427720256918</v>
       </c>
       <c r="D25">
-        <v>3.279547527406944</v>
+        <v>3.279547527407006</v>
       </c>
       <c r="E25">
         <v>0</v>
       </c>
       <c r="F25">
-        <v>43.17093746676146</v>
+        <v>43.1709374667613</v>
       </c>
       <c r="G25">
         <v>0</v>
       </c>
       <c r="H25">
-        <v>27.05204269609572</v>
+        <v>27.0520426960956</v>
       </c>
       <c r="I25">
-        <v>12.18837360444439</v>
+        <v>12.18837360444438</v>
       </c>
       <c r="J25">
-        <v>18.12824491733702</v>
+        <v>18.12824491733698</v>
       </c>
       <c r="K25">
         <v>0</v>
       </c>
       <c r="L25">
-        <v>20.17053082233788</v>
+        <v>20.17053082233794</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_3_44/res_line/loading_percent.xlsx
+++ b/Code/Results/Cases/Case_3_44/res_line/loading_percent.xlsx
@@ -366,13 +366,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:L25"/>
+  <dimension ref="A1:M25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:12">
+    <row r="1" spans="1:13">
       <c r="B1" s="1">
         <v>0</v>
       </c>
@@ -406,917 +406,992 @@
       <c r="L1" s="1">
         <v>10</v>
       </c>
-    </row>
-    <row r="2" spans="1:12">
+      <c r="M1" s="1">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="2" spans="1:13">
       <c r="A2" s="1">
         <v>0</v>
       </c>
       <c r="B2">
-        <v>17.30798328012277</v>
+        <v>17.20405030605613</v>
       </c>
       <c r="C2">
-        <v>15.57592099795364</v>
+        <v>15.46251437106674</v>
       </c>
       <c r="D2">
-        <v>3.298427235356043</v>
+        <v>3.449405373792712</v>
       </c>
       <c r="E2">
         <v>0</v>
       </c>
       <c r="F2">
-        <v>40.18934132355493</v>
+        <v>40.33775383758061</v>
       </c>
       <c r="G2">
-        <v>0</v>
+        <v>2.072287737807267</v>
       </c>
       <c r="H2">
-        <v>25.6377865749219</v>
+        <v>0</v>
       </c>
       <c r="I2">
-        <v>11.3823246481996</v>
+        <v>25.80267364025502</v>
       </c>
       <c r="J2">
-        <v>16.54889715543795</v>
+        <v>11.34871735789769</v>
       </c>
       <c r="K2">
-        <v>0</v>
+        <v>16.42707271130643</v>
       </c>
       <c r="L2">
-        <v>18.35950874882091</v>
-      </c>
-    </row>
-    <row r="3" spans="1:12">
+        <v>0</v>
+      </c>
+      <c r="M2">
+        <v>18.30428974874489</v>
+      </c>
+    </row>
+    <row r="3" spans="1:13">
       <c r="A3" s="1">
         <v>1</v>
       </c>
       <c r="B3">
-        <v>16.09338196881894</v>
+        <v>15.99219236925863</v>
       </c>
       <c r="C3">
-        <v>14.44800550350477</v>
+        <v>14.3397075301223</v>
       </c>
       <c r="D3">
-        <v>3.30982199941194</v>
+        <v>3.461393988009269</v>
       </c>
       <c r="E3">
         <v>0</v>
       </c>
       <c r="F3">
-        <v>38.13553338056951</v>
+        <v>38.31757707903093</v>
       </c>
       <c r="G3">
-        <v>0</v>
+        <v>2.083358583205302</v>
       </c>
       <c r="H3">
-        <v>24.68901403823791</v>
+        <v>0</v>
       </c>
       <c r="I3">
-        <v>10.8350699831559</v>
+        <v>24.87457794062456</v>
       </c>
       <c r="J3">
-        <v>15.41106026882666</v>
+        <v>10.79953791319371</v>
       </c>
       <c r="K3">
-        <v>0</v>
+        <v>15.29086320511462</v>
       </c>
       <c r="L3">
-        <v>17.05860781164565</v>
-      </c>
-    </row>
-    <row r="4" spans="1:12">
+        <v>0</v>
+      </c>
+      <c r="M3">
+        <v>17.00596653979338</v>
+      </c>
+    </row>
+    <row r="4" spans="1:13">
       <c r="A4" s="1">
         <v>2</v>
       </c>
       <c r="B4">
-        <v>15.30977291304874</v>
+        <v>15.21025922582759</v>
       </c>
       <c r="C4">
-        <v>13.72207845688515</v>
+        <v>13.61709757124213</v>
       </c>
       <c r="D4">
-        <v>3.316188206939172</v>
+        <v>3.468139086490551</v>
       </c>
       <c r="E4">
         <v>0</v>
       </c>
       <c r="F4">
-        <v>36.85978085729652</v>
+        <v>37.06431224502798</v>
       </c>
       <c r="G4">
-        <v>0</v>
+        <v>2.090289458749622</v>
       </c>
       <c r="H4">
-        <v>24.1116672022437</v>
+        <v>0</v>
       </c>
       <c r="I4">
-        <v>10.49882614094671</v>
+        <v>24.310641859851</v>
       </c>
       <c r="J4">
-        <v>14.67802053234606</v>
+        <v>10.46190050425177</v>
       </c>
       <c r="K4">
-        <v>0</v>
+        <v>14.55868297932892</v>
       </c>
       <c r="L4">
-        <v>16.2220484077813</v>
-      </c>
-    </row>
-    <row r="5" spans="1:12">
+        <v>0</v>
+      </c>
+      <c r="M4">
+        <v>16.17097576241441</v>
+      </c>
+    </row>
+    <row r="5" spans="1:13">
       <c r="A5" s="1">
         <v>3</v>
       </c>
       <c r="B5">
-        <v>14.98076708654836</v>
+        <v>14.88193414401515</v>
       </c>
       <c r="C5">
-        <v>13.41768534109888</v>
+        <v>13.31410595999201</v>
       </c>
       <c r="D5">
-        <v>3.318632029499847</v>
+        <v>3.470740935846028</v>
       </c>
       <c r="E5">
         <v>0</v>
       </c>
       <c r="F5">
-        <v>36.33658736837277</v>
+        <v>36.55074519331307</v>
       </c>
       <c r="G5">
-        <v>0</v>
+        <v>2.093150470277045</v>
       </c>
       <c r="H5">
-        <v>23.87780718689831</v>
+        <v>0</v>
       </c>
       <c r="I5">
-        <v>10.36182336331378</v>
+        <v>24.08241705278014</v>
       </c>
       <c r="J5">
-        <v>14.37050330735407</v>
+        <v>10.32427848587261</v>
       </c>
       <c r="K5">
-        <v>0</v>
+        <v>14.25147802222403</v>
       </c>
       <c r="L5">
-        <v>15.87143465933643</v>
-      </c>
-    </row>
-    <row r="6" spans="1:12">
+        <v>0</v>
+      </c>
+      <c r="M5">
+        <v>15.82099860936351</v>
+      </c>
+    </row>
+    <row r="6" spans="1:13">
       <c r="A6" s="1">
         <v>4</v>
       </c>
       <c r="B6">
-        <v>14.92554676536506</v>
+        <v>14.82682671454241</v>
       </c>
       <c r="C6">
-        <v>13.36661841186558</v>
+        <v>13.26327489189292</v>
       </c>
       <c r="D6">
-        <v>3.319028957125127</v>
+        <v>3.471164323795418</v>
       </c>
       <c r="E6">
         <v>0</v>
       </c>
       <c r="F6">
-        <v>36.24952484622187</v>
+        <v>36.46530897683296</v>
       </c>
       <c r="G6">
-        <v>0</v>
+        <v>2.093627836586034</v>
       </c>
       <c r="H6">
-        <v>23.83906388905214</v>
+        <v>0</v>
       </c>
       <c r="I6">
-        <v>10.33907813984689</v>
+        <v>24.044619426828</v>
       </c>
       <c r="J6">
-        <v>14.31890494782115</v>
+        <v>10.30142739865522</v>
       </c>
       <c r="K6">
-        <v>0</v>
+        <v>14.19992911391465</v>
       </c>
       <c r="L6">
-        <v>15.81262348752479</v>
-      </c>
-    </row>
-    <row r="7" spans="1:12">
+        <v>0</v>
+      </c>
+      <c r="M6">
+        <v>15.76229300263727</v>
+      </c>
+    </row>
+    <row r="7" spans="1:13">
       <c r="A7" s="1">
         <v>5</v>
       </c>
       <c r="B7">
-        <v>15.30537522326704</v>
+        <v>15.20587072620373</v>
       </c>
       <c r="C7">
-        <v>13.7180082385049</v>
+        <v>13.61304604643483</v>
       </c>
       <c r="D7">
-        <v>3.316221764343144</v>
+        <v>3.4681747603686</v>
       </c>
       <c r="E7">
         <v>0</v>
       </c>
       <c r="F7">
-        <v>36.85273771110819</v>
+        <v>37.05739705493535</v>
       </c>
       <c r="G7">
-        <v>0</v>
+        <v>2.090327891161427</v>
       </c>
       <c r="H7">
-        <v>24.10850740152129</v>
+        <v>0</v>
       </c>
       <c r="I7">
-        <v>10.49697827215733</v>
+        <v>24.30755738289859</v>
       </c>
       <c r="J7">
-        <v>14.67390905202592</v>
+        <v>10.46004448933255</v>
       </c>
       <c r="K7">
-        <v>0</v>
+        <v>14.55457586880219</v>
       </c>
       <c r="L7">
-        <v>16.21735947651734</v>
-      </c>
-    </row>
-    <row r="8" spans="1:12">
+        <v>0</v>
+      </c>
+      <c r="M7">
+        <v>16.16629542628271</v>
+      </c>
+    </row>
+    <row r="8" spans="1:13">
       <c r="A8" s="1">
         <v>6</v>
       </c>
       <c r="B8">
-        <v>16.89693987052578</v>
+        <v>16.79395471498361</v>
       </c>
       <c r="C8">
-        <v>15.19383313665784</v>
+        <v>15.08215309524437</v>
       </c>
       <c r="D8">
-        <v>3.302492027144661</v>
+        <v>3.453671988105512</v>
       </c>
       <c r="E8">
         <v>0</v>
       </c>
       <c r="F8">
-        <v>39.48443340404012</v>
+        <v>39.64406219808418</v>
       </c>
       <c r="G8">
-        <v>0</v>
+        <v>2.076079243047525</v>
       </c>
       <c r="H8">
-        <v>25.30962310326567</v>
+        <v>0</v>
       </c>
       <c r="I8">
-        <v>11.19371436981918</v>
+        <v>25.48148617483339</v>
       </c>
       <c r="J8">
-        <v>16.16361841642261</v>
+        <v>11.15948840942855</v>
       </c>
       <c r="K8">
-        <v>0</v>
+        <v>16.042382714266</v>
       </c>
       <c r="L8">
-        <v>17.91867544396024</v>
-      </c>
-    </row>
-    <row r="9" spans="1:12">
+        <v>0</v>
+      </c>
+      <c r="M8">
+        <v>17.86434886788094</v>
+      </c>
+    </row>
+    <row r="9" spans="1:13">
       <c r="A9" s="1">
         <v>7</v>
       </c>
       <c r="B9">
-        <v>19.72581986717649</v>
+        <v>19.61591546403797</v>
       </c>
       <c r="C9">
-        <v>17.83181866670247</v>
+        <v>17.70821111651469</v>
       </c>
       <c r="D9">
-        <v>3.270159837983754</v>
+        <v>3.419935281874351</v>
       </c>
       <c r="E9">
         <v>0</v>
       </c>
       <c r="F9">
-        <v>44.51821381597062</v>
+        <v>44.60387005235734</v>
       </c>
       <c r="G9">
-        <v>0</v>
+        <v>2.049039900720375</v>
       </c>
       <c r="H9">
-        <v>27.70363580852301</v>
+        <v>0</v>
       </c>
       <c r="I9">
-        <v>12.55667598430806</v>
+        <v>27.82814419905663</v>
       </c>
       <c r="J9">
-        <v>18.81941039613459</v>
+        <v>12.52600703583512</v>
       </c>
       <c r="K9">
-        <v>0</v>
+        <v>18.69340651987757</v>
       </c>
       <c r="L9">
-        <v>20.96522658004498</v>
-      </c>
-    </row>
-    <row r="10" spans="1:12">
+        <v>0</v>
+      </c>
+      <c r="M9">
+        <v>20.90432336887373</v>
+      </c>
+    </row>
+    <row r="10" spans="1:13">
       <c r="A10" s="1">
         <v>8</v>
       </c>
       <c r="B10">
-        <v>21.6384927290009</v>
+        <v>21.52337044227288</v>
       </c>
       <c r="C10">
-        <v>19.62739753012998</v>
+        <v>19.4955329974328</v>
       </c>
       <c r="D10">
-        <v>3.242459257698854</v>
+        <v>3.391268296483615</v>
       </c>
       <c r="E10">
         <v>0</v>
       </c>
       <c r="F10">
-        <v>48.13530721887968</v>
+        <v>48.17474445443211</v>
       </c>
       <c r="G10">
-        <v>0</v>
+        <v>2.029478460957855</v>
       </c>
       <c r="H10">
-        <v>29.48613937828777</v>
+        <v>0</v>
       </c>
       <c r="I10">
-        <v>13.55697191524283</v>
+        <v>29.57967501972353</v>
       </c>
       <c r="J10">
-        <v>20.62050932034305</v>
+        <v>13.5277487871042</v>
       </c>
       <c r="K10">
-        <v>0</v>
+        <v>20.49039465993045</v>
       </c>
       <c r="L10">
-        <v>23.04290925044609</v>
-      </c>
-    </row>
-    <row r="11" spans="1:12">
+        <v>0</v>
+      </c>
+      <c r="M10">
+        <v>22.97693065928719</v>
+      </c>
+    </row>
+    <row r="11" spans="1:13">
       <c r="A11" s="1">
         <v>9</v>
       </c>
       <c r="B11">
-        <v>22.47578652812645</v>
+        <v>22.35823186499978</v>
       </c>
       <c r="C11">
-        <v>20.41677686233776</v>
+        <v>20.28120628558799</v>
       </c>
       <c r="D11">
-        <v>3.228829437275623</v>
+        <v>3.377212588273872</v>
       </c>
       <c r="E11">
         <v>0</v>
       </c>
       <c r="F11">
-        <v>49.76529335862266</v>
+        <v>49.78527647278045</v>
       </c>
       <c r="G11">
-        <v>0</v>
+        <v>2.020581240561882</v>
       </c>
       <c r="H11">
-        <v>30.30340746595144</v>
+        <v>0</v>
       </c>
       <c r="I11">
-        <v>14.01679703515888</v>
+        <v>30.383666439372</v>
       </c>
       <c r="J11">
-        <v>21.41033382650428</v>
+        <v>14.01030106331181</v>
       </c>
       <c r="K11">
-        <v>0</v>
+        <v>21.27820279462921</v>
       </c>
       <c r="L11">
-        <v>23.95737574522945</v>
-      </c>
-    </row>
-    <row r="12" spans="1:12">
+        <v>0</v>
+      </c>
+      <c r="M11">
+        <v>23.88899170860492</v>
+      </c>
+    </row>
+    <row r="12" spans="1:13">
       <c r="A12" s="1">
         <v>10</v>
       </c>
       <c r="B12">
-        <v>22.78843314230207</v>
+        <v>22.66994550231737</v>
       </c>
       <c r="C12">
-        <v>20.71208321772105</v>
+        <v>20.57511076167816</v>
       </c>
       <c r="D12">
-        <v>3.223503455467073</v>
+        <v>3.371727280015656</v>
       </c>
       <c r="E12">
         <v>0</v>
       </c>
       <c r="F12">
-        <v>50.38067892966804</v>
+        <v>50.39350166130951</v>
       </c>
       <c r="G12">
-        <v>0</v>
+        <v>2.017206003402793</v>
       </c>
       <c r="H12">
-        <v>30.61400114684096</v>
+        <v>0</v>
       </c>
       <c r="I12">
-        <v>14.23128503663198</v>
+        <v>30.68934466700712</v>
       </c>
       <c r="J12">
-        <v>21.70547198030672</v>
+        <v>14.22444160172894</v>
       </c>
       <c r="K12">
-        <v>0</v>
+        <v>21.57255382815309</v>
       </c>
       <c r="L12">
-        <v>24.2996511994208</v>
-      </c>
-    </row>
-    <row r="13" spans="1:12">
+        <v>0</v>
+      </c>
+      <c r="M12">
+        <v>24.23033750167236</v>
+      </c>
+    </row>
+    <row r="13" spans="1:13">
       <c r="A13" s="1">
         <v>11</v>
       </c>
       <c r="B13">
-        <v>22.72129045282462</v>
+        <v>22.60300433971078</v>
       </c>
       <c r="C13">
-        <v>20.64863869173418</v>
+        <v>20.51196818789007</v>
       </c>
       <c r="D13">
-        <v>3.224658117895498</v>
+        <v>3.372916169933651</v>
       </c>
       <c r="E13">
         <v>0</v>
       </c>
       <c r="F13">
-        <v>50.24821950693448</v>
+        <v>50.26257551183602</v>
       </c>
       <c r="G13">
-        <v>0</v>
+        <v>2.01793329995236</v>
       </c>
       <c r="H13">
-        <v>30.54705581444177</v>
+        <v>0</v>
       </c>
       <c r="I13">
-        <v>14.18516766183122</v>
+        <v>30.62345308330587</v>
       </c>
       <c r="J13">
-        <v>21.64207934473895</v>
+        <v>14.1784001896002</v>
       </c>
       <c r="K13">
-        <v>0</v>
+        <v>21.50933181327713</v>
       </c>
       <c r="L13">
-        <v>24.22610756427662</v>
-      </c>
-    </row>
-    <row r="14" spans="1:12">
+        <v>0</v>
+      </c>
+      <c r="M13">
+        <v>24.15699501134773</v>
+      </c>
+    </row>
+    <row r="14" spans="1:13">
       <c r="A14" s="1">
         <v>12</v>
       </c>
       <c r="B14">
-        <v>22.50159486195182</v>
+        <v>22.38396370356403</v>
       </c>
       <c r="C14">
-        <v>20.44114227109037</v>
+        <v>20.30545636611194</v>
       </c>
       <c r="D14">
-        <v>3.228394670459505</v>
+        <v>3.376764674654448</v>
       </c>
       <c r="E14">
         <v>0</v>
       </c>
       <c r="F14">
-        <v>49.81595597991078</v>
+        <v>49.83534598844403</v>
       </c>
       <c r="G14">
-        <v>0</v>
+        <v>2.020303718223252</v>
       </c>
       <c r="H14">
-        <v>30.32893650663395</v>
+        <v>0</v>
       </c>
       <c r="I14">
-        <v>14.03447804745047</v>
+        <v>30.40878887245367</v>
       </c>
       <c r="J14">
-        <v>21.43469239218578</v>
+        <v>14.0279539930895</v>
       </c>
       <c r="K14">
-        <v>0</v>
+        <v>21.3024970941609</v>
       </c>
       <c r="L14">
-        <v>23.98561289054404</v>
-      </c>
-    </row>
-    <row r="15" spans="1:12">
+        <v>0</v>
+      </c>
+      <c r="M14">
+        <v>23.91715277861873</v>
+      </c>
+    </row>
+    <row r="15" spans="1:13">
       <c r="A15" s="1">
         <v>13</v>
       </c>
       <c r="B15">
-        <v>22.36645905016687</v>
+        <v>22.24922740425056</v>
       </c>
       <c r="C15">
-        <v>20.31358462572791</v>
+        <v>20.1785018304214</v>
       </c>
       <c r="D15">
-        <v>3.230661433430496</v>
+        <v>3.379100264600496</v>
       </c>
       <c r="E15">
         <v>0</v>
       </c>
       <c r="F15">
-        <v>49.55095425156448</v>
+        <v>49.57345399662895</v>
       </c>
       <c r="G15">
-        <v>0</v>
+        <v>2.021754678197222</v>
       </c>
       <c r="H15">
-        <v>30.19548408713642</v>
+        <v>0</v>
       </c>
       <c r="I15">
-        <v>13.95280965332239</v>
+        <v>30.2774672146851</v>
       </c>
       <c r="J15">
-        <v>21.3071566770772</v>
+        <v>13.93556837382794</v>
       </c>
       <c r="K15">
-        <v>0</v>
+        <v>21.17529647531525</v>
       </c>
       <c r="L15">
-        <v>23.83779314994605</v>
-      </c>
-    </row>
-    <row r="16" spans="1:12">
+        <v>0</v>
+      </c>
+      <c r="M15">
+        <v>23.76973006707329</v>
+      </c>
+    </row>
+    <row r="16" spans="1:13">
       <c r="A16" s="1">
         <v>14</v>
       </c>
       <c r="B16">
-        <v>21.58313828270679</v>
+        <v>21.46817350177647</v>
       </c>
       <c r="C16">
-        <v>19.57528489076423</v>
+        <v>19.44366309759885</v>
       </c>
       <c r="D16">
-        <v>3.243327922722932</v>
+        <v>3.39216506814285</v>
       </c>
       <c r="E16">
         <v>0</v>
       </c>
       <c r="F16">
-        <v>48.02850054293038</v>
+        <v>48.069239165334</v>
       </c>
       <c r="G16">
-        <v>0</v>
+        <v>2.030059429211523</v>
       </c>
       <c r="H16">
-        <v>29.43287225437589</v>
+        <v>0</v>
       </c>
       <c r="I16">
-        <v>13.52720412855045</v>
+        <v>29.52729156992993</v>
       </c>
       <c r="J16">
-        <v>20.56832273134383</v>
+        <v>13.49795041314475</v>
       </c>
       <c r="K16">
-        <v>0</v>
+        <v>20.43833671030999</v>
       </c>
       <c r="L16">
-        <v>22.98256213318226</v>
-      </c>
-    </row>
-    <row r="17" spans="1:12">
+        <v>0</v>
+      </c>
+      <c r="M16">
+        <v>22.91673840894801</v>
+      </c>
+    </row>
+    <row r="17" spans="1:13">
       <c r="A17" s="1">
         <v>15</v>
       </c>
       <c r="B17">
-        <v>21.09439728365303</v>
+        <v>20.98080593548876</v>
       </c>
       <c r="C17">
-        <v>19.11555607783227</v>
+        <v>18.98606653299813</v>
       </c>
       <c r="D17">
-        <v>3.250823768537315</v>
+        <v>3.39990876276363</v>
       </c>
       <c r="E17">
         <v>0</v>
       </c>
       <c r="F17">
-        <v>47.09077749395972</v>
+        <v>47.14309449329249</v>
       </c>
       <c r="G17">
-        <v>0</v>
+        <v>2.03515030944048</v>
       </c>
       <c r="H17">
-        <v>28.96678414693536</v>
+        <v>0</v>
       </c>
       <c r="I17">
-        <v>13.2664462597323</v>
+        <v>29.06903833729528</v>
       </c>
       <c r="J17">
-        <v>20.10771027525642</v>
+        <v>13.23689302878544</v>
       </c>
       <c r="K17">
-        <v>0</v>
+        <v>19.97883506913491</v>
       </c>
       <c r="L17">
-        <v>22.45031371230083</v>
-      </c>
-    </row>
-    <row r="18" spans="1:12">
+        <v>0</v>
+      </c>
+      <c r="M17">
+        <v>22.38583590338468</v>
+      </c>
+    </row>
+    <row r="18" spans="1:13">
       <c r="A18" s="1">
         <v>16</v>
       </c>
       <c r="B18">
-        <v>20.81018011433895</v>
+        <v>20.69737345539632</v>
       </c>
       <c r="C18">
-        <v>18.84852732832337</v>
+        <v>18.72026929238886</v>
       </c>
       <c r="D18">
-        <v>3.25503949107925</v>
+        <v>3.404268335371456</v>
       </c>
       <c r="E18">
         <v>0</v>
       </c>
       <c r="F18">
-        <v>46.54993832879722</v>
+        <v>46.60906411380743</v>
       </c>
       <c r="G18">
-        <v>0</v>
+        <v>2.038079002243385</v>
       </c>
       <c r="H18">
-        <v>28.69928862204658</v>
+        <v>0</v>
       </c>
       <c r="I18">
-        <v>13.11654035407362</v>
+        <v>28.80612619850255</v>
       </c>
       <c r="J18">
-        <v>19.83998143949032</v>
+        <v>13.08678879480209</v>
       </c>
       <c r="K18">
-        <v>0</v>
+        <v>19.71173158329863</v>
       </c>
       <c r="L18">
-        <v>22.14126365243676</v>
-      </c>
-    </row>
-    <row r="19" spans="1:12">
+        <v>0</v>
+      </c>
+      <c r="M18">
+        <v>22.07755123768058</v>
+      </c>
+    </row>
+    <row r="19" spans="1:13">
       <c r="A19" s="1">
         <v>17</v>
       </c>
       <c r="B19">
-        <v>20.71340712876566</v>
+        <v>20.60086533695872</v>
       </c>
       <c r="C19">
-        <v>18.7576592164497</v>
+        <v>18.62981918371213</v>
       </c>
       <c r="D19">
-        <v>3.256450898724197</v>
+        <v>3.405728671382859</v>
       </c>
       <c r="E19">
         <v>0</v>
       </c>
       <c r="F19">
-        <v>46.36655580046985</v>
+        <v>46.42801309896247</v>
       </c>
       <c r="G19">
-        <v>0</v>
+        <v>2.039070878236986</v>
       </c>
       <c r="H19">
-        <v>28.60881537386376</v>
+        <v>0</v>
       </c>
       <c r="I19">
-        <v>13.06579369929452</v>
+        <v>28.71721812811242</v>
       </c>
       <c r="J19">
-        <v>19.74884447545837</v>
+        <v>13.03597058791066</v>
       </c>
       <c r="K19">
-        <v>0</v>
+        <v>19.62080408181378</v>
       </c>
       <c r="L19">
-        <v>22.03611273394587</v>
-      </c>
-    </row>
-    <row r="20" spans="1:12">
+        <v>0</v>
+      </c>
+      <c r="M19">
+        <v>21.97265809712541</v>
+      </c>
+    </row>
+    <row r="20" spans="1:13">
       <c r="A20" s="1">
         <v>18</v>
       </c>
       <c r="B20">
-        <v>21.14674405649699</v>
+        <v>21.03300707188099</v>
       </c>
       <c r="C20">
-        <v>19.16476233537333</v>
+        <v>19.03504532019484</v>
       </c>
       <c r="D20">
-        <v>3.250035840031393</v>
+        <v>3.399094316630616</v>
       </c>
       <c r="E20">
         <v>0</v>
       </c>
       <c r="F20">
-        <v>47.19075133977393</v>
+        <v>47.24182049081057</v>
       </c>
       <c r="G20">
-        <v>0</v>
+        <v>2.034608361694863</v>
       </c>
       <c r="H20">
-        <v>29.01633824384706</v>
+        <v>0</v>
       </c>
       <c r="I20">
-        <v>13.29419561664661</v>
+        <v>29.11775045802325</v>
       </c>
       <c r="J20">
-        <v>20.15703072487661</v>
+        <v>13.26467698408995</v>
       </c>
       <c r="K20">
-        <v>0</v>
+        <v>20.02803868891392</v>
       </c>
       <c r="L20">
-        <v>22.50727143069783</v>
-      </c>
-    </row>
-    <row r="21" spans="1:12">
+        <v>0</v>
+      </c>
+      <c r="M20">
+        <v>22.44265128302216</v>
+      </c>
+    </row>
+    <row r="21" spans="1:13">
       <c r="A21" s="1">
         <v>19</v>
       </c>
       <c r="B21">
-        <v>22.56624213241346</v>
+        <v>22.44841895266849</v>
       </c>
       <c r="C21">
-        <v>20.50218422550555</v>
+        <v>20.36620912838403</v>
       </c>
       <c r="D21">
-        <v>3.227301769171088</v>
+        <v>3.375638837603054</v>
       </c>
       <c r="E21">
         <v>0</v>
       </c>
       <c r="F21">
-        <v>49.94296884596593</v>
+        <v>49.96087481090316</v>
       </c>
       <c r="G21">
-        <v>0</v>
+        <v>2.019607687665747</v>
       </c>
       <c r="H21">
-        <v>30.39297130328171</v>
+        <v>0</v>
       </c>
       <c r="I21">
-        <v>14.07878650378574</v>
+        <v>30.47180583163906</v>
       </c>
       <c r="J21">
-        <v>21.49571167477476</v>
+        <v>14.0721916343102</v>
       </c>
       <c r="K21">
-        <v>0</v>
+        <v>21.36335483760842</v>
       </c>
       <c r="L21">
-        <v>24.05635745396171</v>
-      </c>
-    </row>
-    <row r="22" spans="1:12">
+        <v>0</v>
+      </c>
+      <c r="M21">
+        <v>23.98770625866496</v>
+      </c>
+    </row>
+    <row r="22" spans="1:13">
       <c r="A22" s="1">
         <v>20</v>
       </c>
       <c r="B22">
-        <v>23.46838046687734</v>
+        <v>23.34781511878171</v>
       </c>
       <c r="C22">
-        <v>21.35538781705287</v>
+        <v>21.21532822822015</v>
       </c>
       <c r="D22">
-        <v>3.211474292694224</v>
+        <v>3.359351228958598</v>
       </c>
       <c r="E22">
         <v>0</v>
       </c>
       <c r="F22">
-        <v>51.73118334743785</v>
+        <v>51.72860763982258</v>
       </c>
       <c r="G22">
-        <v>0</v>
+        <v>2.009764986792706</v>
       </c>
       <c r="H22">
-        <v>31.29931468890792</v>
+        <v>0</v>
       </c>
       <c r="I22">
-        <v>14.70002924064057</v>
+        <v>31.36404280969441</v>
       </c>
       <c r="J22">
-        <v>22.34775275293692</v>
+        <v>14.69237407344809</v>
       </c>
       <c r="K22">
-        <v>0</v>
+        <v>22.21305746107537</v>
       </c>
       <c r="L22">
-        <v>25.04561230385068</v>
-      </c>
-    </row>
-    <row r="23" spans="1:12">
+        <v>0</v>
+      </c>
+      <c r="M22">
+        <v>24.97421397169976</v>
+      </c>
+    </row>
+    <row r="23" spans="1:13">
       <c r="A23" s="1">
         <v>21</v>
       </c>
       <c r="B23">
-        <v>22.98912449552377</v>
+        <v>22.87003063649707</v>
       </c>
       <c r="C23">
-        <v>20.90180543511919</v>
+        <v>20.76392743163577</v>
       </c>
       <c r="D23">
-        <v>3.220016624654052</v>
+        <v>3.368138109821984</v>
       </c>
       <c r="E23">
         <v>0</v>
       </c>
       <c r="F23">
-        <v>50.77757677389499</v>
+        <v>50.78583058706275</v>
       </c>
       <c r="G23">
-        <v>0</v>
+        <v>2.015024099405052</v>
       </c>
       <c r="H23">
-        <v>30.81488894785706</v>
+        <v>0</v>
       </c>
       <c r="I23">
-        <v>14.36931145921448</v>
+        <v>30.88708879326042</v>
       </c>
       <c r="J23">
-        <v>21.89498700054548</v>
+        <v>14.36223653330947</v>
       </c>
       <c r="K23">
-        <v>0</v>
+        <v>21.76155367277464</v>
       </c>
       <c r="L23">
-        <v>24.51960017012547</v>
-      </c>
-    </row>
-    <row r="24" spans="1:12">
+        <v>0</v>
+      </c>
+      <c r="M23">
+        <v>24.44968028542963</v>
+      </c>
+    </row>
+    <row r="24" spans="1:13">
       <c r="A24" s="1">
         <v>22</v>
       </c>
       <c r="B24">
-        <v>21.12308817387533</v>
+        <v>21.00941704656469</v>
       </c>
       <c r="C24">
-        <v>19.14252469700453</v>
+        <v>19.01291050315367</v>
       </c>
       <c r="D24">
-        <v>3.250392353256309</v>
+        <v>3.399462814240906</v>
       </c>
       <c r="E24">
         <v>0</v>
       </c>
       <c r="F24">
-        <v>47.14555857722086</v>
+        <v>47.19719140489929</v>
       </c>
       <c r="G24">
-        <v>0</v>
+        <v>2.034853369962572</v>
       </c>
       <c r="H24">
-        <v>28.99393340245635</v>
+        <v>0</v>
       </c>
       <c r="I24">
-        <v>13.28165012118676</v>
+        <v>29.0957260276342</v>
       </c>
       <c r="J24">
-        <v>20.13474205559936</v>
+        <v>13.25211592789811</v>
       </c>
       <c r="K24">
-        <v>0</v>
+        <v>20.00580287957548</v>
       </c>
       <c r="L24">
-        <v>22.48153038600748</v>
-      </c>
-    </row>
-    <row r="25" spans="1:12">
+        <v>0</v>
+      </c>
+      <c r="M24">
+        <v>22.41697461547176</v>
+      </c>
+    </row>
+    <row r="25" spans="1:13">
       <c r="A25" s="1">
         <v>23</v>
       </c>
       <c r="B25">
-        <v>18.99060687941218</v>
+        <v>18.88259016709653</v>
       </c>
       <c r="C25">
-        <v>17.14427720256918</v>
+        <v>17.02378866203573</v>
       </c>
       <c r="D25">
-        <v>3.279547527407006</v>
+        <v>3.429691259294176</v>
       </c>
       <c r="E25">
         <v>0</v>
       </c>
       <c r="F25">
-        <v>43.1709374667613</v>
+        <v>43.27512147289934</v>
       </c>
       <c r="G25">
-        <v>0</v>
+        <v>2.056281721686181</v>
       </c>
       <c r="H25">
-        <v>27.0520426960956</v>
+        <v>0</v>
       </c>
       <c r="I25">
-        <v>12.18837360444438</v>
+        <v>27.18869459720758</v>
       </c>
       <c r="J25">
-        <v>18.12824491733698</v>
+        <v>12.15693996399902</v>
       </c>
       <c r="K25">
-        <v>0</v>
+        <v>18.00363594836894</v>
       </c>
       <c r="L25">
-        <v>20.17053082233794</v>
+        <v>0</v>
+      </c>
+      <c r="M25">
+        <v>20.11143745487063</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_3_44/res_line/loading_percent.xlsx
+++ b/Code/Results/Cases/Case_3_44/res_line/loading_percent.xlsx
@@ -366,13 +366,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:M25"/>
+  <dimension ref="A1:O25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:13">
+    <row r="1" spans="1:15">
       <c r="B1" s="1">
         <v>0</v>
       </c>
@@ -409,989 +409,1139 @@
       <c r="M1" s="1">
         <v>11</v>
       </c>
-    </row>
-    <row r="2" spans="1:13">
+      <c r="N1" s="1">
+        <v>12</v>
+      </c>
+      <c r="O1" s="1">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="2" spans="1:15">
       <c r="A2" s="1">
         <v>0</v>
       </c>
       <c r="B2">
-        <v>17.20405030605613</v>
+        <v>18.12295406178959</v>
       </c>
       <c r="C2">
-        <v>15.46251437106674</v>
+        <v>10.8655961897273</v>
       </c>
       <c r="D2">
-        <v>3.449405373792712</v>
+        <v>5.407764759838911</v>
       </c>
       <c r="E2">
         <v>0</v>
       </c>
       <c r="F2">
-        <v>40.33775383758061</v>
+        <v>37.84103546578751</v>
       </c>
       <c r="G2">
-        <v>2.072287737807267</v>
+        <v>2.103740235320075</v>
       </c>
       <c r="H2">
         <v>0</v>
       </c>
       <c r="I2">
-        <v>25.80267364025502</v>
+        <v>0</v>
       </c>
       <c r="J2">
-        <v>11.34871735789769</v>
+        <v>0</v>
       </c>
       <c r="K2">
-        <v>16.42707271130643</v>
+        <v>14.85881808057343</v>
       </c>
       <c r="L2">
-        <v>0</v>
+        <v>6.820869392286532</v>
       </c>
       <c r="M2">
-        <v>18.30428974874489</v>
-      </c>
-    </row>
-    <row r="3" spans="1:13">
+        <v>11.72337738366315</v>
+      </c>
+      <c r="N2">
+        <v>0</v>
+      </c>
+      <c r="O2">
+        <v>30.21567585496955</v>
+      </c>
+    </row>
+    <row r="3" spans="1:15">
       <c r="A3" s="1">
         <v>1</v>
       </c>
       <c r="B3">
-        <v>15.99219236925863</v>
+        <v>16.83455654795799</v>
       </c>
       <c r="C3">
-        <v>14.3397075301223</v>
+        <v>10.41422088722762</v>
       </c>
       <c r="D3">
-        <v>3.461393988009269</v>
+        <v>5.452850630482482</v>
       </c>
       <c r="E3">
         <v>0</v>
       </c>
       <c r="F3">
-        <v>38.31757707903093</v>
+        <v>36.29252169808617</v>
       </c>
       <c r="G3">
-        <v>2.083358583205302</v>
+        <v>2.113595716505762</v>
       </c>
       <c r="H3">
         <v>0</v>
       </c>
       <c r="I3">
-        <v>24.87457794062456</v>
+        <v>0</v>
       </c>
       <c r="J3">
-        <v>10.79953791319371</v>
+        <v>0</v>
       </c>
       <c r="K3">
-        <v>15.29086320511462</v>
+        <v>13.84934818527573</v>
       </c>
       <c r="L3">
-        <v>0</v>
+        <v>6.743617188162451</v>
       </c>
       <c r="M3">
-        <v>17.00596653979338</v>
-      </c>
-    </row>
-    <row r="4" spans="1:13">
+        <v>11.28880978693339</v>
+      </c>
+      <c r="N3">
+        <v>0</v>
+      </c>
+      <c r="O3">
+        <v>29.1672447236325</v>
+      </c>
+    </row>
+    <row r="4" spans="1:15">
       <c r="A4" s="1">
         <v>2</v>
       </c>
       <c r="B4">
-        <v>15.21025922582759</v>
+        <v>16.07302010976041</v>
       </c>
       <c r="C4">
-        <v>13.61709757124213</v>
+        <v>10.1277497363442</v>
       </c>
       <c r="D4">
-        <v>3.468139086490551</v>
+        <v>5.481269813692601</v>
       </c>
       <c r="E4">
         <v>0</v>
       </c>
       <c r="F4">
-        <v>37.06431224502798</v>
+        <v>35.34038182588667</v>
       </c>
       <c r="G4">
-        <v>2.090289458749622</v>
+        <v>2.11979094937954</v>
       </c>
       <c r="H4">
         <v>0</v>
       </c>
       <c r="I4">
-        <v>24.310641859851</v>
+        <v>0</v>
       </c>
       <c r="J4">
-        <v>10.46190050425177</v>
+        <v>0</v>
       </c>
       <c r="K4">
-        <v>14.55868297932892</v>
+        <v>13.19740730076704</v>
       </c>
       <c r="L4">
-        <v>0</v>
+        <v>6.699445733655179</v>
       </c>
       <c r="M4">
-        <v>16.17097576241441</v>
-      </c>
-    </row>
-    <row r="5" spans="1:13">
+        <v>11.02243627842665</v>
+      </c>
+      <c r="N4">
+        <v>0</v>
+      </c>
+      <c r="O4">
+        <v>28.52902825903436</v>
+      </c>
+    </row>
+    <row r="5" spans="1:15">
       <c r="A5" s="1">
         <v>3</v>
       </c>
       <c r="B5">
-        <v>14.88193414401515</v>
+        <v>15.76458479877099</v>
       </c>
       <c r="C5">
-        <v>13.31410595999201</v>
+        <v>10.00868769382957</v>
       </c>
       <c r="D5">
-        <v>3.470740935846028</v>
+        <v>5.493033527996322</v>
       </c>
       <c r="E5">
         <v>0</v>
       </c>
       <c r="F5">
-        <v>36.55074519331307</v>
+        <v>34.95239982466632</v>
       </c>
       <c r="G5">
-        <v>2.093150470277045</v>
+        <v>2.12235389343693</v>
       </c>
       <c r="H5">
         <v>0</v>
       </c>
       <c r="I5">
-        <v>24.08241705278014</v>
+        <v>0</v>
       </c>
       <c r="J5">
-        <v>10.32427848587261</v>
+        <v>0</v>
       </c>
       <c r="K5">
-        <v>14.25147802222403</v>
+        <v>12.92355940453208</v>
       </c>
       <c r="L5">
-        <v>0</v>
+        <v>6.682252375120681</v>
       </c>
       <c r="M5">
-        <v>15.82099860936351</v>
-      </c>
-    </row>
-    <row r="6" spans="1:13">
+        <v>10.91413199937884</v>
+      </c>
+      <c r="N5">
+        <v>0</v>
+      </c>
+      <c r="O5">
+        <v>28.27052746408798</v>
+      </c>
+    </row>
+    <row r="6" spans="1:15">
       <c r="A6" s="1">
         <v>4</v>
       </c>
       <c r="B6">
-        <v>14.82682671454241</v>
+        <v>15.71296106953293</v>
       </c>
       <c r="C6">
-        <v>13.26327489189292</v>
+        <v>9.988778156438814</v>
       </c>
       <c r="D6">
-        <v>3.471164323795418</v>
+        <v>5.494997855728593</v>
       </c>
       <c r="E6">
         <v>0</v>
       </c>
       <c r="F6">
-        <v>36.46530897683296</v>
+        <v>34.8879887148046</v>
       </c>
       <c r="G6">
-        <v>2.093627836586034</v>
+        <v>2.122781843600933</v>
       </c>
       <c r="H6">
         <v>0</v>
       </c>
       <c r="I6">
-        <v>24.044619426828</v>
+        <v>0</v>
       </c>
       <c r="J6">
-        <v>10.30142739865522</v>
+        <v>0</v>
       </c>
       <c r="K6">
-        <v>14.19992911391465</v>
+        <v>12.87759058779173</v>
       </c>
       <c r="L6">
-        <v>0</v>
+        <v>6.679445765419656</v>
       </c>
       <c r="M6">
-        <v>15.76229300263727</v>
-      </c>
-    </row>
-    <row r="7" spans="1:13">
+        <v>10.89616707279805</v>
+      </c>
+      <c r="N6">
+        <v>0</v>
+      </c>
+      <c r="O6">
+        <v>28.22770483544668</v>
+      </c>
+    </row>
+    <row r="7" spans="1:15">
       <c r="A7" s="1">
         <v>5</v>
       </c>
       <c r="B7">
-        <v>15.20587072620373</v>
+        <v>16.06888794188944</v>
       </c>
       <c r="C7">
-        <v>13.61304604643483</v>
+        <v>10.12615338950613</v>
       </c>
       <c r="D7">
-        <v>3.4681747603686</v>
+        <v>5.481427726460382</v>
       </c>
       <c r="E7">
         <v>0</v>
       </c>
       <c r="F7">
-        <v>37.05739705493535</v>
+        <v>35.33514875459138</v>
       </c>
       <c r="G7">
-        <v>2.090327891161427</v>
+        <v>2.119825356190595</v>
       </c>
       <c r="H7">
         <v>0</v>
       </c>
       <c r="I7">
-        <v>24.30755738289859</v>
+        <v>0</v>
       </c>
       <c r="J7">
-        <v>10.46004448933255</v>
+        <v>0</v>
       </c>
       <c r="K7">
-        <v>14.55457586880219</v>
+        <v>13.19374732437966</v>
       </c>
       <c r="L7">
-        <v>0</v>
+        <v>6.699210608939256</v>
       </c>
       <c r="M7">
-        <v>16.16629542628271</v>
-      </c>
-    </row>
-    <row r="8" spans="1:13">
+        <v>11.02097447264349</v>
+      </c>
+      <c r="N7">
+        <v>0</v>
+      </c>
+      <c r="O7">
+        <v>28.5255353732371</v>
+      </c>
+    </row>
+    <row r="8" spans="1:15">
       <c r="A8" s="1">
         <v>6</v>
       </c>
       <c r="B8">
-        <v>16.79395471498361</v>
+        <v>17.68697213795328</v>
       </c>
       <c r="C8">
-        <v>15.08215309524437</v>
+        <v>10.71190628292766</v>
       </c>
       <c r="D8">
-        <v>3.453671988105512</v>
+        <v>5.423155864392131</v>
       </c>
       <c r="E8">
         <v>0</v>
       </c>
       <c r="F8">
-        <v>39.64406219808418</v>
+        <v>37.30758569677936</v>
       </c>
       <c r="G8">
-        <v>2.076079243047525</v>
+        <v>2.107109874234702</v>
       </c>
       <c r="H8">
         <v>0</v>
       </c>
       <c r="I8">
-        <v>25.48148617483339</v>
+        <v>0</v>
       </c>
       <c r="J8">
-        <v>11.15948840942855</v>
+        <v>0</v>
       </c>
       <c r="K8">
-        <v>16.042382714266</v>
+        <v>14.5173571909515</v>
       </c>
       <c r="L8">
-        <v>0</v>
+        <v>6.793547928849176</v>
       </c>
       <c r="M8">
-        <v>17.86434886788094</v>
-      </c>
-    </row>
-    <row r="9" spans="1:13">
+        <v>11.57351847845325</v>
+      </c>
+      <c r="N8">
+        <v>0</v>
+      </c>
+      <c r="O8">
+        <v>29.85313512050623</v>
+      </c>
+    </row>
+    <row r="9" spans="1:15">
       <c r="A9" s="1">
         <v>7</v>
       </c>
       <c r="B9">
-        <v>19.61591546403797</v>
+        <v>20.6847690923334</v>
       </c>
       <c r="C9">
-        <v>17.70821111651469</v>
+        <v>11.78636956946581</v>
       </c>
       <c r="D9">
-        <v>3.419935281874351</v>
+        <v>5.314875366196965</v>
       </c>
       <c r="E9">
         <v>0</v>
       </c>
       <c r="F9">
-        <v>44.60387005235734</v>
+        <v>41.15232428666076</v>
       </c>
       <c r="G9">
-        <v>2.049039900720375</v>
+        <v>2.083211007133295</v>
       </c>
       <c r="H9">
         <v>0</v>
       </c>
       <c r="I9">
-        <v>27.82814419905663</v>
+        <v>0</v>
       </c>
       <c r="J9">
-        <v>12.52600703583512</v>
+        <v>0</v>
       </c>
       <c r="K9">
-        <v>18.69340651987757</v>
+        <v>16.86304951113803</v>
       </c>
       <c r="L9">
-        <v>0</v>
+        <v>7.005026597354509</v>
       </c>
       <c r="M9">
-        <v>20.90432336887373</v>
-      </c>
-    </row>
-    <row r="10" spans="1:13">
+        <v>12.65575460060448</v>
+      </c>
+      <c r="N9">
+        <v>0</v>
+      </c>
+      <c r="O9">
+        <v>32.49372864961889</v>
+      </c>
+    </row>
+    <row r="10" spans="1:15">
       <c r="A10" s="1">
         <v>8</v>
       </c>
       <c r="B10">
-        <v>21.52337044227288</v>
+        <v>22.70511467802403</v>
       </c>
       <c r="C10">
-        <v>19.4955329974328</v>
+        <v>12.53140175588454</v>
       </c>
       <c r="D10">
-        <v>3.391268296483615</v>
+        <v>5.239253923593566</v>
       </c>
       <c r="E10">
         <v>0</v>
       </c>
       <c r="F10">
-        <v>48.17474445443211</v>
+        <v>43.95154165125391</v>
       </c>
       <c r="G10">
-        <v>2.029478460957855</v>
+        <v>2.066121201753364</v>
       </c>
       <c r="H10">
         <v>0</v>
       </c>
       <c r="I10">
-        <v>29.57967501972353</v>
+        <v>0</v>
       </c>
       <c r="J10">
-        <v>13.5277487871042</v>
+        <v>0</v>
       </c>
       <c r="K10">
-        <v>20.49039465993045</v>
+        <v>18.44175798438863</v>
       </c>
       <c r="L10">
-        <v>0</v>
+        <v>7.177431103562154</v>
       </c>
       <c r="M10">
-        <v>22.97693065928719</v>
-      </c>
-    </row>
-    <row r="11" spans="1:13">
+        <v>13.46742389143063</v>
+      </c>
+      <c r="N10">
+        <v>0</v>
+      </c>
+      <c r="O10">
+        <v>34.45048504783206</v>
+      </c>
+    </row>
+    <row r="11" spans="1:15">
       <c r="A11" s="1">
         <v>9</v>
       </c>
       <c r="B11">
-        <v>22.35823186499978</v>
+        <v>23.58692997234994</v>
       </c>
       <c r="C11">
-        <v>20.28120628558799</v>
+        <v>12.86120572886888</v>
       </c>
       <c r="D11">
-        <v>3.377212588273872</v>
+        <v>5.205796836446152</v>
       </c>
       <c r="E11">
         <v>0</v>
       </c>
       <c r="F11">
-        <v>49.78527647278045</v>
+        <v>45.21867145212403</v>
       </c>
       <c r="G11">
-        <v>2.020581240561882</v>
+        <v>2.058407256351295</v>
       </c>
       <c r="H11">
         <v>0</v>
       </c>
       <c r="I11">
-        <v>30.383666439372</v>
+        <v>0</v>
       </c>
       <c r="J11">
-        <v>14.01030106331181</v>
+        <v>0</v>
       </c>
       <c r="K11">
-        <v>21.27820279462921</v>
+        <v>19.13046013492443</v>
       </c>
       <c r="L11">
-        <v>0</v>
+        <v>7.259778439589231</v>
       </c>
       <c r="M11">
-        <v>23.88899170860492</v>
-      </c>
-    </row>
-    <row r="12" spans="1:13">
+        <v>13.97764049600751</v>
+      </c>
+      <c r="N11">
+        <v>0</v>
+      </c>
+      <c r="O11">
+        <v>35.34400540511054</v>
+      </c>
+    </row>
+    <row r="12" spans="1:15">
       <c r="A12" s="1">
         <v>10</v>
       </c>
       <c r="B12">
-        <v>22.66994550231737</v>
+        <v>23.91570805713382</v>
       </c>
       <c r="C12">
-        <v>20.57511076167816</v>
+        <v>12.9848461020177</v>
       </c>
       <c r="D12">
-        <v>3.371727280015656</v>
+        <v>5.193273709804252</v>
       </c>
       <c r="E12">
         <v>0</v>
       </c>
       <c r="F12">
-        <v>50.39350166130951</v>
+        <v>45.69764966133496</v>
       </c>
       <c r="G12">
-        <v>2.017206003402793</v>
+        <v>2.055490975993431</v>
       </c>
       <c r="H12">
         <v>0</v>
       </c>
       <c r="I12">
-        <v>30.68934466700712</v>
+        <v>0</v>
       </c>
       <c r="J12">
-        <v>14.22444160172894</v>
+        <v>0</v>
       </c>
       <c r="K12">
-        <v>21.57255382815309</v>
+        <v>19.38719581306725</v>
       </c>
       <c r="L12">
-        <v>0</v>
+        <v>7.291545524874321</v>
       </c>
       <c r="M12">
-        <v>24.23033750167236</v>
-      </c>
-    </row>
-    <row r="13" spans="1:13">
+        <v>14.16782094633912</v>
+      </c>
+      <c r="N12">
+        <v>0</v>
+      </c>
+      <c r="O12">
+        <v>35.68289174646922</v>
+      </c>
+    </row>
+    <row r="13" spans="1:15">
       <c r="A13" s="1">
         <v>11</v>
       </c>
       <c r="B13">
-        <v>22.60300433971078</v>
+        <v>23.84512506986897</v>
       </c>
       <c r="C13">
-        <v>20.51196818789007</v>
+        <v>12.95827232404723</v>
       </c>
       <c r="D13">
-        <v>3.372916169933651</v>
+        <v>5.195964081733509</v>
       </c>
       <c r="E13">
         <v>0</v>
       </c>
       <c r="F13">
-        <v>50.26257551183602</v>
+        <v>45.59452956305478</v>
       </c>
       <c r="G13">
-        <v>2.01793329995236</v>
+        <v>2.056118900837094</v>
       </c>
       <c r="H13">
         <v>0</v>
       </c>
       <c r="I13">
-        <v>30.62345308330587</v>
+        <v>0</v>
       </c>
       <c r="J13">
-        <v>14.1784001896002</v>
+        <v>0</v>
       </c>
       <c r="K13">
-        <v>21.50933181327713</v>
+        <v>19.33208079869737</v>
       </c>
       <c r="L13">
-        <v>0</v>
+        <v>7.284677584805076</v>
       </c>
       <c r="M13">
-        <v>24.15699501134773</v>
-      </c>
-    </row>
-    <row r="14" spans="1:13">
+        <v>14.12699465506334</v>
+      </c>
+      <c r="N13">
+        <v>0</v>
+      </c>
+      <c r="O13">
+        <v>35.60988159747028</v>
+      </c>
+    </row>
+    <row r="14" spans="1:15">
       <c r="A14" s="1">
         <v>12</v>
       </c>
       <c r="B14">
-        <v>22.38396370356403</v>
+        <v>23.61408058544353</v>
       </c>
       <c r="C14">
-        <v>20.30545636611194</v>
+        <v>12.87140231715275</v>
       </c>
       <c r="D14">
-        <v>3.376764674654448</v>
+        <v>5.204763547646437</v>
       </c>
       <c r="E14">
         <v>0</v>
       </c>
       <c r="F14">
-        <v>49.83534598844403</v>
+        <v>45.25809387040889</v>
       </c>
       <c r="G14">
-        <v>2.020303718223252</v>
+        <v>2.058167259219521</v>
       </c>
       <c r="H14">
         <v>0</v>
       </c>
       <c r="I14">
-        <v>30.40878887245367</v>
+        <v>0</v>
       </c>
       <c r="J14">
-        <v>14.0279539930895</v>
+        <v>0</v>
       </c>
       <c r="K14">
-        <v>21.3024970941609</v>
+        <v>19.15166224605747</v>
       </c>
       <c r="L14">
-        <v>0</v>
+        <v>7.262380105744523</v>
       </c>
       <c r="M14">
-        <v>23.91715277861873</v>
-      </c>
-    </row>
-    <row r="15" spans="1:13">
+        <v>13.9933466524867</v>
+      </c>
+      <c r="N14">
+        <v>0</v>
+      </c>
+      <c r="O14">
+        <v>35.37187470437858</v>
+      </c>
+    </row>
+    <row r="15" spans="1:15">
       <c r="A15" s="1">
         <v>13</v>
       </c>
       <c r="B15">
-        <v>22.24922740425056</v>
+        <v>23.47189565359228</v>
       </c>
       <c r="C15">
-        <v>20.1785018304214</v>
+        <v>12.81803137292225</v>
       </c>
       <c r="D15">
-        <v>3.379100264600496</v>
+        <v>5.210172895114943</v>
       </c>
       <c r="E15">
         <v>0</v>
       </c>
       <c r="F15">
-        <v>49.57345399662895</v>
+        <v>45.05190859447386</v>
       </c>
       <c r="G15">
-        <v>2.021754678197222</v>
+        <v>2.059422444031913</v>
       </c>
       <c r="H15">
         <v>0</v>
       </c>
       <c r="I15">
-        <v>30.2774672146851</v>
+        <v>0</v>
       </c>
       <c r="J15">
-        <v>13.93556837382794</v>
+        <v>0</v>
       </c>
       <c r="K15">
-        <v>21.17529647531525</v>
+        <v>19.04062736135144</v>
       </c>
       <c r="L15">
-        <v>0</v>
+        <v>7.248798960291992</v>
       </c>
       <c r="M15">
-        <v>23.76973006707329</v>
-      </c>
-    </row>
-    <row r="16" spans="1:13">
+        <v>13.91109314007231</v>
+      </c>
+      <c r="N15">
+        <v>0</v>
+      </c>
+      <c r="O15">
+        <v>35.22615992405488</v>
+      </c>
+    </row>
+    <row r="16" spans="1:15">
       <c r="A16" s="1">
         <v>14</v>
       </c>
       <c r="B16">
-        <v>21.46817350177647</v>
+        <v>22.64675381160405</v>
       </c>
       <c r="C16">
-        <v>19.44366309759885</v>
+        <v>12.50966972717267</v>
       </c>
       <c r="D16">
-        <v>3.39216506814285</v>
+        <v>5.24146026222887</v>
       </c>
       <c r="E16">
         <v>0</v>
       </c>
       <c r="F16">
-        <v>48.069239165334</v>
+        <v>43.86860753077659</v>
       </c>
       <c r="G16">
-        <v>2.030059429211523</v>
+        <v>2.0666262208497</v>
       </c>
       <c r="H16">
         <v>0</v>
       </c>
       <c r="I16">
-        <v>29.52729156992993</v>
+        <v>0</v>
       </c>
       <c r="J16">
-        <v>13.49795041314475</v>
+        <v>0</v>
       </c>
       <c r="K16">
-        <v>20.43833671030999</v>
+        <v>18.39617143581459</v>
       </c>
       <c r="L16">
-        <v>0</v>
+        <v>7.172130047634545</v>
       </c>
       <c r="M16">
-        <v>22.91673840894801</v>
-      </c>
-    </row>
-    <row r="17" spans="1:13">
+        <v>13.43364912451822</v>
+      </c>
+      <c r="N16">
+        <v>0</v>
+      </c>
+      <c r="O16">
+        <v>34.39216174119685</v>
+      </c>
+    </row>
+    <row r="17" spans="1:15">
       <c r="A17" s="1">
         <v>15</v>
       </c>
       <c r="B17">
-        <v>20.98080593548876</v>
+        <v>22.13115717559265</v>
       </c>
       <c r="C17">
-        <v>18.98606653299813</v>
+        <v>12.31820349361286</v>
       </c>
       <c r="D17">
-        <v>3.39990876276363</v>
+        <v>5.260902501213631</v>
       </c>
       <c r="E17">
         <v>0</v>
       </c>
       <c r="F17">
-        <v>47.14309449329249</v>
+        <v>43.14109165056409</v>
       </c>
       <c r="G17">
-        <v>2.03515030944048</v>
+        <v>2.071058348908581</v>
       </c>
       <c r="H17">
         <v>0</v>
       </c>
       <c r="I17">
-        <v>29.06903833729528</v>
+        <v>0</v>
       </c>
       <c r="J17">
-        <v>13.23689302878544</v>
+        <v>0</v>
       </c>
       <c r="K17">
-        <v>19.97883506913491</v>
+        <v>17.99339214604774</v>
       </c>
       <c r="L17">
-        <v>0</v>
+        <v>7.126113542479779</v>
       </c>
       <c r="M17">
-        <v>22.38583590338468</v>
-      </c>
-    </row>
-    <row r="18" spans="1:13">
+        <v>13.21647743763469</v>
+      </c>
+      <c r="N17">
+        <v>0</v>
+      </c>
+      <c r="O17">
+        <v>33.88140863510561</v>
+      </c>
+    </row>
+    <row r="18" spans="1:15">
       <c r="A18" s="1">
         <v>16</v>
       </c>
       <c r="B18">
-        <v>20.69737345539632</v>
+        <v>21.83107944319702</v>
       </c>
       <c r="C18">
-        <v>18.72026929238886</v>
+        <v>12.20721450760245</v>
       </c>
       <c r="D18">
-        <v>3.404268335371456</v>
+        <v>5.272173190128188</v>
       </c>
       <c r="E18">
         <v>0</v>
       </c>
       <c r="F18">
-        <v>46.60906411380743</v>
+        <v>42.72204759807057</v>
       </c>
       <c r="G18">
-        <v>2.038079002243385</v>
+        <v>2.073613522004416</v>
       </c>
       <c r="H18">
         <v>0</v>
       </c>
       <c r="I18">
-        <v>28.80612619850255</v>
+        <v>0</v>
       </c>
       <c r="J18">
-        <v>13.08678879480209</v>
+        <v>0</v>
       </c>
       <c r="K18">
-        <v>19.71173158329863</v>
+        <v>17.75893965440218</v>
       </c>
       <c r="L18">
-        <v>0</v>
+        <v>7.100013625986583</v>
       </c>
       <c r="M18">
-        <v>22.07755123768058</v>
-      </c>
-    </row>
-    <row r="19" spans="1:13">
+        <v>13.09832737641944</v>
+      </c>
+      <c r="N18">
+        <v>0</v>
+      </c>
+      <c r="O18">
+        <v>33.58794908502625</v>
+      </c>
+    </row>
+    <row r="19" spans="1:15">
       <c r="A19" s="1">
         <v>17</v>
       </c>
       <c r="B19">
-        <v>20.60086533695872</v>
+        <v>21.72886768283491</v>
       </c>
       <c r="C19">
-        <v>18.62981918371213</v>
+        <v>12.16948579306079</v>
       </c>
       <c r="D19">
-        <v>3.405728671382859</v>
+        <v>5.276004086505353</v>
       </c>
       <c r="E19">
         <v>0</v>
       </c>
       <c r="F19">
-        <v>46.42801309896247</v>
+        <v>42.58006429041444</v>
       </c>
       <c r="G19">
-        <v>2.039070878236986</v>
+        <v>2.074479788232922</v>
       </c>
       <c r="H19">
         <v>0</v>
       </c>
       <c r="I19">
-        <v>28.71721812811242</v>
+        <v>0</v>
       </c>
       <c r="J19">
-        <v>13.03597058791066</v>
+        <v>0</v>
       </c>
       <c r="K19">
-        <v>19.62080408181378</v>
+        <v>17.67907478514275</v>
       </c>
       <c r="L19">
-        <v>0</v>
+        <v>7.091239203821289</v>
       </c>
       <c r="M19">
-        <v>21.97265809712541</v>
-      </c>
-    </row>
-    <row r="20" spans="1:13">
+        <v>13.05829405849219</v>
+      </c>
+      <c r="N19">
+        <v>0</v>
+      </c>
+      <c r="O19">
+        <v>33.48864201141137</v>
+      </c>
+    </row>
+    <row r="20" spans="1:15">
       <c r="A20" s="1">
         <v>18</v>
       </c>
       <c r="B20">
-        <v>21.03300707188099</v>
+        <v>22.18640619999982</v>
       </c>
       <c r="C20">
-        <v>19.03504532019484</v>
+        <v>12.33867429528428</v>
       </c>
       <c r="D20">
-        <v>3.399094316630616</v>
+        <v>5.258823662069267</v>
       </c>
       <c r="E20">
         <v>0</v>
       </c>
       <c r="F20">
-        <v>47.24182049081057</v>
+        <v>43.21859864306149</v>
       </c>
       <c r="G20">
-        <v>2.034608361694863</v>
+        <v>2.070585953987885</v>
       </c>
       <c r="H20">
         <v>0</v>
       </c>
       <c r="I20">
-        <v>29.11775045802325</v>
+        <v>0</v>
       </c>
       <c r="J20">
-        <v>13.26467698408995</v>
+        <v>0</v>
       </c>
       <c r="K20">
-        <v>20.02803868891392</v>
+        <v>18.03655566256085</v>
       </c>
       <c r="L20">
-        <v>0</v>
+        <v>7.130973900085559</v>
       </c>
       <c r="M20">
-        <v>22.44265128302216</v>
-      </c>
-    </row>
-    <row r="21" spans="1:13">
+        <v>13.23832994569422</v>
+      </c>
+      <c r="N20">
+        <v>0</v>
+      </c>
+      <c r="O20">
+        <v>33.93574675376668</v>
+      </c>
+    </row>
+    <row r="21" spans="1:15">
       <c r="A21" s="1">
         <v>19</v>
       </c>
       <c r="B21">
-        <v>22.44841895266849</v>
+        <v>23.68208181489095</v>
       </c>
       <c r="C21">
-        <v>20.36620912838403</v>
+        <v>12.89695146858156</v>
       </c>
       <c r="D21">
-        <v>3.375638837603054</v>
+        <v>5.202174861097999</v>
       </c>
       <c r="E21">
         <v>0</v>
       </c>
       <c r="F21">
-        <v>49.96087481090316</v>
+        <v>45.35693563590519</v>
       </c>
       <c r="G21">
-        <v>2.019607687665747</v>
+        <v>2.057565508751923</v>
       </c>
       <c r="H21">
         <v>0</v>
       </c>
       <c r="I21">
-        <v>30.47180583163906</v>
+        <v>0</v>
       </c>
       <c r="J21">
-        <v>14.0721916343102</v>
+        <v>0</v>
       </c>
       <c r="K21">
-        <v>21.36335483760842</v>
+        <v>19.20476426533562</v>
       </c>
       <c r="L21">
-        <v>0</v>
+        <v>7.268913389690645</v>
       </c>
       <c r="M21">
-        <v>23.98770625866496</v>
-      </c>
-    </row>
-    <row r="22" spans="1:13">
+        <v>14.03268339162629</v>
+      </c>
+      <c r="N21">
+        <v>0</v>
+      </c>
+      <c r="O21">
+        <v>35.44176807035385</v>
+      </c>
+    </row>
+    <row r="22" spans="1:15">
       <c r="A22" s="1">
         <v>20</v>
       </c>
       <c r="B22">
-        <v>23.34781511878171</v>
+        <v>24.62971273527457</v>
       </c>
       <c r="C22">
-        <v>21.21532822822015</v>
+        <v>13.25457805425028</v>
       </c>
       <c r="D22">
-        <v>3.359351228958598</v>
+        <v>5.166011596610005</v>
       </c>
       <c r="E22">
         <v>0</v>
       </c>
       <c r="F22">
-        <v>51.72860763982258</v>
+        <v>46.74955746134337</v>
       </c>
       <c r="G22">
-        <v>2.009764986792706</v>
+        <v>2.04908187837478</v>
       </c>
       <c r="H22">
         <v>0</v>
       </c>
       <c r="I22">
-        <v>31.36404280969441</v>
+        <v>0</v>
       </c>
       <c r="J22">
-        <v>14.69237407344809</v>
+        <v>0</v>
       </c>
       <c r="K22">
-        <v>22.21305746107537</v>
+        <v>19.94468203387753</v>
       </c>
       <c r="L22">
-        <v>0</v>
+        <v>7.362480450203567</v>
       </c>
       <c r="M22">
-        <v>24.97421397169976</v>
-      </c>
-    </row>
-    <row r="23" spans="1:13">
+        <v>14.5807482906391</v>
+      </c>
+      <c r="N22">
+        <v>0</v>
+      </c>
+      <c r="O22">
+        <v>36.42919283739838</v>
+      </c>
+    </row>
+    <row r="23" spans="1:15">
       <c r="A23" s="1">
         <v>21</v>
       </c>
       <c r="B23">
-        <v>22.87003063649707</v>
+        <v>24.12660193599586</v>
       </c>
       <c r="C23">
-        <v>20.76392743163577</v>
+        <v>13.06434339442926</v>
       </c>
       <c r="D23">
-        <v>3.368138109821984</v>
+        <v>5.185229670974223</v>
       </c>
       <c r="E23">
         <v>0</v>
       </c>
       <c r="F23">
-        <v>50.78583058706275</v>
+        <v>46.00669961973286</v>
       </c>
       <c r="G23">
-        <v>2.015024099405052</v>
+        <v>2.053608768928892</v>
       </c>
       <c r="H23">
         <v>0</v>
       </c>
       <c r="I23">
-        <v>30.88708879326042</v>
+        <v>0</v>
       </c>
       <c r="J23">
-        <v>14.36223653330947</v>
+        <v>0</v>
       </c>
       <c r="K23">
-        <v>21.76155367277464</v>
+        <v>19.55186788521093</v>
       </c>
       <c r="L23">
-        <v>0</v>
+        <v>7.31222179910729</v>
       </c>
       <c r="M23">
-        <v>24.44968028542963</v>
-      </c>
-    </row>
-    <row r="24" spans="1:13">
+        <v>14.2897983068291</v>
+      </c>
+      <c r="N23">
+        <v>0</v>
+      </c>
+      <c r="O23">
+        <v>35.90186630751391</v>
+      </c>
+    </row>
+    <row r="24" spans="1:15">
       <c r="A24" s="1">
         <v>22</v>
       </c>
       <c r="B24">
-        <v>21.00941704656469</v>
+        <v>22.16143951414371</v>
       </c>
       <c r="C24">
-        <v>19.01291050315367</v>
+        <v>12.32942229248416</v>
       </c>
       <c r="D24">
-        <v>3.399462814240906</v>
+        <v>5.259763216077792</v>
       </c>
       <c r="E24">
         <v>0</v>
       </c>
       <c r="F24">
-        <v>47.19719140489929</v>
+        <v>43.18356018034668</v>
       </c>
       <c r="G24">
-        <v>2.034853369962572</v>
+        <v>2.070799501382913</v>
       </c>
       <c r="H24">
         <v>0</v>
       </c>
       <c r="I24">
-        <v>29.0957260276342</v>
+        <v>0</v>
       </c>
       <c r="J24">
-        <v>13.25211592789811</v>
+        <v>0</v>
       </c>
       <c r="K24">
-        <v>20.00580287957548</v>
+        <v>18.0170504493215</v>
       </c>
       <c r="L24">
-        <v>0</v>
+        <v>7.128775426329023</v>
       </c>
       <c r="M24">
-        <v>22.41697461547176</v>
-      </c>
-    </row>
-    <row r="25" spans="1:13">
+        <v>13.22845115100977</v>
+      </c>
+      <c r="N24">
+        <v>0</v>
+      </c>
+      <c r="O24">
+        <v>33.91117993454701</v>
+      </c>
+    </row>
+    <row r="25" spans="1:15">
       <c r="A25" s="1">
         <v>23</v>
       </c>
       <c r="B25">
-        <v>18.88259016709653</v>
+        <v>19.90646332701992</v>
       </c>
       <c r="C25">
-        <v>17.02378866203573</v>
+        <v>11.50360949089268</v>
       </c>
       <c r="D25">
-        <v>3.429691259294176</v>
+        <v>5.343502656756375</v>
       </c>
       <c r="E25">
         <v>0</v>
       </c>
       <c r="F25">
-        <v>43.27512147289934</v>
+        <v>40.11616230847001</v>
       </c>
       <c r="G25">
-        <v>2.056281721686181</v>
+        <v>2.089581202642164</v>
       </c>
       <c r="H25">
         <v>0</v>
       </c>
       <c r="I25">
-        <v>27.18869459720758</v>
+        <v>0</v>
       </c>
       <c r="J25">
-        <v>12.15693996399902</v>
+        <v>0</v>
       </c>
       <c r="K25">
-        <v>18.00363594836894</v>
+        <v>16.25448399714754</v>
       </c>
       <c r="L25">
-        <v>0</v>
+        <v>6.9448923975956</v>
       </c>
       <c r="M25">
-        <v>20.11143745487063</v>
+        <v>12.36372608712726</v>
+      </c>
+      <c r="N25">
+        <v>0</v>
+      </c>
+      <c r="O25">
+        <v>31.77617223756502</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_3_44/res_line/loading_percent.xlsx
+++ b/Code/Results/Cases/Case_3_44/res_line/loading_percent.xlsx
@@ -421,46 +421,34 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>18.12295406178959</v>
+        <v>14.01547909860827</v>
       </c>
       <c r="C2">
-        <v>10.8655961897273</v>
+        <v>8.040770805378564</v>
       </c>
       <c r="D2">
-        <v>5.407764759838911</v>
-      </c>
-      <c r="E2">
-        <v>0</v>
+        <v>5.748088988314783</v>
       </c>
       <c r="F2">
-        <v>37.84103546578751</v>
+        <v>14.39732585381361</v>
       </c>
       <c r="G2">
-        <v>2.103740235320075</v>
+        <v>2.089984895035296</v>
       </c>
       <c r="H2">
         <v>0</v>
       </c>
       <c r="I2">
-        <v>0</v>
-      </c>
-      <c r="J2">
-        <v>0</v>
+        <v>11.4385985594398</v>
       </c>
       <c r="K2">
-        <v>14.85881808057343</v>
-      </c>
-      <c r="L2">
-        <v>6.820869392286532</v>
-      </c>
-      <c r="M2">
-        <v>11.72337738366315</v>
+        <v>12.58238187549948</v>
       </c>
       <c r="N2">
         <v>0</v>
       </c>
       <c r="O2">
-        <v>30.21567585496955</v>
+        <v>11.99678056255468</v>
       </c>
     </row>
     <row r="3" spans="1:15">
@@ -468,46 +456,34 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>16.83455654795799</v>
+        <v>13.15820402309436</v>
       </c>
       <c r="C3">
-        <v>10.41422088722762</v>
+        <v>7.62347560390104</v>
       </c>
       <c r="D3">
-        <v>5.452850630482482</v>
-      </c>
-      <c r="E3">
-        <v>0</v>
+        <v>5.496818652112915</v>
       </c>
       <c r="F3">
-        <v>36.29252169808617</v>
+        <v>14.45634834070847</v>
       </c>
       <c r="G3">
-        <v>2.113595716505762</v>
+        <v>2.093909930162018</v>
       </c>
       <c r="H3">
         <v>0</v>
       </c>
       <c r="I3">
-        <v>0</v>
-      </c>
-      <c r="J3">
-        <v>0</v>
+        <v>11.77389552984688</v>
       </c>
       <c r="K3">
-        <v>13.84934818527573</v>
-      </c>
-      <c r="L3">
-        <v>6.743617188162451</v>
-      </c>
-      <c r="M3">
-        <v>11.28880978693339</v>
+        <v>11.90129107015137</v>
       </c>
       <c r="N3">
         <v>0</v>
       </c>
       <c r="O3">
-        <v>29.1672447236325</v>
+        <v>12.25487223693673</v>
       </c>
     </row>
     <row r="4" spans="1:15">
@@ -515,46 +491,34 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>16.07302010976041</v>
+        <v>12.60206547196481</v>
       </c>
       <c r="C4">
-        <v>10.1277497363442</v>
+        <v>7.355072059605841</v>
       </c>
       <c r="D4">
-        <v>5.481269813692601</v>
-      </c>
-      <c r="E4">
-        <v>0</v>
+        <v>5.336073860001</v>
       </c>
       <c r="F4">
-        <v>35.34038182588667</v>
+        <v>14.5117309448516</v>
       </c>
       <c r="G4">
-        <v>2.11979094937954</v>
+        <v>2.096395016194758</v>
       </c>
       <c r="H4">
         <v>0</v>
       </c>
       <c r="I4">
-        <v>0</v>
-      </c>
-      <c r="J4">
-        <v>0</v>
+        <v>11.98735097362951</v>
       </c>
       <c r="K4">
-        <v>13.19740730076704</v>
-      </c>
-      <c r="L4">
-        <v>6.699445733655179</v>
-      </c>
-      <c r="M4">
-        <v>11.02243627842665</v>
+        <v>11.46210213417365</v>
       </c>
       <c r="N4">
         <v>0</v>
       </c>
       <c r="O4">
-        <v>28.52902825903436</v>
+        <v>12.42480372332666</v>
       </c>
     </row>
     <row r="5" spans="1:15">
@@ -562,46 +526,34 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>15.76458479877099</v>
+        <v>12.36798112801324</v>
       </c>
       <c r="C5">
-        <v>10.00868769382957</v>
+        <v>7.242700429828268</v>
       </c>
       <c r="D5">
-        <v>5.493033527996322</v>
-      </c>
-      <c r="E5">
-        <v>0</v>
+        <v>5.268997444753571</v>
       </c>
       <c r="F5">
-        <v>34.95239982466632</v>
+        <v>14.53889253384775</v>
       </c>
       <c r="G5">
-        <v>2.12235389343693</v>
+        <v>2.0974269520319</v>
       </c>
       <c r="H5">
         <v>0</v>
       </c>
       <c r="I5">
-        <v>0</v>
-      </c>
-      <c r="J5">
-        <v>0</v>
+        <v>12.07622821526001</v>
       </c>
       <c r="K5">
-        <v>12.92355940453208</v>
-      </c>
-      <c r="L5">
-        <v>6.682252375120681</v>
-      </c>
-      <c r="M5">
-        <v>10.91413199937884</v>
+        <v>11.27793830476212</v>
       </c>
       <c r="N5">
         <v>0</v>
       </c>
       <c r="O5">
-        <v>28.27052746408798</v>
+        <v>12.49681165856781</v>
       </c>
     </row>
     <row r="6" spans="1:15">
@@ -609,46 +561,34 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>15.71296106953293</v>
+        <v>12.32866267915316</v>
       </c>
       <c r="C6">
-        <v>9.988778156438814</v>
+        <v>7.223862610794962</v>
       </c>
       <c r="D6">
-        <v>5.494997855728593</v>
-      </c>
-      <c r="E6">
-        <v>0</v>
+        <v>5.257766277592212</v>
       </c>
       <c r="F6">
-        <v>34.8879887148046</v>
+        <v>14.54367360403206</v>
       </c>
       <c r="G6">
-        <v>2.122781843600933</v>
+        <v>2.097599476672416</v>
       </c>
       <c r="H6">
         <v>0</v>
       </c>
       <c r="I6">
-        <v>0</v>
-      </c>
-      <c r="J6">
-        <v>0</v>
+        <v>12.09110017969657</v>
       </c>
       <c r="K6">
-        <v>12.87759058779173</v>
-      </c>
-      <c r="L6">
-        <v>6.679445765419656</v>
-      </c>
-      <c r="M6">
-        <v>10.89616707279805</v>
+        <v>11.24704756186154</v>
       </c>
       <c r="N6">
         <v>0</v>
       </c>
       <c r="O6">
-        <v>28.22770483544668</v>
+        <v>12.50893183127142</v>
       </c>
     </row>
     <row r="7" spans="1:15">
@@ -656,46 +596,34 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>16.06888794188944</v>
+        <v>12.59893865358433</v>
       </c>
       <c r="C7">
-        <v>10.12615338950613</v>
+        <v>7.353568601843186</v>
       </c>
       <c r="D7">
-        <v>5.481427726460382</v>
-      </c>
-      <c r="E7">
-        <v>0</v>
+        <v>5.335175530020934</v>
       </c>
       <c r="F7">
-        <v>35.33514875459138</v>
+        <v>14.51207895250812</v>
       </c>
       <c r="G7">
-        <v>2.119825356190595</v>
+        <v>2.096408854862073</v>
       </c>
       <c r="H7">
         <v>0</v>
       </c>
       <c r="I7">
-        <v>0</v>
-      </c>
-      <c r="J7">
-        <v>0</v>
+        <v>11.98854195630042</v>
       </c>
       <c r="K7">
-        <v>13.19374732437966</v>
-      </c>
-      <c r="L7">
-        <v>6.699210608939256</v>
-      </c>
-      <c r="M7">
-        <v>11.02097447264349</v>
+        <v>11.45963932020766</v>
       </c>
       <c r="N7">
         <v>0</v>
       </c>
       <c r="O7">
-        <v>28.5255353732371</v>
+        <v>12.42576382773621</v>
       </c>
     </row>
     <row r="8" spans="1:15">
@@ -703,46 +631,34 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>17.68697213795328</v>
+        <v>13.72608369075951</v>
       </c>
       <c r="C8">
-        <v>10.71190628292766</v>
+        <v>7.899452476800317</v>
       </c>
       <c r="D8">
-        <v>5.423155864392131</v>
-      </c>
-      <c r="E8">
-        <v>0</v>
+        <v>5.662822173412894</v>
       </c>
       <c r="F8">
-        <v>37.30758569677936</v>
+        <v>14.4135716224904</v>
       </c>
       <c r="G8">
-        <v>2.107109874234702</v>
+        <v>2.091322881205577</v>
       </c>
       <c r="H8">
         <v>0</v>
       </c>
       <c r="I8">
-        <v>0</v>
-      </c>
-      <c r="J8">
-        <v>0</v>
+        <v>11.55262552433329</v>
       </c>
       <c r="K8">
-        <v>14.5173571909515</v>
-      </c>
-      <c r="L8">
-        <v>6.793547928849176</v>
-      </c>
-      <c r="M8">
-        <v>11.57351847845325</v>
+        <v>12.3519464439065</v>
       </c>
       <c r="N8">
         <v>0</v>
       </c>
       <c r="O8">
-        <v>29.85313512050623</v>
+        <v>12.08331380058992</v>
       </c>
     </row>
     <row r="9" spans="1:15">
@@ -750,46 +666,34 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>20.6847690923334</v>
+        <v>15.69952577414107</v>
       </c>
       <c r="C9">
-        <v>11.78636956946581</v>
+        <v>8.870963936967204</v>
       </c>
       <c r="D9">
-        <v>5.314875366196965</v>
-      </c>
-      <c r="E9">
-        <v>0</v>
+        <v>6.252104169126538</v>
       </c>
       <c r="F9">
-        <v>41.15232428666076</v>
+        <v>14.38196503974564</v>
       </c>
       <c r="G9">
-        <v>2.083211007133295</v>
+        <v>2.081928118280265</v>
       </c>
       <c r="H9">
         <v>0</v>
       </c>
       <c r="I9">
-        <v>0</v>
-      </c>
-      <c r="J9">
-        <v>0</v>
+        <v>10.75884086472901</v>
       </c>
       <c r="K9">
-        <v>16.86304951113803</v>
-      </c>
-      <c r="L9">
-        <v>7.005026597354509</v>
-      </c>
-      <c r="M9">
-        <v>12.65575460060448</v>
+        <v>13.93226847787888</v>
       </c>
       <c r="N9">
         <v>0</v>
       </c>
       <c r="O9">
-        <v>32.49372864961889</v>
+        <v>11.50892566491791</v>
       </c>
     </row>
     <row r="10" spans="1:15">
@@ -797,46 +701,34 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>22.70511467802403</v>
+        <v>17.00490002401985</v>
       </c>
       <c r="C10">
-        <v>12.53140175588454</v>
+        <v>9.52215276157783</v>
       </c>
       <c r="D10">
-        <v>5.239253923593566</v>
-      </c>
-      <c r="E10">
-        <v>0</v>
+        <v>6.650510637635604</v>
       </c>
       <c r="F10">
-        <v>43.95154165125391</v>
+        <v>14.46996471248097</v>
       </c>
       <c r="G10">
-        <v>2.066121201753364</v>
+        <v>2.075353634607626</v>
       </c>
       <c r="H10">
         <v>0</v>
       </c>
       <c r="I10">
-        <v>0</v>
-      </c>
-      <c r="J10">
-        <v>0</v>
+        <v>10.21459897557477</v>
       </c>
       <c r="K10">
-        <v>18.44175798438863</v>
-      </c>
-      <c r="L10">
-        <v>7.177431103562154</v>
-      </c>
-      <c r="M10">
-        <v>13.46742389143063</v>
+        <v>14.98731729976153</v>
       </c>
       <c r="N10">
         <v>0</v>
       </c>
       <c r="O10">
-        <v>34.45048504783206</v>
+        <v>11.15587579942773</v>
       </c>
     </row>
     <row r="11" spans="1:15">
@@ -844,46 +736,34 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>23.58692997234994</v>
+        <v>17.56752581111451</v>
       </c>
       <c r="C11">
-        <v>12.86120572886888</v>
+        <v>9.804526949103984</v>
       </c>
       <c r="D11">
-        <v>5.205796836446152</v>
-      </c>
-      <c r="E11">
-        <v>0</v>
+        <v>6.823941946460802</v>
       </c>
       <c r="F11">
-        <v>45.21867145212403</v>
+        <v>14.5366666577723</v>
       </c>
       <c r="G11">
-        <v>2.058407256351295</v>
+        <v>2.072428106059354</v>
       </c>
       <c r="H11">
         <v>0</v>
       </c>
       <c r="I11">
-        <v>0</v>
-      </c>
-      <c r="J11">
-        <v>0</v>
+        <v>9.976045703651447</v>
       </c>
       <c r="K11">
-        <v>19.13046013492443</v>
-      </c>
-      <c r="L11">
-        <v>7.259778439589231</v>
-      </c>
-      <c r="M11">
-        <v>13.97764049600751</v>
+        <v>15.44397106805345</v>
       </c>
       <c r="N11">
         <v>0</v>
       </c>
       <c r="O11">
-        <v>35.34400540511054</v>
+        <v>11.01272753529974</v>
       </c>
     </row>
     <row r="12" spans="1:15">
@@ -891,46 +771,34 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>23.91570805713382</v>
+        <v>17.77611171421816</v>
       </c>
       <c r="C12">
-        <v>12.9848461020177</v>
+        <v>9.909448699162212</v>
       </c>
       <c r="D12">
-        <v>5.193273709804252</v>
-      </c>
-      <c r="E12">
-        <v>0</v>
+        <v>6.88847392620154</v>
       </c>
       <c r="F12">
-        <v>45.69764966133496</v>
+        <v>14.56594801579854</v>
       </c>
       <c r="G12">
-        <v>2.055490975993431</v>
+        <v>2.071329163992463</v>
       </c>
       <c r="H12">
         <v>0</v>
       </c>
       <c r="I12">
-        <v>0</v>
-      </c>
-      <c r="J12">
-        <v>0</v>
+        <v>9.887076912274564</v>
       </c>
       <c r="K12">
-        <v>19.38719581306725</v>
-      </c>
-      <c r="L12">
-        <v>7.291545524874321</v>
-      </c>
-      <c r="M12">
-        <v>14.16782094633912</v>
+        <v>15.61353267946639</v>
       </c>
       <c r="N12">
         <v>0</v>
       </c>
       <c r="O12">
-        <v>35.68289174646922</v>
+        <v>10.96126724010335</v>
       </c>
     </row>
     <row r="13" spans="1:15">
@@ -938,46 +806,34 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>23.84512506986897</v>
+        <v>17.73138739863867</v>
       </c>
       <c r="C13">
-        <v>12.95827232404723</v>
+        <v>9.886941364292344</v>
       </c>
       <c r="D13">
-        <v>5.195964081733509</v>
-      </c>
-      <c r="E13">
-        <v>0</v>
+        <v>6.874626905628666</v>
       </c>
       <c r="F13">
-        <v>45.59452956305478</v>
+        <v>14.55946002461088</v>
       </c>
       <c r="G13">
-        <v>2.056118900837094</v>
+        <v>2.071565453432457</v>
       </c>
       <c r="H13">
         <v>0</v>
       </c>
       <c r="I13">
-        <v>0</v>
-      </c>
-      <c r="J13">
-        <v>0</v>
+        <v>9.906175899332732</v>
       </c>
       <c r="K13">
-        <v>19.33208079869737</v>
-      </c>
-      <c r="L13">
-        <v>7.284677584805076</v>
-      </c>
-      <c r="M13">
-        <v>14.12699465506334</v>
+        <v>15.57716426108461</v>
       </c>
       <c r="N13">
         <v>0</v>
       </c>
       <c r="O13">
-        <v>35.60988159747028</v>
+        <v>10.972223945289</v>
       </c>
     </row>
     <row r="14" spans="1:15">
@@ -985,46 +841,34 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>23.61408058544353</v>
+        <v>17.58477572994039</v>
       </c>
       <c r="C14">
-        <v>12.87140231715275</v>
+        <v>9.813199215003875</v>
       </c>
       <c r="D14">
-        <v>5.204763547646437</v>
-      </c>
-      <c r="E14">
-        <v>0</v>
+        <v>6.829274032378323</v>
       </c>
       <c r="F14">
-        <v>45.25809387040889</v>
+        <v>14.53899401367828</v>
       </c>
       <c r="G14">
-        <v>2.058167259219521</v>
+        <v>2.072337520122185</v>
       </c>
       <c r="H14">
         <v>0</v>
       </c>
       <c r="I14">
-        <v>0</v>
-      </c>
-      <c r="J14">
-        <v>0</v>
+        <v>9.968698354935736</v>
       </c>
       <c r="K14">
-        <v>19.15166224605747</v>
-      </c>
-      <c r="L14">
-        <v>7.262380105744523</v>
-      </c>
-      <c r="M14">
-        <v>13.9933466524867</v>
+        <v>15.45798845636923</v>
       </c>
       <c r="N14">
         <v>0</v>
       </c>
       <c r="O14">
-        <v>35.37187470437858</v>
+        <v>11.00843737433983</v>
       </c>
     </row>
     <row r="15" spans="1:15">
@@ -1032,46 +876,34 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>23.47189565359228</v>
+        <v>17.49439056259336</v>
       </c>
       <c r="C15">
-        <v>12.81803137292225</v>
+        <v>9.767768286867797</v>
       </c>
       <c r="D15">
-        <v>5.210172895114943</v>
-      </c>
-      <c r="E15">
-        <v>0</v>
+        <v>6.801344752597162</v>
       </c>
       <c r="F15">
-        <v>45.05190859447386</v>
+        <v>14.52698716639204</v>
       </c>
       <c r="G15">
-        <v>2.059422444031913</v>
+        <v>2.072811576296836</v>
       </c>
       <c r="H15">
         <v>0</v>
       </c>
       <c r="I15">
-        <v>0</v>
-      </c>
-      <c r="J15">
-        <v>0</v>
+        <v>10.0071753986474</v>
       </c>
       <c r="K15">
-        <v>19.04062736135144</v>
-      </c>
-      <c r="L15">
-        <v>7.248798960291992</v>
-      </c>
-      <c r="M15">
-        <v>13.91109314007231</v>
+        <v>15.38455158079266</v>
       </c>
       <c r="N15">
         <v>0</v>
       </c>
       <c r="O15">
-        <v>35.22615992405488</v>
+        <v>11.03098429707264</v>
       </c>
     </row>
     <row r="16" spans="1:15">
@@ -1079,46 +911,34 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>22.64675381160405</v>
+        <v>16.96750475235453</v>
       </c>
       <c r="C16">
-        <v>12.50966972717267</v>
+        <v>9.503418723960591</v>
       </c>
       <c r="D16">
-        <v>5.24146026222887</v>
-      </c>
-      <c r="E16">
-        <v>0</v>
+        <v>6.639017586875799</v>
       </c>
       <c r="F16">
-        <v>43.86860753077659</v>
+        <v>14.46615866185425</v>
       </c>
       <c r="G16">
-        <v>2.0666262208497</v>
+        <v>2.0755460963427</v>
       </c>
       <c r="H16">
         <v>0</v>
       </c>
       <c r="I16">
-        <v>0</v>
-      </c>
-      <c r="J16">
-        <v>0</v>
+        <v>10.23037606567044</v>
       </c>
       <c r="K16">
-        <v>18.39617143581459</v>
-      </c>
-      <c r="L16">
-        <v>7.172130047634545</v>
-      </c>
-      <c r="M16">
-        <v>13.43364912451822</v>
+        <v>14.95700380675809</v>
       </c>
       <c r="N16">
         <v>0</v>
       </c>
       <c r="O16">
-        <v>34.39216174119685</v>
+        <v>11.16560182782977</v>
       </c>
     </row>
     <row r="17" spans="1:15">
@@ -1126,46 +946,34 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>22.13115717559265</v>
+        <v>16.63629821876425</v>
       </c>
       <c r="C17">
-        <v>12.31820349361286</v>
+        <v>9.337687535105541</v>
       </c>
       <c r="D17">
-        <v>5.260902501213631</v>
-      </c>
-      <c r="E17">
-        <v>0</v>
+        <v>6.537420004517291</v>
       </c>
       <c r="F17">
-        <v>43.14109165056409</v>
+        <v>14.4358117474187</v>
       </c>
       <c r="G17">
-        <v>2.071058348908581</v>
+        <v>2.077240005251328</v>
       </c>
       <c r="H17">
         <v>0</v>
       </c>
       <c r="I17">
-        <v>0</v>
-      </c>
-      <c r="J17">
-        <v>0</v>
+        <v>10.3696574951996</v>
       </c>
       <c r="K17">
-        <v>17.99339214604774</v>
-      </c>
-      <c r="L17">
-        <v>7.126113542479779</v>
-      </c>
-      <c r="M17">
-        <v>13.21647743763469</v>
+        <v>14.6887385108067</v>
       </c>
       <c r="N17">
         <v>0</v>
       </c>
       <c r="O17">
-        <v>33.88140863510561</v>
+        <v>11.25281717394605</v>
       </c>
     </row>
     <row r="18" spans="1:15">
@@ -1173,46 +981,34 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>21.83107944319702</v>
+        <v>16.4428592792545</v>
       </c>
       <c r="C18">
-        <v>12.20721450760245</v>
+        <v>9.241059690551912</v>
       </c>
       <c r="D18">
-        <v>5.272173190128188</v>
-      </c>
-      <c r="E18">
-        <v>0</v>
+        <v>6.478249939796872</v>
       </c>
       <c r="F18">
-        <v>42.72204759807057</v>
+        <v>14.42085706214163</v>
       </c>
       <c r="G18">
-        <v>2.073613522004416</v>
+        <v>2.078220468118574</v>
       </c>
       <c r="H18">
         <v>0</v>
       </c>
       <c r="I18">
-        <v>0</v>
-      </c>
-      <c r="J18">
-        <v>0</v>
+        <v>10.45061297438751</v>
       </c>
       <c r="K18">
-        <v>17.75893965440218</v>
-      </c>
-      <c r="L18">
-        <v>7.100013625986583</v>
-      </c>
-      <c r="M18">
-        <v>13.09832737641944</v>
+        <v>14.53224714282706</v>
       </c>
       <c r="N18">
         <v>0</v>
       </c>
       <c r="O18">
-        <v>33.58794908502625</v>
+        <v>11.30460857003728</v>
       </c>
     </row>
     <row r="19" spans="1:15">
@@ -1220,46 +1016,34 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>21.72886768283491</v>
+        <v>16.3768591789088</v>
       </c>
       <c r="C19">
-        <v>12.16948579306079</v>
+        <v>9.208119822703393</v>
       </c>
       <c r="D19">
-        <v>5.276004086505353</v>
-      </c>
-      <c r="E19">
-        <v>0</v>
+        <v>6.45809063011683</v>
       </c>
       <c r="F19">
-        <v>42.58006429041444</v>
+        <v>14.41621707454147</v>
       </c>
       <c r="G19">
-        <v>2.074479788232922</v>
+        <v>2.078553510374236</v>
       </c>
       <c r="H19">
         <v>0</v>
       </c>
       <c r="I19">
-        <v>0</v>
-      </c>
-      <c r="J19">
-        <v>0</v>
+        <v>10.47816633386303</v>
       </c>
       <c r="K19">
-        <v>17.67907478514275</v>
-      </c>
-      <c r="L19">
-        <v>7.091239203821289</v>
-      </c>
-      <c r="M19">
-        <v>13.05829405849219</v>
+        <v>14.47888589568908</v>
       </c>
       <c r="N19">
         <v>0</v>
       </c>
       <c r="O19">
-        <v>33.48864201141137</v>
+        <v>11.32241693335701</v>
       </c>
     </row>
     <row r="20" spans="1:15">
@@ -1267,46 +1051,34 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>22.18640619999982</v>
+        <v>16.6718596502248</v>
       </c>
       <c r="C20">
-        <v>12.33867429528428</v>
+        <v>9.355464954421894</v>
       </c>
       <c r="D20">
-        <v>5.258823662069267</v>
-      </c>
-      <c r="E20">
-        <v>0</v>
+        <v>6.548311349484746</v>
       </c>
       <c r="F20">
-        <v>43.21859864306149</v>
+        <v>14.43878207192594</v>
       </c>
       <c r="G20">
-        <v>2.070585953987885</v>
+        <v>2.07705905050853</v>
       </c>
       <c r="H20">
         <v>0</v>
       </c>
       <c r="I20">
-        <v>0</v>
-      </c>
-      <c r="J20">
-        <v>0</v>
+        <v>10.35474290617424</v>
       </c>
       <c r="K20">
-        <v>18.03655566256085</v>
-      </c>
-      <c r="L20">
-        <v>7.130973900085559</v>
-      </c>
-      <c r="M20">
-        <v>13.23832994569422</v>
+        <v>14.71752282796445</v>
       </c>
       <c r="N20">
         <v>0</v>
       </c>
       <c r="O20">
-        <v>33.93574675376668</v>
+        <v>11.24336287872077</v>
       </c>
     </row>
     <row r="21" spans="1:15">
@@ -1314,46 +1086,34 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>23.68208181489095</v>
+        <v>17.62796023181109</v>
       </c>
       <c r="C21">
-        <v>12.89695146858156</v>
+        <v>9.834913634298854</v>
       </c>
       <c r="D21">
-        <v>5.202174861097999</v>
-      </c>
-      <c r="E21">
-        <v>0</v>
+        <v>6.842626421827752</v>
       </c>
       <c r="F21">
-        <v>45.35693563590519</v>
+        <v>14.54489478594768</v>
       </c>
       <c r="G21">
-        <v>2.057565508751923</v>
+        <v>2.072110508124703</v>
       </c>
       <c r="H21">
         <v>0</v>
       </c>
       <c r="I21">
-        <v>0</v>
-      </c>
-      <c r="J21">
-        <v>0</v>
+        <v>9.950296286741162</v>
       </c>
       <c r="K21">
-        <v>19.20476426533562</v>
-      </c>
-      <c r="L21">
-        <v>7.268913389690645</v>
-      </c>
-      <c r="M21">
-        <v>14.03268339162629</v>
+        <v>15.49308462330425</v>
       </c>
       <c r="N21">
         <v>0</v>
       </c>
       <c r="O21">
-        <v>35.44176807035385</v>
+        <v>10.99772405911682</v>
       </c>
     </row>
     <row r="22" spans="1:15">
@@ -1361,46 +1121,34 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>24.62971273527457</v>
+        <v>18.22679450728334</v>
       </c>
       <c r="C22">
-        <v>13.25457805425028</v>
+        <v>10.1365588584467</v>
       </c>
       <c r="D22">
-        <v>5.166011596610005</v>
-      </c>
-      <c r="E22">
-        <v>0</v>
+        <v>7.0283115378257</v>
       </c>
       <c r="F22">
-        <v>46.74955746134337</v>
+        <v>14.63776849570447</v>
       </c>
       <c r="G22">
-        <v>2.04908187837478</v>
+        <v>2.068927932476706</v>
       </c>
       <c r="H22">
         <v>0</v>
       </c>
       <c r="I22">
-        <v>0</v>
-      </c>
-      <c r="J22">
-        <v>0</v>
+        <v>9.693974829175673</v>
       </c>
       <c r="K22">
-        <v>19.94468203387753</v>
-      </c>
-      <c r="L22">
-        <v>7.362480450203567</v>
-      </c>
-      <c r="M22">
-        <v>14.5807482906391</v>
+        <v>15.98035495060751</v>
       </c>
       <c r="N22">
         <v>0</v>
       </c>
       <c r="O22">
-        <v>36.42919283739838</v>
+        <v>10.85332255054246</v>
       </c>
     </row>
     <row r="23" spans="1:15">
@@ -1408,46 +1156,34 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>24.12660193599586</v>
+        <v>17.90956021780056</v>
       </c>
       <c r="C23">
-        <v>13.06434339442926</v>
+        <v>9.976639179967291</v>
       </c>
       <c r="D23">
-        <v>5.185229670974223</v>
-      </c>
-      <c r="E23">
-        <v>0</v>
+        <v>6.929823450031279</v>
       </c>
       <c r="F23">
-        <v>46.00669961973286</v>
+        <v>14.5859900300497</v>
       </c>
       <c r="G23">
-        <v>2.053608768928892</v>
+        <v>2.070621982008975</v>
       </c>
       <c r="H23">
         <v>0</v>
       </c>
       <c r="I23">
-        <v>0</v>
-      </c>
-      <c r="J23">
-        <v>0</v>
+        <v>9.830018454859074</v>
       </c>
       <c r="K23">
-        <v>19.55186788521093</v>
-      </c>
-      <c r="L23">
-        <v>7.31222179910729</v>
-      </c>
-      <c r="M23">
-        <v>14.2897983068291</v>
+        <v>15.72208572997612</v>
       </c>
       <c r="N23">
         <v>0</v>
       </c>
       <c r="O23">
-        <v>35.90186630751391</v>
+        <v>10.92883132943638</v>
       </c>
     </row>
     <row r="24" spans="1:15">
@@ -1455,46 +1191,34 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>22.16143951414371</v>
+        <v>16.65579174708288</v>
       </c>
       <c r="C24">
-        <v>12.32942229248416</v>
+        <v>9.347431976856049</v>
       </c>
       <c r="D24">
-        <v>5.259763216077792</v>
-      </c>
-      <c r="E24">
-        <v>0</v>
+        <v>6.543389738885843</v>
       </c>
       <c r="F24">
-        <v>43.18356018034668</v>
+        <v>14.43743144012208</v>
       </c>
       <c r="G24">
-        <v>2.070799501382913</v>
+        <v>2.077140839515843</v>
       </c>
       <c r="H24">
         <v>0</v>
       </c>
       <c r="I24">
-        <v>0</v>
-      </c>
-      <c r="J24">
-        <v>0</v>
+        <v>10.36148305352997</v>
       </c>
       <c r="K24">
-        <v>18.0170504493215</v>
-      </c>
-      <c r="L24">
-        <v>7.128775426329023</v>
-      </c>
-      <c r="M24">
-        <v>13.22845115100977</v>
+        <v>14.70451648290388</v>
       </c>
       <c r="N24">
         <v>0</v>
       </c>
       <c r="O24">
-        <v>33.91117993454701</v>
+        <v>11.24763204342059</v>
       </c>
     </row>
     <row r="25" spans="1:15">
@@ -1502,46 +1226,34 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>19.90646332701992</v>
+        <v>15.19106392247187</v>
       </c>
       <c r="C25">
-        <v>11.50360949089268</v>
+        <v>8.619011061541251</v>
       </c>
       <c r="D25">
-        <v>5.343502656756375</v>
-      </c>
-      <c r="E25">
-        <v>0</v>
+        <v>6.098627648047327</v>
       </c>
       <c r="F25">
-        <v>40.11616230847001</v>
+        <v>14.37187384831359</v>
       </c>
       <c r="G25">
-        <v>2.089581202642164</v>
+        <v>2.084410194038234</v>
       </c>
       <c r="H25">
         <v>0</v>
       </c>
       <c r="I25">
-        <v>0</v>
-      </c>
-      <c r="J25">
-        <v>0</v>
+        <v>10.96689797064113</v>
       </c>
       <c r="K25">
-        <v>16.25448399714754</v>
-      </c>
-      <c r="L25">
-        <v>6.9448923975956</v>
-      </c>
-      <c r="M25">
-        <v>12.36372608712726</v>
+        <v>13.52322750111192</v>
       </c>
       <c r="N25">
         <v>0</v>
       </c>
       <c r="O25">
-        <v>31.77617223756502</v>
+        <v>11.65297663024081</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_3_44/res_line/loading_percent.xlsx
+++ b/Code/Results/Cases/Case_3_44/res_line/loading_percent.xlsx
@@ -421,34 +421,34 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>14.01547909860827</v>
+        <v>9.077415285415968</v>
       </c>
       <c r="C2">
-        <v>8.040770805378564</v>
+        <v>5.417613208607194</v>
       </c>
       <c r="D2">
-        <v>5.748088988314783</v>
+        <v>4.992241250410425</v>
       </c>
       <c r="F2">
-        <v>14.39732585381361</v>
+        <v>22.04533146417304</v>
       </c>
       <c r="G2">
-        <v>2.089984895035296</v>
+        <v>3.625120860072542</v>
       </c>
       <c r="H2">
         <v>0</v>
       </c>
       <c r="I2">
-        <v>11.4385985594398</v>
+        <v>19.16784200727609</v>
       </c>
       <c r="K2">
-        <v>12.58238187549948</v>
+        <v>8.683681599227008</v>
       </c>
       <c r="N2">
         <v>0</v>
       </c>
       <c r="O2">
-        <v>11.99678056255468</v>
+        <v>19.98374392759137</v>
       </c>
     </row>
     <row r="3" spans="1:15">
@@ -456,34 +456,34 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>13.15820402309436</v>
+        <v>8.688384084678983</v>
       </c>
       <c r="C3">
-        <v>7.62347560390104</v>
+        <v>5.211784515551813</v>
       </c>
       <c r="D3">
-        <v>5.496818652112915</v>
+        <v>4.890931008010105</v>
       </c>
       <c r="F3">
-        <v>14.45634834070847</v>
+        <v>22.16078855855167</v>
       </c>
       <c r="G3">
-        <v>2.093909930162018</v>
+        <v>3.626581312923057</v>
       </c>
       <c r="H3">
         <v>0</v>
       </c>
       <c r="I3">
-        <v>11.77389552984688</v>
+        <v>19.29197477008969</v>
       </c>
       <c r="K3">
-        <v>11.90129107015137</v>
+        <v>8.405505909228753</v>
       </c>
       <c r="N3">
         <v>0</v>
       </c>
       <c r="O3">
-        <v>12.25487223693673</v>
+        <v>20.10546929477558</v>
       </c>
     </row>
     <row r="4" spans="1:15">
@@ -491,34 +491,34 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>12.60206547196481</v>
+        <v>8.440656668651931</v>
       </c>
       <c r="C4">
-        <v>7.355072059605841</v>
+        <v>5.080398039259375</v>
       </c>
       <c r="D4">
-        <v>5.336073860001</v>
+        <v>4.827026935030815</v>
       </c>
       <c r="F4">
-        <v>14.5117309448516</v>
+        <v>22.2382985536303</v>
       </c>
       <c r="G4">
-        <v>2.096395016194758</v>
+        <v>3.627525325314044</v>
       </c>
       <c r="H4">
         <v>0</v>
       </c>
       <c r="I4">
-        <v>11.98735097362951</v>
+        <v>19.37226854679644</v>
       </c>
       <c r="K4">
-        <v>11.46210213417365</v>
+        <v>8.230261231717664</v>
       </c>
       <c r="N4">
         <v>0</v>
       </c>
       <c r="O4">
-        <v>12.42480372332666</v>
+        <v>20.18491667291989</v>
       </c>
     </row>
     <row r="5" spans="1:15">
@@ -526,34 +526,34 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>12.36798112801324</v>
+        <v>8.337608438107596</v>
       </c>
       <c r="C5">
-        <v>7.242700429828268</v>
+        <v>5.025652410229435</v>
       </c>
       <c r="D5">
-        <v>5.268997444753571</v>
+        <v>4.800579556237909</v>
       </c>
       <c r="F5">
-        <v>14.53889253384775</v>
+        <v>22.27154337451682</v>
       </c>
       <c r="G5">
-        <v>2.0974269520319</v>
+        <v>3.627921944294474</v>
       </c>
       <c r="H5">
         <v>0</v>
       </c>
       <c r="I5">
-        <v>12.07622821526001</v>
+        <v>19.40601579064269</v>
       </c>
       <c r="K5">
-        <v>11.27793830476212</v>
+        <v>8.157828602906807</v>
       </c>
       <c r="N5">
         <v>0</v>
       </c>
       <c r="O5">
-        <v>12.49681165856781</v>
+        <v>20.21847571274299</v>
       </c>
     </row>
     <row r="6" spans="1:15">
@@ -561,34 +561,34 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>12.32866267915316</v>
+        <v>8.320374858171556</v>
       </c>
       <c r="C6">
-        <v>7.223862610794962</v>
+        <v>5.016490910181251</v>
       </c>
       <c r="D6">
-        <v>5.257766277592212</v>
+        <v>4.796164115047523</v>
       </c>
       <c r="F6">
-        <v>14.54367360403206</v>
+        <v>22.27716368128531</v>
       </c>
       <c r="G6">
-        <v>2.097599476672416</v>
+        <v>3.62798852392797</v>
       </c>
       <c r="H6">
         <v>0</v>
       </c>
       <c r="I6">
-        <v>12.09110017969657</v>
+        <v>19.41168157484524</v>
       </c>
       <c r="K6">
-        <v>11.24704756186154</v>
+        <v>8.145742715803264</v>
       </c>
       <c r="N6">
         <v>0</v>
       </c>
       <c r="O6">
-        <v>12.50893183127142</v>
+        <v>20.22411964837359</v>
       </c>
     </row>
     <row r="7" spans="1:15">
@@ -596,34 +596,34 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>12.59893865358433</v>
+        <v>8.439275230206809</v>
       </c>
       <c r="C7">
-        <v>7.353568601843186</v>
+        <v>5.07966452097207</v>
       </c>
       <c r="D7">
-        <v>5.335175530020934</v>
+        <v>4.826671871150872</v>
       </c>
       <c r="F7">
-        <v>14.51207895250812</v>
+        <v>22.23874019552542</v>
       </c>
       <c r="G7">
-        <v>2.096408854862073</v>
+        <v>3.62753062592051</v>
       </c>
       <c r="H7">
         <v>0</v>
       </c>
       <c r="I7">
-        <v>11.98854195630042</v>
+        <v>19.3727195134693</v>
       </c>
       <c r="K7">
-        <v>11.45963932020766</v>
+        <v>8.229288369641656</v>
       </c>
       <c r="N7">
         <v>0</v>
       </c>
       <c r="O7">
-        <v>12.42576382773621</v>
+        <v>20.18536446971673</v>
       </c>
     </row>
     <row r="8" spans="1:15">
@@ -631,34 +631,34 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>13.72608369075951</v>
+        <v>8.94518946394005</v>
       </c>
       <c r="C8">
-        <v>7.899452476800317</v>
+        <v>5.347713253245643</v>
       </c>
       <c r="D8">
-        <v>5.662822173412894</v>
+        <v>4.9576745910147</v>
       </c>
       <c r="F8">
-        <v>14.4135716224904</v>
+        <v>22.08376403849484</v>
       </c>
       <c r="G8">
-        <v>2.091322881205577</v>
+        <v>3.625614630733565</v>
       </c>
       <c r="H8">
         <v>0</v>
       </c>
       <c r="I8">
-        <v>11.55262552433329</v>
+        <v>19.20979826141429</v>
       </c>
       <c r="K8">
-        <v>12.3519464439065</v>
+        <v>8.588745334039091</v>
       </c>
       <c r="N8">
         <v>0</v>
       </c>
       <c r="O8">
-        <v>12.08331380058992</v>
+        <v>20.02473768829067</v>
       </c>
     </row>
     <row r="9" spans="1:15">
@@ -666,34 +666,34 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>15.69952577414107</v>
+        <v>9.86208630346759</v>
       </c>
       <c r="C9">
-        <v>8.870963936967204</v>
+        <v>5.831564955453903</v>
       </c>
       <c r="D9">
-        <v>6.252104169126538</v>
+        <v>5.200209545771432</v>
       </c>
       <c r="F9">
-        <v>14.38196503974564</v>
+        <v>21.83261673269427</v>
       </c>
       <c r="G9">
-        <v>2.081928118280265</v>
+        <v>3.62223097059041</v>
       </c>
       <c r="H9">
         <v>0</v>
       </c>
       <c r="I9">
-        <v>10.75884086472901</v>
+        <v>18.92255780172722</v>
       </c>
       <c r="K9">
-        <v>13.93226847787888</v>
+        <v>9.254484889629545</v>
       </c>
       <c r="N9">
         <v>0</v>
       </c>
       <c r="O9">
-        <v>11.50892566491791</v>
+        <v>19.74710817889208</v>
       </c>
     </row>
     <row r="10" spans="1:15">
@@ -701,34 +701,34 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>17.00490002401985</v>
+        <v>10.48439808464353</v>
       </c>
       <c r="C10">
-        <v>9.52215276157783</v>
+        <v>6.159225772462222</v>
       </c>
       <c r="D10">
-        <v>6.650510637635604</v>
+        <v>5.368551873140667</v>
       </c>
       <c r="F10">
-        <v>14.46996471248097</v>
+        <v>21.68058981534267</v>
       </c>
       <c r="G10">
-        <v>2.075353634607626</v>
+        <v>3.619970488565501</v>
       </c>
       <c r="H10">
         <v>0</v>
       </c>
       <c r="I10">
-        <v>10.21459897557477</v>
+        <v>18.73105211718832</v>
       </c>
       <c r="K10">
-        <v>14.98731729976153</v>
+        <v>9.715101232681896</v>
       </c>
       <c r="N10">
         <v>0</v>
       </c>
       <c r="O10">
-        <v>11.15587579942773</v>
+        <v>19.5659193180783</v>
       </c>
     </row>
     <row r="11" spans="1:15">
@@ -736,34 +736,34 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>17.56752581111451</v>
+        <v>10.75546385034703</v>
       </c>
       <c r="C11">
-        <v>9.804526949103984</v>
+        <v>6.301854386377939</v>
       </c>
       <c r="D11">
-        <v>6.823941946460802</v>
+        <v>5.442789125697383</v>
       </c>
       <c r="F11">
-        <v>14.5366666577723</v>
+        <v>21.61855222658457</v>
       </c>
       <c r="G11">
-        <v>2.072428106059354</v>
+        <v>3.618990618860016</v>
       </c>
       <c r="H11">
         <v>0</v>
       </c>
       <c r="I11">
-        <v>9.976045703651447</v>
+        <v>18.64814502344577</v>
       </c>
       <c r="K11">
-        <v>15.44397106805345</v>
+        <v>9.917638197675698</v>
       </c>
       <c r="N11">
         <v>0</v>
       </c>
       <c r="O11">
-        <v>11.01272753529974</v>
+        <v>19.4884432983011</v>
       </c>
     </row>
     <row r="12" spans="1:15">
@@ -771,34 +771,34 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>17.77611171421816</v>
+        <v>10.85632024674157</v>
       </c>
       <c r="C12">
-        <v>9.909448699162212</v>
+        <v>6.354913436178626</v>
       </c>
       <c r="D12">
-        <v>6.88847392620154</v>
+        <v>5.470548195313449</v>
       </c>
       <c r="F12">
-        <v>14.56594801579854</v>
+        <v>21.59608960935995</v>
       </c>
       <c r="G12">
-        <v>2.071329163992463</v>
+        <v>3.618626496346418</v>
       </c>
       <c r="H12">
         <v>0</v>
       </c>
       <c r="I12">
-        <v>9.887076912274564</v>
+        <v>18.61735373389052</v>
       </c>
       <c r="K12">
-        <v>15.61353267946639</v>
+        <v>9.993268626661859</v>
       </c>
       <c r="N12">
         <v>0</v>
       </c>
       <c r="O12">
-        <v>10.96126724010335</v>
+        <v>19.4598172570648</v>
       </c>
     </row>
     <row r="13" spans="1:15">
@@ -806,34 +806,34 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>17.73138739863867</v>
+        <v>10.83467951013199</v>
       </c>
       <c r="C13">
-        <v>9.886941364292344</v>
+        <v>6.343528922497646</v>
       </c>
       <c r="D13">
-        <v>6.874626905628666</v>
+        <v>5.46458572528541</v>
       </c>
       <c r="F13">
-        <v>14.55946002461088</v>
+        <v>21.60088145015417</v>
       </c>
       <c r="G13">
-        <v>2.071565453432457</v>
+        <v>3.618704608810027</v>
       </c>
       <c r="H13">
         <v>0</v>
       </c>
       <c r="I13">
-        <v>9.906175899332732</v>
+        <v>18.62395835757791</v>
       </c>
       <c r="K13">
-        <v>15.57716426108461</v>
+        <v>9.977028540994715</v>
       </c>
       <c r="N13">
         <v>0</v>
       </c>
       <c r="O13">
-        <v>10.972223945289</v>
+        <v>19.46595068459122</v>
       </c>
     </row>
     <row r="14" spans="1:15">
@@ -841,34 +841,34 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>17.58477572994039</v>
+        <v>10.76379756214503</v>
       </c>
       <c r="C14">
-        <v>9.813199215003875</v>
+        <v>6.306238794141769</v>
       </c>
       <c r="D14">
-        <v>6.829274032378323</v>
+        <v>5.445080043134146</v>
       </c>
       <c r="F14">
-        <v>14.53899401367828</v>
+        <v>21.61668354468846</v>
       </c>
       <c r="G14">
-        <v>2.072337520122185</v>
+        <v>3.618960523518695</v>
       </c>
       <c r="H14">
         <v>0</v>
       </c>
       <c r="I14">
-        <v>9.968698354935736</v>
+        <v>18.64559971254651</v>
       </c>
       <c r="K14">
-        <v>15.45798845636923</v>
+        <v>9.923882037173783</v>
       </c>
       <c r="N14">
         <v>0</v>
       </c>
       <c r="O14">
-        <v>11.00843737433983</v>
+        <v>19.48607393230074</v>
       </c>
     </row>
     <row r="15" spans="1:15">
@@ -876,34 +876,34 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>17.49439056259336</v>
+        <v>10.72014552703362</v>
       </c>
       <c r="C15">
-        <v>9.767768286867797</v>
+        <v>6.283272883629512</v>
       </c>
       <c r="D15">
-        <v>6.801344752597162</v>
+        <v>5.4330858248761</v>
       </c>
       <c r="F15">
-        <v>14.52698716639204</v>
+        <v>21.62649704714347</v>
       </c>
       <c r="G15">
-        <v>2.072811576296836</v>
+        <v>3.619118180587567</v>
       </c>
       <c r="H15">
         <v>0</v>
       </c>
       <c r="I15">
-        <v>10.0071753986474</v>
+        <v>18.65893425874711</v>
       </c>
       <c r="K15">
-        <v>15.38455158079266</v>
+        <v>9.891187808671594</v>
       </c>
       <c r="N15">
         <v>0</v>
       </c>
       <c r="O15">
-        <v>11.03098429707264</v>
+        <v>19.49849281441977</v>
       </c>
     </row>
     <row r="16" spans="1:15">
@@ -911,34 +911,34 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>16.96750475235453</v>
+        <v>10.4664358598945</v>
       </c>
       <c r="C16">
-        <v>9.503418723960591</v>
+        <v>6.149772927717372</v>
       </c>
       <c r="D16">
-        <v>6.639017586875799</v>
+        <v>5.363651751896057</v>
       </c>
       <c r="F16">
-        <v>14.46615866185425</v>
+        <v>21.68478789276237</v>
       </c>
       <c r="G16">
-        <v>2.0755460963427</v>
+        <v>3.620035497247455</v>
       </c>
       <c r="H16">
         <v>0</v>
       </c>
       <c r="I16">
-        <v>10.23037606567044</v>
+        <v>18.73655487022118</v>
       </c>
       <c r="K16">
-        <v>14.95700380675809</v>
+        <v>9.701718880772773</v>
       </c>
       <c r="N16">
         <v>0</v>
       </c>
       <c r="O16">
-        <v>11.16560182782977</v>
+        <v>19.57108219973793</v>
       </c>
     </row>
     <row r="17" spans="1:15">
@@ -946,34 +946,34 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>16.63629821876425</v>
+        <v>10.3076663484499</v>
       </c>
       <c r="C17">
-        <v>9.337687535105541</v>
+        <v>6.066208494785764</v>
       </c>
       <c r="D17">
-        <v>6.537420004517291</v>
+        <v>5.320444377783287</v>
       </c>
       <c r="F17">
-        <v>14.4358117474187</v>
+        <v>21.72237525897404</v>
       </c>
       <c r="G17">
-        <v>2.077240005251328</v>
+        <v>3.620610623789851</v>
       </c>
       <c r="H17">
         <v>0</v>
       </c>
       <c r="I17">
-        <v>10.3696574951996</v>
+        <v>18.78524972344603</v>
       </c>
       <c r="K17">
-        <v>14.6887385108067</v>
+        <v>9.583648586446628</v>
       </c>
       <c r="N17">
         <v>0</v>
       </c>
       <c r="O17">
-        <v>11.25281717394605</v>
+        <v>19.61688132607458</v>
       </c>
     </row>
     <row r="18" spans="1:15">
@@ -981,34 +981,34 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>16.4428592792545</v>
+        <v>10.21521725806912</v>
       </c>
       <c r="C18">
-        <v>9.241059690551912</v>
+        <v>6.017540960797225</v>
       </c>
       <c r="D18">
-        <v>6.478249939796872</v>
+        <v>5.295373037544786</v>
       </c>
       <c r="F18">
-        <v>14.42085706214163</v>
+        <v>21.74466436781039</v>
       </c>
       <c r="G18">
-        <v>2.078220468118574</v>
+        <v>3.620945982183458</v>
       </c>
       <c r="H18">
         <v>0</v>
       </c>
       <c r="I18">
-        <v>10.45061297438751</v>
+        <v>18.81365405044004</v>
       </c>
       <c r="K18">
-        <v>14.53224714282706</v>
+        <v>9.515081922927667</v>
       </c>
       <c r="N18">
         <v>0</v>
       </c>
       <c r="O18">
-        <v>11.30460857003728</v>
+        <v>19.64368940973886</v>
       </c>
     </row>
     <row r="19" spans="1:15">
@@ -1016,34 +1016,34 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>16.3768591789088</v>
+        <v>10.18372368195302</v>
       </c>
       <c r="C19">
-        <v>9.208119822703393</v>
+        <v>6.00096021869991</v>
       </c>
       <c r="D19">
-        <v>6.45809063011683</v>
+        <v>5.286847106322748</v>
       </c>
       <c r="F19">
-        <v>14.41621707454147</v>
+        <v>21.75232594587691</v>
       </c>
       <c r="G19">
-        <v>2.078553510374236</v>
+        <v>3.621060313078064</v>
       </c>
       <c r="H19">
         <v>0</v>
       </c>
       <c r="I19">
-        <v>10.47816633386303</v>
+        <v>18.82333938613533</v>
       </c>
       <c r="K19">
-        <v>14.47888589568908</v>
+        <v>9.491755724993411</v>
       </c>
       <c r="N19">
         <v>0</v>
       </c>
       <c r="O19">
-        <v>11.32241693335701</v>
+        <v>19.65284611173485</v>
       </c>
     </row>
     <row r="20" spans="1:15">
@@ -1051,34 +1051,34 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>16.6718596502248</v>
+        <v>10.32468495978658</v>
       </c>
       <c r="C20">
-        <v>9.355464954421894</v>
+        <v>6.075166739727234</v>
       </c>
       <c r="D20">
-        <v>6.548311349484746</v>
+        <v>5.325066724943891</v>
       </c>
       <c r="F20">
-        <v>14.43878207192594</v>
+        <v>21.71830465035197</v>
       </c>
       <c r="G20">
-        <v>2.07705905050853</v>
+        <v>3.620548928792378</v>
       </c>
       <c r="H20">
         <v>0</v>
       </c>
       <c r="I20">
-        <v>10.35474290617424</v>
+        <v>18.78002506525661</v>
       </c>
       <c r="K20">
-        <v>14.71752282796445</v>
+        <v>9.596285690670895</v>
       </c>
       <c r="N20">
         <v>0</v>
       </c>
       <c r="O20">
-        <v>11.24336287872077</v>
+        <v>19.61195773238001</v>
       </c>
     </row>
     <row r="21" spans="1:15">
@@ -1086,34 +1086,34 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>17.62796023181109</v>
+        <v>10.78466633495506</v>
       </c>
       <c r="C21">
-        <v>9.834913634298854</v>
+        <v>6.317217824751483</v>
       </c>
       <c r="D21">
-        <v>6.842626421827752</v>
+        <v>5.450819036775491</v>
       </c>
       <c r="F21">
-        <v>14.54489478594768</v>
+        <v>21.61201409598118</v>
       </c>
       <c r="G21">
-        <v>2.072110508124703</v>
+        <v>3.618885167263264</v>
       </c>
       <c r="H21">
         <v>0</v>
       </c>
       <c r="I21">
-        <v>9.950296286741162</v>
+        <v>18.63922674629473</v>
       </c>
       <c r="K21">
-        <v>15.49308462330425</v>
+        <v>9.939521821925307</v>
       </c>
       <c r="N21">
         <v>0</v>
       </c>
       <c r="O21">
-        <v>10.99772405911682</v>
+        <v>19.48014390289089</v>
       </c>
     </row>
     <row r="22" spans="1:15">
@@ -1121,34 +1121,34 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>18.22679450728334</v>
+        <v>11.07483364361409</v>
       </c>
       <c r="C22">
-        <v>10.1365588584467</v>
+        <v>6.469857289878593</v>
       </c>
       <c r="D22">
-        <v>7.0283115378257</v>
+        <v>5.530941437498027</v>
       </c>
       <c r="F22">
-        <v>14.63776849570447</v>
+        <v>21.54855137805193</v>
       </c>
       <c r="G22">
-        <v>2.068927932476706</v>
+        <v>3.617838198388311</v>
       </c>
       <c r="H22">
         <v>0</v>
       </c>
       <c r="I22">
-        <v>9.693974829175673</v>
+        <v>18.55072579683506</v>
       </c>
       <c r="K22">
-        <v>15.98035495060751</v>
+        <v>10.17663676390809</v>
       </c>
       <c r="N22">
         <v>0</v>
       </c>
       <c r="O22">
-        <v>10.85332255054246</v>
+        <v>19.39814913937109</v>
       </c>
     </row>
     <row r="23" spans="1:15">
@@ -1156,34 +1156,34 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>17.90956021780056</v>
+        <v>10.92094040136168</v>
       </c>
       <c r="C23">
-        <v>9.976639179967291</v>
+        <v>6.388907014231108</v>
       </c>
       <c r="D23">
-        <v>6.929823450031279</v>
+        <v>5.488372479739074</v>
       </c>
       <c r="F23">
-        <v>14.5859900300497</v>
+        <v>21.58187135161836</v>
       </c>
       <c r="G23">
-        <v>2.070621982008975</v>
+        <v>3.618393299695633</v>
       </c>
       <c r="H23">
         <v>0</v>
       </c>
       <c r="I23">
-        <v>9.830018454859074</v>
+        <v>18.59763893523012</v>
       </c>
       <c r="K23">
-        <v>15.72208572997612</v>
+        <v>10.04435695556056</v>
       </c>
       <c r="N23">
         <v>0</v>
       </c>
       <c r="O23">
-        <v>10.92883132943638</v>
+        <v>19.44153092629877</v>
       </c>
     </row>
     <row r="24" spans="1:15">
@@ -1191,34 +1191,34 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>16.65579174708288</v>
+        <v>10.31699448637187</v>
       </c>
       <c r="C24">
-        <v>9.347431976856049</v>
+        <v>6.071118662546496</v>
       </c>
       <c r="D24">
-        <v>6.543389738885843</v>
+        <v>5.322977679592128</v>
       </c>
       <c r="F24">
-        <v>14.43743144012208</v>
+        <v>21.72014285596302</v>
       </c>
       <c r="G24">
-        <v>2.077140839515843</v>
+        <v>3.620576806425432</v>
       </c>
       <c r="H24">
         <v>0</v>
       </c>
       <c r="I24">
-        <v>10.36148305352997</v>
+        <v>18.78238585907598</v>
       </c>
       <c r="K24">
-        <v>14.70451648290388</v>
+        <v>9.59057458950134</v>
       </c>
       <c r="N24">
         <v>0</v>
       </c>
       <c r="O24">
-        <v>11.24763204342059</v>
+        <v>19.6141822016076</v>
       </c>
     </row>
     <row r="25" spans="1:15">
@@ -1226,34 +1226,34 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>15.19106392247187</v>
+        <v>9.622712768124526</v>
       </c>
       <c r="C25">
-        <v>8.619011061541251</v>
+        <v>5.70540794094848</v>
       </c>
       <c r="D25">
-        <v>6.098627648047327</v>
+        <v>5.13625233707741</v>
       </c>
       <c r="F25">
-        <v>14.37187384831359</v>
+        <v>21.89487627632886</v>
       </c>
       <c r="G25">
-        <v>2.084410194038234</v>
+        <v>3.623106578827441</v>
       </c>
       <c r="H25">
         <v>0</v>
       </c>
       <c r="I25">
-        <v>10.96689797064113</v>
+        <v>18.99682514550969</v>
       </c>
       <c r="K25">
-        <v>13.52322750111192</v>
+        <v>9.079086246075715</v>
       </c>
       <c r="N25">
         <v>0</v>
       </c>
       <c r="O25">
-        <v>11.65297663024081</v>
+        <v>19.81821399725273</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_3_44/res_line/loading_percent.xlsx
+++ b/Code/Results/Cases/Case_3_44/res_line/loading_percent.xlsx
@@ -421,34 +421,34 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>9.077415285415968</v>
+        <v>14.01547909860828</v>
       </c>
       <c r="C2">
-        <v>5.417613208607194</v>
+        <v>8.040770805378534</v>
       </c>
       <c r="D2">
-        <v>4.992241250410425</v>
+        <v>5.748088988314892</v>
       </c>
       <c r="F2">
-        <v>22.04533146417304</v>
+        <v>14.39732585381359</v>
       </c>
       <c r="G2">
-        <v>3.625120860072542</v>
+        <v>2.08998489503543</v>
       </c>
       <c r="H2">
         <v>0</v>
       </c>
       <c r="I2">
-        <v>19.16784200727609</v>
+        <v>11.43859855943981</v>
       </c>
       <c r="K2">
-        <v>8.683681599227008</v>
+        <v>12.58238187549948</v>
       </c>
       <c r="N2">
         <v>0</v>
       </c>
       <c r="O2">
-        <v>19.98374392759137</v>
+        <v>11.99678056255469</v>
       </c>
     </row>
     <row r="3" spans="1:15">
@@ -456,34 +456,34 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>8.688384084678983</v>
+        <v>13.15820402309438</v>
       </c>
       <c r="C3">
-        <v>5.211784515551813</v>
+        <v>7.623475603901056</v>
       </c>
       <c r="D3">
-        <v>4.890931008010105</v>
+        <v>5.496818652112951</v>
       </c>
       <c r="F3">
-        <v>22.16078855855167</v>
+        <v>14.45634834070837</v>
       </c>
       <c r="G3">
-        <v>3.626581312923057</v>
+        <v>2.093909930161749</v>
       </c>
       <c r="H3">
         <v>0</v>
       </c>
       <c r="I3">
-        <v>19.29197477008969</v>
+        <v>11.77389552984682</v>
       </c>
       <c r="K3">
-        <v>8.405505909228753</v>
+        <v>11.90129107015142</v>
       </c>
       <c r="N3">
         <v>0</v>
       </c>
       <c r="O3">
-        <v>20.10546929477558</v>
+        <v>12.25487223693664</v>
       </c>
     </row>
     <row r="4" spans="1:15">
@@ -491,34 +491,34 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>8.440656668651931</v>
+        <v>12.60206547196487</v>
       </c>
       <c r="C4">
-        <v>5.080398039259375</v>
+        <v>7.355072059605693</v>
       </c>
       <c r="D4">
-        <v>4.827026935030815</v>
+        <v>5.336073860001044</v>
       </c>
       <c r="F4">
-        <v>22.2382985536303</v>
+        <v>14.51173094485136</v>
       </c>
       <c r="G4">
-        <v>3.627525325314044</v>
+        <v>2.096395016194891</v>
       </c>
       <c r="H4">
         <v>0</v>
       </c>
       <c r="I4">
-        <v>19.37226854679644</v>
+        <v>11.98735097362931</v>
       </c>
       <c r="K4">
-        <v>8.230261231717664</v>
+        <v>11.46210213417366</v>
       </c>
       <c r="N4">
         <v>0</v>
       </c>
       <c r="O4">
-        <v>20.18491667291989</v>
+        <v>12.42480372332652</v>
       </c>
     </row>
     <row r="5" spans="1:15">
@@ -526,34 +526,34 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>8.337608438107596</v>
+        <v>12.36798112801327</v>
       </c>
       <c r="C5">
-        <v>5.025652410229435</v>
+        <v>7.242700429828237</v>
       </c>
       <c r="D5">
-        <v>4.800579556237909</v>
+        <v>5.268997444753513</v>
       </c>
       <c r="F5">
-        <v>22.27154337451682</v>
+        <v>14.53889253384771</v>
       </c>
       <c r="G5">
-        <v>3.627921944294474</v>
+        <v>2.097426952032168</v>
       </c>
       <c r="H5">
         <v>0</v>
       </c>
       <c r="I5">
-        <v>19.40601579064269</v>
+        <v>12.07622821525992</v>
       </c>
       <c r="K5">
-        <v>8.157828602906807</v>
+        <v>11.2779383047621</v>
       </c>
       <c r="N5">
         <v>0</v>
       </c>
       <c r="O5">
-        <v>20.21847571274299</v>
+        <v>12.49681165856776</v>
       </c>
     </row>
     <row r="6" spans="1:15">
@@ -561,34 +561,34 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>8.320374858171556</v>
+        <v>12.32866267915325</v>
       </c>
       <c r="C6">
-        <v>5.016490910181251</v>
+        <v>7.223862610795025</v>
       </c>
       <c r="D6">
-        <v>4.796164115047523</v>
+        <v>5.2577662775922</v>
       </c>
       <c r="F6">
-        <v>22.27716368128531</v>
+        <v>14.54367360403173</v>
       </c>
       <c r="G6">
-        <v>3.62798852392797</v>
+        <v>2.097599476672281</v>
       </c>
       <c r="H6">
         <v>0</v>
       </c>
       <c r="I6">
-        <v>19.41168157484524</v>
+        <v>12.09110017969632</v>
       </c>
       <c r="K6">
-        <v>8.145742715803264</v>
+        <v>11.24704756186164</v>
       </c>
       <c r="N6">
         <v>0</v>
       </c>
       <c r="O6">
-        <v>20.22411964837359</v>
+        <v>12.50893183127112</v>
       </c>
     </row>
     <row r="7" spans="1:15">
@@ -596,34 +596,34 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>8.439275230206809</v>
+        <v>12.59893865358431</v>
       </c>
       <c r="C7">
-        <v>5.07966452097207</v>
+        <v>7.35356860184327</v>
       </c>
       <c r="D7">
-        <v>4.826671871150872</v>
+        <v>5.335175530020814</v>
       </c>
       <c r="F7">
-        <v>22.23874019552542</v>
+        <v>14.51207895250824</v>
       </c>
       <c r="G7">
-        <v>3.62753062592051</v>
+        <v>2.096408854862476</v>
       </c>
       <c r="H7">
         <v>0</v>
       </c>
       <c r="I7">
-        <v>19.3727195134693</v>
+        <v>11.98854195630053</v>
       </c>
       <c r="K7">
-        <v>8.229288369641656</v>
+        <v>11.45963932020766</v>
       </c>
       <c r="N7">
         <v>0</v>
       </c>
       <c r="O7">
-        <v>20.18536446971673</v>
+        <v>12.42576382773625</v>
       </c>
     </row>
     <row r="8" spans="1:15">
@@ -631,34 +631,34 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>8.94518946394005</v>
+        <v>13.72608369075942</v>
       </c>
       <c r="C8">
-        <v>5.347713253245643</v>
+        <v>7.899452476800387</v>
       </c>
       <c r="D8">
-        <v>4.9576745910147</v>
+        <v>5.662822173412972</v>
       </c>
       <c r="F8">
-        <v>22.08376403849484</v>
+        <v>14.41357162249038</v>
       </c>
       <c r="G8">
-        <v>3.625614630733565</v>
+        <v>2.091322881205443</v>
       </c>
       <c r="H8">
         <v>0</v>
       </c>
       <c r="I8">
-        <v>19.20979826141429</v>
+        <v>11.55262552433333</v>
       </c>
       <c r="K8">
-        <v>8.588745334039091</v>
+        <v>12.35194644390648</v>
       </c>
       <c r="N8">
         <v>0</v>
       </c>
       <c r="O8">
-        <v>20.02473768829067</v>
+        <v>12.08331380058994</v>
       </c>
     </row>
     <row r="9" spans="1:15">
@@ -666,34 +666,34 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>9.86208630346759</v>
+        <v>15.69952577414109</v>
       </c>
       <c r="C9">
-        <v>5.831564955453903</v>
+        <v>8.87096393696716</v>
       </c>
       <c r="D9">
-        <v>5.200209545771432</v>
+        <v>6.252104169126641</v>
       </c>
       <c r="F9">
-        <v>21.83261673269427</v>
+        <v>14.38196503974554</v>
       </c>
       <c r="G9">
-        <v>3.62223097059041</v>
+        <v>2.081928118279999</v>
       </c>
       <c r="H9">
         <v>0</v>
       </c>
       <c r="I9">
-        <v>18.92255780172722</v>
+        <v>10.75884086472893</v>
       </c>
       <c r="K9">
-        <v>9.254484889629545</v>
+        <v>13.93226847787892</v>
       </c>
       <c r="N9">
         <v>0</v>
       </c>
       <c r="O9">
-        <v>19.74710817889208</v>
+        <v>11.50892566491781</v>
       </c>
     </row>
     <row r="10" spans="1:15">
@@ -701,34 +701,34 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>10.48439808464353</v>
+        <v>17.00490002401985</v>
       </c>
       <c r="C10">
-        <v>6.159225772462222</v>
+        <v>9.522152761577789</v>
       </c>
       <c r="D10">
-        <v>5.368551873140667</v>
+        <v>6.650510637635749</v>
       </c>
       <c r="F10">
-        <v>21.68058981534267</v>
+        <v>14.46996471248093</v>
       </c>
       <c r="G10">
-        <v>3.619970488565501</v>
+        <v>2.075353634607626</v>
       </c>
       <c r="H10">
         <v>0</v>
       </c>
       <c r="I10">
-        <v>18.73105211718832</v>
+        <v>10.21459897557482</v>
       </c>
       <c r="K10">
-        <v>9.715101232681896</v>
+        <v>14.98731729976153</v>
       </c>
       <c r="N10">
         <v>0</v>
       </c>
       <c r="O10">
-        <v>19.5659193180783</v>
+        <v>11.15587579942776</v>
       </c>
     </row>
     <row r="11" spans="1:15">
@@ -736,34 +736,34 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>10.75546385034703</v>
+        <v>17.56752581111445</v>
       </c>
       <c r="C11">
-        <v>6.301854386377939</v>
+        <v>9.80452694910397</v>
       </c>
       <c r="D11">
-        <v>5.442789125697383</v>
+        <v>6.823941946460726</v>
       </c>
       <c r="F11">
-        <v>21.61855222658457</v>
+        <v>14.53666665777253</v>
       </c>
       <c r="G11">
-        <v>3.618990618860016</v>
+        <v>2.072428106059622</v>
       </c>
       <c r="H11">
         <v>0</v>
       </c>
       <c r="I11">
-        <v>18.64814502344577</v>
+        <v>9.97604570365168</v>
       </c>
       <c r="K11">
-        <v>9.917638197675698</v>
+        <v>15.44397106805338</v>
       </c>
       <c r="N11">
         <v>0</v>
       </c>
       <c r="O11">
-        <v>19.4884432983011</v>
+        <v>11.0127275353</v>
       </c>
     </row>
     <row r="12" spans="1:15">
@@ -771,34 +771,34 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>10.85632024674157</v>
+        <v>17.77611171421816</v>
       </c>
       <c r="C12">
-        <v>6.354913436178626</v>
+        <v>9.909448699162287</v>
       </c>
       <c r="D12">
-        <v>5.470548195313449</v>
+        <v>6.888473926201523</v>
       </c>
       <c r="F12">
-        <v>21.59608960935995</v>
+        <v>14.56594801579855</v>
       </c>
       <c r="G12">
-        <v>3.618626496346418</v>
+        <v>2.071329163992597</v>
       </c>
       <c r="H12">
         <v>0</v>
       </c>
       <c r="I12">
-        <v>18.61735373389052</v>
+        <v>9.88707691227455</v>
       </c>
       <c r="K12">
-        <v>9.993268626661859</v>
+        <v>15.61353267946642</v>
       </c>
       <c r="N12">
         <v>0</v>
       </c>
       <c r="O12">
-        <v>19.4598172570648</v>
+        <v>10.96126724010333</v>
       </c>
     </row>
     <row r="13" spans="1:15">
@@ -806,34 +806,34 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>10.83467951013199</v>
+        <v>17.73138739863865</v>
       </c>
       <c r="C13">
-        <v>6.343528922497646</v>
+        <v>9.8869413642923</v>
       </c>
       <c r="D13">
-        <v>5.46458572528541</v>
+        <v>6.874626905628739</v>
       </c>
       <c r="F13">
-        <v>21.60088145015417</v>
+        <v>14.55946002461074</v>
       </c>
       <c r="G13">
-        <v>3.618704608810027</v>
+        <v>2.071565453432591</v>
       </c>
       <c r="H13">
         <v>0</v>
       </c>
       <c r="I13">
-        <v>18.62395835757791</v>
+        <v>9.906175899332609</v>
       </c>
       <c r="K13">
-        <v>9.977028540994715</v>
+        <v>15.57716426108459</v>
       </c>
       <c r="N13">
         <v>0</v>
       </c>
       <c r="O13">
-        <v>19.46595068459122</v>
+        <v>10.97222394528889</v>
       </c>
     </row>
     <row r="14" spans="1:15">
@@ -841,34 +841,34 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>10.76379756214503</v>
+        <v>17.58477572994046</v>
       </c>
       <c r="C14">
-        <v>6.306238794141769</v>
+        <v>9.813199215003801</v>
       </c>
       <c r="D14">
-        <v>5.445080043134146</v>
+        <v>6.829274032378311</v>
       </c>
       <c r="F14">
-        <v>21.61668354468846</v>
+        <v>14.53899401367824</v>
       </c>
       <c r="G14">
-        <v>3.618960523518695</v>
+        <v>2.072337520122186</v>
       </c>
       <c r="H14">
         <v>0</v>
       </c>
       <c r="I14">
-        <v>18.64559971254651</v>
+        <v>9.968698354935624</v>
       </c>
       <c r="K14">
-        <v>9.923882037173783</v>
+        <v>15.45798845636925</v>
       </c>
       <c r="N14">
         <v>0</v>
       </c>
       <c r="O14">
-        <v>19.48607393230074</v>
+        <v>11.00843737433977</v>
       </c>
     </row>
     <row r="15" spans="1:15">
@@ -876,34 +876,34 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>10.72014552703362</v>
+        <v>17.49439056259338</v>
       </c>
       <c r="C15">
-        <v>6.283272883629512</v>
+        <v>9.767768286867812</v>
       </c>
       <c r="D15">
-        <v>5.4330858248761</v>
+        <v>6.80134475259716</v>
       </c>
       <c r="F15">
-        <v>21.62649704714347</v>
+        <v>14.52698716639208</v>
       </c>
       <c r="G15">
-        <v>3.619118180587567</v>
+        <v>2.072811576296703</v>
       </c>
       <c r="H15">
         <v>0</v>
       </c>
       <c r="I15">
-        <v>18.65893425874711</v>
+        <v>10.00717539864745</v>
       </c>
       <c r="K15">
-        <v>9.891187808671594</v>
+        <v>15.38455158079266</v>
       </c>
       <c r="N15">
         <v>0</v>
       </c>
       <c r="O15">
-        <v>19.49849281441977</v>
+        <v>11.03098429707266</v>
       </c>
     </row>
     <row r="16" spans="1:15">
@@ -911,34 +911,34 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>10.4664358598945</v>
+        <v>16.96750475235459</v>
       </c>
       <c r="C16">
-        <v>6.149772927717372</v>
+        <v>9.503418723960559</v>
       </c>
       <c r="D16">
-        <v>5.363651751896057</v>
+        <v>6.639017586875892</v>
       </c>
       <c r="F16">
-        <v>21.68478789276237</v>
+        <v>14.46615866185403</v>
       </c>
       <c r="G16">
-        <v>3.620035497247455</v>
+        <v>2.075546096342701</v>
       </c>
       <c r="H16">
         <v>0</v>
       </c>
       <c r="I16">
-        <v>18.73655487022118</v>
+        <v>10.2303760656702</v>
       </c>
       <c r="K16">
-        <v>9.701718880772773</v>
+        <v>14.95700380675815</v>
       </c>
       <c r="N16">
         <v>0</v>
       </c>
       <c r="O16">
-        <v>19.57108219973793</v>
+        <v>11.16560182782955</v>
       </c>
     </row>
     <row r="17" spans="1:15">
@@ -946,34 +946,34 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>10.3076663484499</v>
+        <v>16.6362982187643</v>
       </c>
       <c r="C17">
-        <v>6.066208494785764</v>
+        <v>9.337687535105541</v>
       </c>
       <c r="D17">
-        <v>5.320444377783287</v>
+        <v>6.537420004517219</v>
       </c>
       <c r="F17">
-        <v>21.72237525897404</v>
+        <v>14.43581174741867</v>
       </c>
       <c r="G17">
-        <v>3.620610623789851</v>
+        <v>2.077240005251597</v>
       </c>
       <c r="H17">
         <v>0</v>
       </c>
       <c r="I17">
-        <v>18.78524972344603</v>
+        <v>10.36965749519952</v>
       </c>
       <c r="K17">
-        <v>9.583648586446628</v>
+        <v>14.68873851080676</v>
       </c>
       <c r="N17">
         <v>0</v>
       </c>
       <c r="O17">
-        <v>19.61688132607458</v>
+        <v>11.25281717394594</v>
       </c>
     </row>
     <row r="18" spans="1:15">
@@ -981,34 +981,34 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>10.21521725806912</v>
+        <v>16.44285927925445</v>
       </c>
       <c r="C18">
-        <v>6.017540960797225</v>
+        <v>9.241059690552021</v>
       </c>
       <c r="D18">
-        <v>5.295373037544786</v>
+        <v>6.47824993979689</v>
       </c>
       <c r="F18">
-        <v>21.74466436781039</v>
+        <v>14.42085706214178</v>
       </c>
       <c r="G18">
-        <v>3.620945982183458</v>
+        <v>2.078220468118574</v>
       </c>
       <c r="H18">
         <v>0</v>
       </c>
       <c r="I18">
-        <v>18.81365405044004</v>
+        <v>10.45061297438766</v>
       </c>
       <c r="K18">
-        <v>9.515081922927667</v>
+        <v>14.53224714282702</v>
       </c>
       <c r="N18">
         <v>0</v>
       </c>
       <c r="O18">
-        <v>19.64368940973886</v>
+        <v>11.30460857003743</v>
       </c>
     </row>
     <row r="19" spans="1:15">
@@ -1016,34 +1016,34 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>10.18372368195302</v>
+        <v>16.37685917890881</v>
       </c>
       <c r="C19">
-        <v>6.00096021869991</v>
+        <v>9.208119822703582</v>
       </c>
       <c r="D19">
-        <v>5.286847106322748</v>
+        <v>6.458090630116666</v>
       </c>
       <c r="F19">
-        <v>21.75232594587691</v>
+        <v>14.41621707454143</v>
       </c>
       <c r="G19">
-        <v>3.621060313078064</v>
+        <v>2.078553510374369</v>
       </c>
       <c r="H19">
         <v>0</v>
       </c>
       <c r="I19">
-        <v>18.82333938613533</v>
+        <v>10.47816633386297</v>
       </c>
       <c r="K19">
-        <v>9.491755724993411</v>
+        <v>14.47888589568913</v>
       </c>
       <c r="N19">
         <v>0</v>
       </c>
       <c r="O19">
-        <v>19.65284611173485</v>
+        <v>11.32241693335688</v>
       </c>
     </row>
     <row r="20" spans="1:15">
@@ -1051,34 +1051,34 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>10.32468495978658</v>
+        <v>16.67185965022486</v>
       </c>
       <c r="C20">
-        <v>6.075166739727234</v>
+        <v>9.355464954422093</v>
       </c>
       <c r="D20">
-        <v>5.325066724943891</v>
+        <v>6.548311349484657</v>
       </c>
       <c r="F20">
-        <v>21.71830465035197</v>
+        <v>14.4387820719259</v>
       </c>
       <c r="G20">
-        <v>3.620548928792378</v>
+        <v>2.077059050508665</v>
       </c>
       <c r="H20">
         <v>0</v>
       </c>
       <c r="I20">
-        <v>18.78002506525661</v>
+        <v>10.35474290617419</v>
       </c>
       <c r="K20">
-        <v>9.596285690670895</v>
+        <v>14.71752282796451</v>
       </c>
       <c r="N20">
         <v>0</v>
       </c>
       <c r="O20">
-        <v>19.61195773238001</v>
+        <v>11.24336287872066</v>
       </c>
     </row>
     <row r="21" spans="1:15">
@@ -1086,34 +1086,34 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>10.78466633495506</v>
+        <v>17.62796023181116</v>
       </c>
       <c r="C21">
-        <v>6.317217824751483</v>
+        <v>9.83491363429879</v>
       </c>
       <c r="D21">
-        <v>5.450819036775491</v>
+        <v>6.842626421827752</v>
       </c>
       <c r="F21">
-        <v>21.61201409598118</v>
+        <v>14.54489478594772</v>
       </c>
       <c r="G21">
-        <v>3.618885167263264</v>
+        <v>2.072110508124971</v>
       </c>
       <c r="H21">
         <v>0</v>
       </c>
       <c r="I21">
-        <v>18.63922674629473</v>
+        <v>9.950296286741171</v>
       </c>
       <c r="K21">
-        <v>9.939521821925307</v>
+        <v>15.49308462330428</v>
       </c>
       <c r="N21">
         <v>0</v>
       </c>
       <c r="O21">
-        <v>19.48014390289089</v>
+        <v>10.99772405911684</v>
       </c>
     </row>
     <row r="22" spans="1:15">
@@ -1121,34 +1121,34 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>11.07483364361409</v>
+        <v>18.22679450728335</v>
       </c>
       <c r="C22">
-        <v>6.469857289878593</v>
+        <v>10.13655885844658</v>
       </c>
       <c r="D22">
-        <v>5.530941437498027</v>
+        <v>7.028311537825828</v>
       </c>
       <c r="F22">
-        <v>21.54855137805193</v>
+        <v>14.63776849570442</v>
       </c>
       <c r="G22">
-        <v>3.617838198388311</v>
+        <v>2.068927932476708</v>
       </c>
       <c r="H22">
         <v>0</v>
       </c>
       <c r="I22">
-        <v>18.55072579683506</v>
+        <v>9.69397482917566</v>
       </c>
       <c r="K22">
-        <v>10.17663676390809</v>
+        <v>15.98035495060747</v>
       </c>
       <c r="N22">
         <v>0</v>
       </c>
       <c r="O22">
-        <v>19.39814913937109</v>
+        <v>10.85332255054243</v>
       </c>
     </row>
     <row r="23" spans="1:15">
@@ -1156,34 +1156,34 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>10.92094040136168</v>
+        <v>17.90956021780068</v>
       </c>
       <c r="C23">
-        <v>6.388907014231108</v>
+        <v>9.976639179967188</v>
       </c>
       <c r="D23">
-        <v>5.488372479739074</v>
+        <v>6.929823450031165</v>
       </c>
       <c r="F23">
-        <v>21.58187135161836</v>
+        <v>14.58599003004967</v>
       </c>
       <c r="G23">
-        <v>3.618393299695633</v>
+        <v>2.070621982009242</v>
       </c>
       <c r="H23">
         <v>0</v>
       </c>
       <c r="I23">
-        <v>18.59763893523012</v>
+        <v>9.830018454858958</v>
       </c>
       <c r="K23">
-        <v>10.04435695556056</v>
+        <v>15.72208572997616</v>
       </c>
       <c r="N23">
         <v>0</v>
       </c>
       <c r="O23">
-        <v>19.44153092629877</v>
+        <v>10.92883132943631</v>
       </c>
     </row>
     <row r="24" spans="1:15">
@@ -1191,34 +1191,34 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>10.31699448637187</v>
+        <v>16.65579174708287</v>
       </c>
       <c r="C24">
-        <v>6.071118662546496</v>
+        <v>9.347431976856017</v>
       </c>
       <c r="D24">
-        <v>5.322977679592128</v>
+        <v>6.543389738885786</v>
       </c>
       <c r="F24">
-        <v>21.72014285596302</v>
+        <v>14.4374314401219</v>
       </c>
       <c r="G24">
-        <v>3.620576806425432</v>
+        <v>2.077140839515708</v>
       </c>
       <c r="H24">
         <v>0</v>
       </c>
       <c r="I24">
-        <v>18.78238585907598</v>
+        <v>10.36148305352974</v>
       </c>
       <c r="K24">
-        <v>9.59057458950134</v>
+        <v>14.70451648290388</v>
       </c>
       <c r="N24">
         <v>0</v>
       </c>
       <c r="O24">
-        <v>19.6141822016076</v>
+        <v>11.24763204342036</v>
       </c>
     </row>
     <row r="25" spans="1:15">
@@ -1226,34 +1226,34 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>9.622712768124526</v>
+        <v>15.19106392247181</v>
       </c>
       <c r="C25">
-        <v>5.70540794094848</v>
+        <v>8.619011061541251</v>
       </c>
       <c r="D25">
-        <v>5.13625233707741</v>
+        <v>6.098627648047433</v>
       </c>
       <c r="F25">
-        <v>21.89487627632886</v>
+        <v>14.37187384831362</v>
       </c>
       <c r="G25">
-        <v>3.623106578827441</v>
+        <v>2.084410194037968</v>
       </c>
       <c r="H25">
         <v>0</v>
       </c>
       <c r="I25">
-        <v>18.99682514550969</v>
+        <v>10.96689797064122</v>
       </c>
       <c r="K25">
-        <v>9.079086246075715</v>
+        <v>13.52322750111186</v>
       </c>
       <c r="N25">
         <v>0</v>
       </c>
       <c r="O25">
-        <v>19.81821399725273</v>
+        <v>11.65297663024091</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_3_44/res_line/loading_percent.xlsx
+++ b/Code/Results/Cases/Case_3_44/res_line/loading_percent.xlsx
@@ -366,13 +366,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:O25"/>
+  <dimension ref="A1:Q25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:15">
+    <row r="1" spans="1:17">
       <c r="B1" s="1">
         <v>0</v>
       </c>
@@ -415,845 +415,1283 @@
       <c r="O1" s="1">
         <v>13</v>
       </c>
-    </row>
-    <row r="2" spans="1:15">
+      <c r="P1" s="1">
+        <v>14</v>
+      </c>
+      <c r="Q1" s="1">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="2" spans="1:17">
       <c r="A2" s="1">
         <v>0</v>
       </c>
       <c r="B2">
-        <v>14.01547909860828</v>
+        <v>13.05102558444129</v>
       </c>
       <c r="C2">
-        <v>8.040770805378534</v>
+        <v>9.70455401747547</v>
       </c>
       <c r="D2">
-        <v>5.748088988314892</v>
+        <v>5.607181700672839</v>
+      </c>
+      <c r="E2">
+        <v>0</v>
       </c>
       <c r="F2">
-        <v>14.39732585381359</v>
+        <v>17.18984911378512</v>
       </c>
       <c r="G2">
-        <v>2.08998489503543</v>
+        <v>21.07830003222684</v>
       </c>
       <c r="H2">
-        <v>0</v>
+        <v>2.76687032843382</v>
       </c>
       <c r="I2">
-        <v>11.43859855943981</v>
+        <v>3.193937097452104</v>
+      </c>
+      <c r="J2">
+        <v>8.943795076594714</v>
       </c>
       <c r="K2">
-        <v>12.58238187549948</v>
+        <v>15.27186954504321</v>
+      </c>
+      <c r="L2">
+        <v>0</v>
+      </c>
+      <c r="M2">
+        <v>11.49838216929967</v>
       </c>
       <c r="N2">
-        <v>0</v>
+        <v>7.438875334903708</v>
       </c>
       <c r="O2">
-        <v>11.99678056255469</v>
-      </c>
-    </row>
-    <row r="3" spans="1:15">
+        <v>10.07955561403628</v>
+      </c>
+      <c r="P2">
+        <v>0</v>
+      </c>
+      <c r="Q2">
+        <v>14.31702577886715</v>
+      </c>
+    </row>
+    <row r="3" spans="1:17">
       <c r="A3" s="1">
         <v>1</v>
       </c>
       <c r="B3">
-        <v>13.15820402309438</v>
+        <v>12.22903236128531</v>
       </c>
       <c r="C3">
-        <v>7.623475603901056</v>
+        <v>9.579767563402257</v>
       </c>
       <c r="D3">
-        <v>5.496818652112951</v>
+        <v>5.382220207770231</v>
+      </c>
+      <c r="E3">
+        <v>0</v>
       </c>
       <c r="F3">
-        <v>14.45634834070837</v>
+        <v>17.01158814617818</v>
       </c>
       <c r="G3">
-        <v>2.093909930161749</v>
+        <v>20.94859295889848</v>
       </c>
       <c r="H3">
-        <v>0</v>
+        <v>2.930929288048728</v>
       </c>
       <c r="I3">
-        <v>11.77389552984682</v>
+        <v>3.324908285809139</v>
+      </c>
+      <c r="J3">
+        <v>8.995719053000393</v>
       </c>
       <c r="K3">
-        <v>11.90129107015142</v>
+        <v>15.36862392493316</v>
+      </c>
+      <c r="L3">
+        <v>0</v>
+      </c>
+      <c r="M3">
+        <v>10.97352627292914</v>
       </c>
       <c r="N3">
-        <v>0</v>
+        <v>7.241802725267345</v>
       </c>
       <c r="O3">
-        <v>12.25487223693664</v>
-      </c>
-    </row>
-    <row r="4" spans="1:15">
+        <v>9.655389768981616</v>
+      </c>
+      <c r="P3">
+        <v>0</v>
+      </c>
+      <c r="Q3">
+        <v>14.35692613706762</v>
+      </c>
+    </row>
+    <row r="4" spans="1:17">
       <c r="A4" s="1">
         <v>2</v>
       </c>
       <c r="B4">
-        <v>12.60206547196487</v>
+        <v>11.69342081295996</v>
       </c>
       <c r="C4">
-        <v>7.355072059605693</v>
+        <v>9.501762948602615</v>
       </c>
       <c r="D4">
-        <v>5.336073860001044</v>
+        <v>5.238834147444016</v>
+      </c>
+      <c r="E4">
+        <v>0</v>
       </c>
       <c r="F4">
-        <v>14.51173094485136</v>
+        <v>16.90906548244056</v>
       </c>
       <c r="G4">
-        <v>2.096395016194891</v>
+        <v>20.87900965833983</v>
       </c>
       <c r="H4">
-        <v>0</v>
+        <v>3.035502932781782</v>
       </c>
       <c r="I4">
-        <v>11.98735097362931</v>
+        <v>3.409141360632365</v>
+      </c>
+      <c r="J4">
+        <v>9.030090659414638</v>
       </c>
       <c r="K4">
-        <v>11.46210213417366</v>
+        <v>15.43135584765914</v>
+      </c>
+      <c r="L4">
+        <v>0</v>
+      </c>
+      <c r="M4">
+        <v>10.63761938609415</v>
       </c>
       <c r="N4">
-        <v>0</v>
+        <v>7.117860415724022</v>
       </c>
       <c r="O4">
-        <v>12.42480372332652</v>
-      </c>
-    </row>
-    <row r="5" spans="1:15">
+        <v>9.385160767604493</v>
+      </c>
+      <c r="P4">
+        <v>0</v>
+      </c>
+      <c r="Q4">
+        <v>14.38677284438565</v>
+      </c>
+    </row>
+    <row r="5" spans="1:17">
       <c r="A5" s="1">
         <v>3</v>
       </c>
       <c r="B5">
-        <v>12.36798112801327</v>
+        <v>11.46503255224174</v>
       </c>
       <c r="C5">
-        <v>7.242700429828237</v>
+        <v>9.471719294501561</v>
       </c>
       <c r="D5">
-        <v>5.268997444753513</v>
+        <v>5.180566425597823</v>
+      </c>
+      <c r="E5">
+        <v>0</v>
       </c>
       <c r="F5">
-        <v>14.53889253384771</v>
+        <v>16.8625198188373</v>
       </c>
       <c r="G5">
-        <v>2.097426952032168</v>
+        <v>20.8420524612039</v>
       </c>
       <c r="H5">
-        <v>0</v>
+        <v>3.079370516942188</v>
       </c>
       <c r="I5">
-        <v>12.07622821525992</v>
+        <v>3.447065508694812</v>
+      </c>
+      <c r="J5">
+        <v>9.042972782771962</v>
       </c>
       <c r="K5">
-        <v>11.2779383047621</v>
+        <v>15.45305140527913</v>
+      </c>
+      <c r="L5">
+        <v>0</v>
+      </c>
+      <c r="M5">
+        <v>10.4990743240237</v>
       </c>
       <c r="N5">
-        <v>0</v>
+        <v>7.0665987633511</v>
       </c>
       <c r="O5">
-        <v>12.49681165856776</v>
-      </c>
-    </row>
-    <row r="6" spans="1:15">
+        <v>9.271968737851163</v>
+      </c>
+      <c r="P5">
+        <v>0</v>
+      </c>
+      <c r="Q5">
+        <v>14.39582741391459</v>
+      </c>
+    </row>
+    <row r="6" spans="1:17">
       <c r="A6" s="1">
         <v>4</v>
       </c>
       <c r="B6">
-        <v>12.32866267915325</v>
+        <v>11.42375235840598</v>
       </c>
       <c r="C6">
-        <v>7.223862610795025</v>
+        <v>9.469310091346591</v>
       </c>
       <c r="D6">
-        <v>5.2577662775922</v>
+        <v>5.17258402654946</v>
+      </c>
+      <c r="E6">
+        <v>0</v>
       </c>
       <c r="F6">
-        <v>14.54367360403173</v>
+        <v>16.84693000761549</v>
       </c>
       <c r="G6">
-        <v>2.097599476672281</v>
+        <v>20.822520721905</v>
       </c>
       <c r="H6">
-        <v>0</v>
+        <v>3.087051466262503</v>
       </c>
       <c r="I6">
-        <v>12.09110017969632</v>
+        <v>3.456801843954941</v>
+      </c>
+      <c r="J6">
+        <v>9.04302277137068</v>
       </c>
       <c r="K6">
-        <v>11.24704756186164</v>
+        <v>15.45097614904974</v>
+      </c>
+      <c r="L6">
+        <v>0</v>
+      </c>
+      <c r="M6">
+        <v>10.47790892916772</v>
       </c>
       <c r="N6">
-        <v>0</v>
+        <v>7.057972705370992</v>
       </c>
       <c r="O6">
-        <v>12.50893183127112</v>
-      </c>
-    </row>
-    <row r="7" spans="1:15">
+        <v>9.25214130798682</v>
+      </c>
+      <c r="P6">
+        <v>0</v>
+      </c>
+      <c r="Q6">
+        <v>14.39201115219249</v>
+      </c>
+    </row>
+    <row r="7" spans="1:17">
       <c r="A7" s="1">
         <v>5</v>
       </c>
       <c r="B7">
-        <v>12.59893865358431</v>
+        <v>11.68266582999874</v>
       </c>
       <c r="C7">
-        <v>7.35356860184327</v>
+        <v>9.508497913112576</v>
       </c>
       <c r="D7">
-        <v>5.335175530020814</v>
+        <v>5.242835701531108</v>
+      </c>
+      <c r="E7">
+        <v>0</v>
       </c>
       <c r="F7">
-        <v>14.51207895250824</v>
+        <v>16.88677219847958</v>
       </c>
       <c r="G7">
-        <v>2.096408854862476</v>
+        <v>20.8416286209572</v>
       </c>
       <c r="H7">
-        <v>0</v>
+        <v>3.036993551960367</v>
       </c>
       <c r="I7">
-        <v>11.98854195630053</v>
+        <v>3.418580879664783</v>
+      </c>
+      <c r="J7">
+        <v>9.02446892585467</v>
       </c>
       <c r="K7">
-        <v>11.45963932020766</v>
+        <v>15.41602544313693</v>
+      </c>
+      <c r="L7">
+        <v>0</v>
+      </c>
+      <c r="M7">
+        <v>10.64126586268294</v>
       </c>
       <c r="N7">
-        <v>0</v>
+        <v>7.116985715682403</v>
       </c>
       <c r="O7">
-        <v>12.42576382773625</v>
-      </c>
-    </row>
-    <row r="8" spans="1:15">
+        <v>9.381235124492827</v>
+      </c>
+      <c r="P7">
+        <v>0</v>
+      </c>
+      <c r="Q7">
+        <v>14.37217388696689</v>
+      </c>
+    </row>
+    <row r="8" spans="1:17">
       <c r="A8" s="1">
         <v>6</v>
       </c>
       <c r="B8">
-        <v>13.72608369075942</v>
+        <v>12.76458727563914</v>
       </c>
       <c r="C8">
-        <v>7.899452476800387</v>
+        <v>9.671484845719025</v>
       </c>
       <c r="D8">
-        <v>5.662822173412972</v>
+        <v>5.536831061363194</v>
+      </c>
+      <c r="E8">
+        <v>0</v>
       </c>
       <c r="F8">
-        <v>14.41357162249038</v>
+        <v>17.09879624799881</v>
       </c>
       <c r="G8">
-        <v>2.091322881205443</v>
+        <v>20.98330242452688</v>
       </c>
       <c r="H8">
-        <v>0</v>
+        <v>2.823760685499868</v>
       </c>
       <c r="I8">
-        <v>11.55262552433333</v>
+        <v>3.249662094879616</v>
+      </c>
+      <c r="J8">
+        <v>8.953566906852387</v>
       </c>
       <c r="K8">
-        <v>12.35194644390648</v>
+        <v>15.28398308668013</v>
+      </c>
+      <c r="L8">
+        <v>0</v>
+      </c>
+      <c r="M8">
+        <v>11.32729427807153</v>
       </c>
       <c r="N8">
-        <v>0</v>
+        <v>7.371377954809547</v>
       </c>
       <c r="O8">
-        <v>12.08331380058994</v>
-      </c>
-    </row>
-    <row r="9" spans="1:15">
+        <v>9.932369795105085</v>
+      </c>
+      <c r="P8">
+        <v>0</v>
+      </c>
+      <c r="Q8">
+        <v>14.31031172242259</v>
+      </c>
+    </row>
+    <row r="9" spans="1:17">
       <c r="A9" s="1">
         <v>7</v>
       </c>
       <c r="B9">
-        <v>15.69952577414109</v>
+        <v>14.65329755573807</v>
       </c>
       <c r="C9">
-        <v>8.87096393696716</v>
+        <v>9.967397918894351</v>
       </c>
       <c r="D9">
-        <v>6.252104169126641</v>
+        <v>6.061981556066541</v>
+      </c>
+      <c r="E9">
+        <v>0</v>
       </c>
       <c r="F9">
-        <v>14.38196503974554</v>
+        <v>17.60707220860505</v>
       </c>
       <c r="G9">
-        <v>2.081928118279999</v>
+        <v>21.40803830431639</v>
       </c>
       <c r="H9">
-        <v>0</v>
+        <v>2.434138616033112</v>
       </c>
       <c r="I9">
-        <v>10.75884086472893</v>
+        <v>2.933787799575662</v>
+      </c>
+      <c r="J9">
+        <v>8.845107784920064</v>
       </c>
       <c r="K9">
-        <v>13.93226847787892</v>
+        <v>15.07990375257122</v>
+      </c>
+      <c r="L9">
+        <v>0</v>
+      </c>
+      <c r="M9">
+        <v>12.55121459190583</v>
       </c>
       <c r="N9">
-        <v>0</v>
+        <v>7.845288443695147</v>
       </c>
       <c r="O9">
-        <v>11.50892566491781</v>
-      </c>
-    </row>
-    <row r="10" spans="1:15">
+        <v>10.93498109928994</v>
+      </c>
+      <c r="P9">
+        <v>0</v>
+      </c>
+      <c r="Q9">
+        <v>14.25927658617358</v>
+      </c>
+    </row>
+    <row r="10" spans="1:17">
       <c r="A10" s="1">
         <v>8</v>
       </c>
       <c r="B10">
-        <v>17.00490002401985</v>
+        <v>15.87703595149457</v>
       </c>
       <c r="C10">
-        <v>9.522152761577789</v>
+        <v>10.2202824688304</v>
       </c>
       <c r="D10">
-        <v>6.650510637635749</v>
+        <v>6.442213032404394</v>
+      </c>
+      <c r="E10">
+        <v>0</v>
       </c>
       <c r="F10">
-        <v>14.46996471248093</v>
+        <v>17.90617932920859</v>
       </c>
       <c r="G10">
-        <v>2.075353634607626</v>
+        <v>21.5878061753144</v>
       </c>
       <c r="H10">
-        <v>0</v>
+        <v>2.196121657512931</v>
       </c>
       <c r="I10">
-        <v>10.21459897557482</v>
+        <v>2.729737258861612</v>
+      </c>
+      <c r="J10">
+        <v>8.748633491795824</v>
       </c>
       <c r="K10">
-        <v>14.98731729976153</v>
+        <v>14.86798497403377</v>
+      </c>
+      <c r="L10">
+        <v>0</v>
+      </c>
+      <c r="M10">
+        <v>13.41042027583581</v>
       </c>
       <c r="N10">
-        <v>0</v>
+        <v>8.040305131577336</v>
       </c>
       <c r="O10">
-        <v>11.15587579942776</v>
-      </c>
-    </row>
-    <row r="11" spans="1:15">
+        <v>11.51309459287388</v>
+      </c>
+      <c r="P10">
+        <v>0</v>
+      </c>
+      <c r="Q10">
+        <v>14.17502647551493</v>
+      </c>
+    </row>
+    <row r="11" spans="1:17">
       <c r="A11" s="1">
         <v>9</v>
       </c>
       <c r="B11">
-        <v>17.56752581111445</v>
+        <v>16.29306308278894</v>
       </c>
       <c r="C11">
-        <v>9.80452694910397</v>
+        <v>10.7561210896476</v>
       </c>
       <c r="D11">
-        <v>6.823941946460726</v>
+        <v>6.79332953689581</v>
+      </c>
+      <c r="E11">
+        <v>0</v>
       </c>
       <c r="F11">
-        <v>14.53666665777253</v>
+        <v>17.17894179832226</v>
       </c>
       <c r="G11">
-        <v>2.072428106059622</v>
+        <v>20.18218089391943</v>
       </c>
       <c r="H11">
-        <v>0</v>
+        <v>3.087671724504743</v>
       </c>
       <c r="I11">
-        <v>9.97604570365168</v>
+        <v>2.69346796729635</v>
+      </c>
+      <c r="J11">
+        <v>8.465365993346635</v>
       </c>
       <c r="K11">
-        <v>15.44397106805338</v>
+        <v>14.15201858456792</v>
+      </c>
+      <c r="L11">
+        <v>0</v>
+      </c>
+      <c r="M11">
+        <v>14.05422813605392</v>
       </c>
       <c r="N11">
-        <v>0</v>
+        <v>7.031230156880201</v>
       </c>
       <c r="O11">
-        <v>11.0127275353</v>
-      </c>
-    </row>
-    <row r="12" spans="1:15">
+        <v>10.88407872893614</v>
+      </c>
+      <c r="P11">
+        <v>0</v>
+      </c>
+      <c r="Q11">
+        <v>13.52742192453826</v>
+      </c>
+    </row>
+    <row r="12" spans="1:17">
       <c r="A12" s="1">
         <v>10</v>
       </c>
       <c r="B12">
-        <v>17.77611171421816</v>
+        <v>16.40577106376401</v>
       </c>
       <c r="C12">
-        <v>9.909448699162287</v>
+        <v>11.23768607164696</v>
       </c>
       <c r="D12">
-        <v>6.888473926201523</v>
+        <v>7.010070082506617</v>
+      </c>
+      <c r="E12">
+        <v>0</v>
       </c>
       <c r="F12">
-        <v>14.56594801579855</v>
+        <v>16.52020658032903</v>
       </c>
       <c r="G12">
-        <v>2.071329163992597</v>
+        <v>19.00245273645725</v>
       </c>
       <c r="H12">
-        <v>0</v>
+        <v>4.385252626729756</v>
       </c>
       <c r="I12">
-        <v>9.88707691227455</v>
+        <v>2.683685377461588</v>
+      </c>
+      <c r="J12">
+        <v>8.256471792504801</v>
       </c>
       <c r="K12">
-        <v>15.61353267946642</v>
+        <v>13.64679687973351</v>
+      </c>
+      <c r="L12">
+        <v>0</v>
+      </c>
+      <c r="M12">
+        <v>14.42145893982405</v>
       </c>
       <c r="N12">
-        <v>0</v>
+        <v>6.264945939152229</v>
       </c>
       <c r="O12">
-        <v>10.96126724010333</v>
-      </c>
-    </row>
-    <row r="13" spans="1:15">
+        <v>10.23267717566793</v>
+      </c>
+      <c r="P12">
+        <v>0</v>
+      </c>
+      <c r="Q12">
+        <v>13.02180244247941</v>
+      </c>
+    </row>
+    <row r="13" spans="1:17">
       <c r="A13" s="1">
         <v>11</v>
       </c>
       <c r="B13">
-        <v>17.73138739863865</v>
+        <v>16.28678626927045</v>
       </c>
       <c r="C13">
-        <v>9.8869413642923</v>
+        <v>11.70573694493202</v>
       </c>
       <c r="D13">
-        <v>6.874626905628739</v>
+        <v>7.146964762557904</v>
+      </c>
+      <c r="E13">
+        <v>0</v>
       </c>
       <c r="F13">
-        <v>14.55946002461074</v>
+        <v>15.83468994511263</v>
       </c>
       <c r="G13">
-        <v>2.071565453432591</v>
+        <v>17.86537358882536</v>
       </c>
       <c r="H13">
-        <v>0</v>
+        <v>5.761722652717001</v>
       </c>
       <c r="I13">
-        <v>9.906175899332609</v>
+        <v>2.709057671981493</v>
+      </c>
+      <c r="J13">
+        <v>8.083990284252247</v>
       </c>
       <c r="K13">
-        <v>15.57716426108459</v>
+        <v>13.25540324517724</v>
+      </c>
+      <c r="L13">
+        <v>0</v>
+      </c>
+      <c r="M13">
+        <v>14.61341056485154</v>
       </c>
       <c r="N13">
-        <v>0</v>
+        <v>5.682930403299399</v>
       </c>
       <c r="O13">
-        <v>10.97222394528889</v>
-      </c>
-    </row>
-    <row r="14" spans="1:15">
+        <v>9.508117090154288</v>
+      </c>
+      <c r="P13">
+        <v>0</v>
+      </c>
+      <c r="Q13">
+        <v>12.57381683827161</v>
+      </c>
+    </row>
+    <row r="14" spans="1:17">
       <c r="A14" s="1">
         <v>12</v>
       </c>
       <c r="B14">
-        <v>17.58477572994046</v>
+        <v>16.09535413794011</v>
       </c>
       <c r="C14">
-        <v>9.813199215003801</v>
+        <v>12.03815383243495</v>
       </c>
       <c r="D14">
-        <v>6.829274032378311</v>
+        <v>7.209530685218734</v>
+      </c>
+      <c r="E14">
+        <v>0</v>
       </c>
       <c r="F14">
-        <v>14.53899401367824</v>
+        <v>15.33647166837471</v>
       </c>
       <c r="G14">
-        <v>2.072337520122186</v>
+        <v>17.08660583970281</v>
       </c>
       <c r="H14">
-        <v>0</v>
+        <v>6.748076871315936</v>
       </c>
       <c r="I14">
-        <v>9.968698354935624</v>
+        <v>2.745543542663542</v>
+      </c>
+      <c r="J14">
+        <v>7.980070442952568</v>
       </c>
       <c r="K14">
-        <v>15.45798845636925</v>
+        <v>13.03990459534598</v>
+      </c>
+      <c r="L14">
+        <v>0</v>
+      </c>
+      <c r="M14">
+        <v>14.67230103134655</v>
       </c>
       <c r="N14">
-        <v>0</v>
+        <v>5.416358350100365</v>
       </c>
       <c r="O14">
-        <v>11.00843737433977</v>
-      </c>
-    </row>
-    <row r="15" spans="1:15">
+        <v>8.962645217435737</v>
+      </c>
+      <c r="P14">
+        <v>0</v>
+      </c>
+      <c r="Q14">
+        <v>12.28737523568192</v>
+      </c>
+    </row>
+    <row r="15" spans="1:17">
       <c r="A15" s="1">
         <v>13</v>
       </c>
       <c r="B15">
-        <v>17.49439056259338</v>
+        <v>15.99582630149013</v>
       </c>
       <c r="C15">
-        <v>9.767768286867812</v>
+        <v>12.11157347679448</v>
       </c>
       <c r="D15">
-        <v>6.80134475259716</v>
+        <v>7.2090846884794</v>
+      </c>
+      <c r="E15">
+        <v>0</v>
       </c>
       <c r="F15">
-        <v>14.52698716639208</v>
+        <v>15.20389366134608</v>
       </c>
       <c r="G15">
-        <v>2.072811576296703</v>
+        <v>16.89715950461992</v>
       </c>
       <c r="H15">
-        <v>0</v>
+        <v>6.978823418729392</v>
       </c>
       <c r="I15">
-        <v>10.00717539864745</v>
+        <v>2.767023415078257</v>
+      </c>
+      <c r="J15">
+        <v>7.960888088282085</v>
       </c>
       <c r="K15">
-        <v>15.38455158079266</v>
+        <v>13.00478471359352</v>
+      </c>
+      <c r="L15">
+        <v>0</v>
+      </c>
+      <c r="M15">
+        <v>14.65047697335159</v>
       </c>
       <c r="N15">
-        <v>0</v>
+        <v>5.373488590111826</v>
       </c>
       <c r="O15">
-        <v>11.03098429707266</v>
-      </c>
-    </row>
-    <row r="16" spans="1:15">
+        <v>8.812775238316281</v>
+      </c>
+      <c r="P15">
+        <v>0</v>
+      </c>
+      <c r="Q15">
+        <v>12.22602471232523</v>
+      </c>
+    </row>
+    <row r="16" spans="1:17">
       <c r="A16" s="1">
         <v>14</v>
       </c>
       <c r="B16">
-        <v>16.96750475235459</v>
+        <v>15.50815193280753</v>
       </c>
       <c r="C16">
-        <v>9.503418723960559</v>
+        <v>11.91472291783135</v>
       </c>
       <c r="D16">
-        <v>6.639017586875892</v>
+        <v>7.033915666281221</v>
+      </c>
+      <c r="E16">
+        <v>0</v>
       </c>
       <c r="F16">
-        <v>14.46615866185403</v>
+        <v>15.18388635907578</v>
       </c>
       <c r="G16">
-        <v>2.075546096342701</v>
+        <v>17.01705266176168</v>
       </c>
       <c r="H16">
-        <v>0</v>
+        <v>6.786565218294403</v>
       </c>
       <c r="I16">
-        <v>10.2303760656702</v>
+        <v>2.855029854275598</v>
+      </c>
+      <c r="J16">
+        <v>8.034629868098861</v>
       </c>
       <c r="K16">
-        <v>14.95700380675815</v>
+        <v>13.17255363891826</v>
+      </c>
+      <c r="L16">
+        <v>0</v>
+      </c>
+      <c r="M16">
+        <v>14.27183645214317</v>
       </c>
       <c r="N16">
-        <v>0</v>
+        <v>5.389478182172986</v>
       </c>
       <c r="O16">
-        <v>11.16560182782955</v>
-      </c>
-    </row>
-    <row r="17" spans="1:15">
+        <v>8.678722257273574</v>
+      </c>
+      <c r="P16">
+        <v>0</v>
+      </c>
+      <c r="Q16">
+        <v>12.34618536926461</v>
+      </c>
+    </row>
+    <row r="17" spans="1:17">
       <c r="A17" s="1">
         <v>15</v>
       </c>
       <c r="B17">
-        <v>16.6362982187643</v>
+        <v>15.23222847193765</v>
       </c>
       <c r="C17">
-        <v>9.337687535105541</v>
+        <v>11.57695836871753</v>
       </c>
       <c r="D17">
-        <v>6.537420004517219</v>
+        <v>6.862498505926934</v>
+      </c>
+      <c r="E17">
+        <v>0</v>
       </c>
       <c r="F17">
-        <v>14.43581174741867</v>
+        <v>15.43748614713275</v>
       </c>
       <c r="G17">
-        <v>2.077240005251597</v>
+        <v>17.52055756291711</v>
       </c>
       <c r="H17">
-        <v>0</v>
+        <v>6.08546409775319</v>
       </c>
       <c r="I17">
-        <v>10.36965749519952</v>
+        <v>2.904018526773061</v>
+      </c>
+      <c r="J17">
+        <v>8.145548233703016</v>
       </c>
       <c r="K17">
-        <v>14.68873851080676</v>
+        <v>13.40928605032265</v>
+      </c>
+      <c r="L17">
+        <v>0</v>
+      </c>
+      <c r="M17">
+        <v>13.94310009436605</v>
       </c>
       <c r="N17">
-        <v>0</v>
+        <v>5.518058710815075</v>
       </c>
       <c r="O17">
-        <v>11.25281717394594</v>
-      </c>
-    </row>
-    <row r="18" spans="1:15">
+        <v>8.873477618726897</v>
+      </c>
+      <c r="P17">
+        <v>0</v>
+      </c>
+      <c r="Q17">
+        <v>12.58799506336655</v>
+      </c>
+    </row>
+    <row r="18" spans="1:17">
       <c r="A18" s="1">
         <v>16</v>
       </c>
       <c r="B18">
-        <v>16.44285927925445</v>
+        <v>15.12063825427855</v>
       </c>
       <c r="C18">
-        <v>9.241059690552021</v>
+        <v>11.10089993750866</v>
       </c>
       <c r="D18">
-        <v>6.47824993979689</v>
+        <v>6.674264082476003</v>
+      </c>
+      <c r="E18">
+        <v>0</v>
       </c>
       <c r="F18">
-        <v>14.42085706214178</v>
+        <v>15.96766158289233</v>
       </c>
       <c r="G18">
-        <v>2.078220468118574</v>
+        <v>18.44346322035459</v>
       </c>
       <c r="H18">
-        <v>0</v>
+        <v>4.904704470526769</v>
       </c>
       <c r="I18">
-        <v>10.45061297438766</v>
+        <v>2.912299310521382</v>
+      </c>
+      <c r="J18">
+        <v>8.307023087147222</v>
       </c>
       <c r="K18">
-        <v>14.53224714282702</v>
+        <v>13.76346160379868</v>
+      </c>
+      <c r="L18">
+        <v>0</v>
+      </c>
+      <c r="M18">
+        <v>13.62209200376042</v>
       </c>
       <c r="N18">
-        <v>0</v>
+        <v>5.890931687759407</v>
       </c>
       <c r="O18">
-        <v>11.30460857003743</v>
-      </c>
-    </row>
-    <row r="19" spans="1:15">
+        <v>9.380731570303462</v>
+      </c>
+      <c r="P18">
+        <v>0</v>
+      </c>
+      <c r="Q18">
+        <v>12.97702434459923</v>
+      </c>
+    </row>
+    <row r="19" spans="1:17">
       <c r="A19" s="1">
         <v>17</v>
       </c>
       <c r="B19">
-        <v>16.37685917890881</v>
+        <v>15.14080171364168</v>
       </c>
       <c r="C19">
-        <v>9.208119822703582</v>
+        <v>10.63764643438329</v>
       </c>
       <c r="D19">
-        <v>6.458090630116666</v>
+        <v>6.49941350623062</v>
+      </c>
+      <c r="E19">
+        <v>0</v>
       </c>
       <c r="F19">
-        <v>14.41621707454143</v>
+        <v>16.64342629127325</v>
       </c>
       <c r="G19">
-        <v>2.078553510374369</v>
+        <v>19.59201442636438</v>
       </c>
       <c r="H19">
-        <v>0</v>
+        <v>3.553680604319178</v>
       </c>
       <c r="I19">
-        <v>10.47816633386297</v>
+        <v>2.903513421699199</v>
+      </c>
+      <c r="J19">
+        <v>8.492497373228316</v>
       </c>
       <c r="K19">
-        <v>14.47888589568913</v>
+        <v>14.19910202674159</v>
+      </c>
+      <c r="L19">
+        <v>0</v>
+      </c>
+      <c r="M19">
+        <v>13.34775085270124</v>
       </c>
       <c r="N19">
-        <v>0</v>
+        <v>6.586296227572159</v>
       </c>
       <c r="O19">
-        <v>11.32241693335688</v>
-      </c>
-    </row>
-    <row r="20" spans="1:15">
+        <v>10.09878817790843</v>
+      </c>
+      <c r="P19">
+        <v>0</v>
+      </c>
+      <c r="Q19">
+        <v>13.44307169135943</v>
+      </c>
+    </row>
+    <row r="20" spans="1:17">
       <c r="A20" s="1">
         <v>18</v>
       </c>
       <c r="B20">
-        <v>16.67185965022486</v>
+        <v>15.54642219671074</v>
       </c>
       <c r="C20">
-        <v>9.355464954422093</v>
+        <v>10.1806873672028</v>
       </c>
       <c r="D20">
-        <v>6.548311349484657</v>
+        <v>6.358434903177635</v>
+      </c>
+      <c r="E20">
+        <v>0</v>
       </c>
       <c r="F20">
-        <v>14.4387820719259</v>
+        <v>17.75829946920003</v>
       </c>
       <c r="G20">
-        <v>2.077059050508665</v>
+        <v>21.42096721078145</v>
       </c>
       <c r="H20">
-        <v>0</v>
+        <v>2.259477041899883</v>
       </c>
       <c r="I20">
-        <v>10.35474290617419</v>
+        <v>2.813054829695262</v>
+      </c>
+      <c r="J20">
+        <v>8.754293674588848</v>
       </c>
       <c r="K20">
-        <v>14.71752282796451</v>
+        <v>14.87193613768714</v>
+      </c>
+      <c r="L20">
+        <v>0</v>
+      </c>
+      <c r="M20">
+        <v>13.20622634136243</v>
       </c>
       <c r="N20">
-        <v>0</v>
+        <v>7.983467626225393</v>
       </c>
       <c r="O20">
-        <v>11.24336287872066</v>
-      </c>
-    </row>
-    <row r="21" spans="1:15">
+        <v>11.35357264582068</v>
+      </c>
+      <c r="P20">
+        <v>0</v>
+      </c>
+      <c r="Q20">
+        <v>14.14753245149877</v>
+      </c>
+    </row>
+    <row r="21" spans="1:17">
       <c r="A21" s="1">
         <v>19</v>
       </c>
       <c r="B21">
-        <v>17.62796023181116</v>
+        <v>16.46203367055068</v>
       </c>
       <c r="C21">
-        <v>9.83491363429879</v>
+        <v>10.30955458232684</v>
       </c>
       <c r="D21">
-        <v>6.842626421827752</v>
+        <v>6.606078170420463</v>
+      </c>
+      <c r="E21">
+        <v>0</v>
       </c>
       <c r="F21">
-        <v>14.54489478594772</v>
+        <v>18.16275702592358</v>
       </c>
       <c r="G21">
-        <v>2.072110508124971</v>
+        <v>21.86115736311599</v>
       </c>
       <c r="H21">
-        <v>0</v>
+        <v>2.036244866235579</v>
       </c>
       <c r="I21">
-        <v>9.950296286741171</v>
+        <v>2.649711199622821</v>
+      </c>
+      <c r="J21">
+        <v>8.73061826536833</v>
       </c>
       <c r="K21">
-        <v>15.49308462330428</v>
+        <v>14.83684418944979</v>
+      </c>
+      <c r="L21">
+        <v>0</v>
+      </c>
+      <c r="M21">
+        <v>13.79131540803307</v>
       </c>
       <c r="N21">
-        <v>0</v>
+        <v>8.337832453907932</v>
       </c>
       <c r="O21">
-        <v>10.99772405911684</v>
-      </c>
-    </row>
-    <row r="22" spans="1:15">
+        <v>11.93957275973456</v>
+      </c>
+      <c r="P21">
+        <v>0</v>
+      </c>
+      <c r="Q21">
+        <v>14.20958982887158</v>
+      </c>
+    </row>
+    <row r="22" spans="1:17">
       <c r="A22" s="1">
         <v>20</v>
       </c>
       <c r="B22">
-        <v>18.22679450728335</v>
+        <v>17.03452068886498</v>
       </c>
       <c r="C22">
-        <v>10.13655885844658</v>
+        <v>10.40239860671191</v>
       </c>
       <c r="D22">
-        <v>7.028311537825828</v>
+        <v>6.767891479204762</v>
+      </c>
+      <c r="E22">
+        <v>0</v>
       </c>
       <c r="F22">
-        <v>14.63776849570442</v>
+        <v>18.40810073163254</v>
       </c>
       <c r="G22">
-        <v>2.068927932476708</v>
+        <v>22.1168623861672</v>
       </c>
       <c r="H22">
-        <v>0</v>
+        <v>1.906939120570287</v>
       </c>
       <c r="I22">
-        <v>9.69397482917566</v>
+        <v>2.535534798563192</v>
+      </c>
+      <c r="J22">
+        <v>8.711268334837298</v>
       </c>
       <c r="K22">
-        <v>15.98035495060747</v>
+        <v>14.80073481319017</v>
+      </c>
+      <c r="L22">
+        <v>0</v>
+      </c>
+      <c r="M22">
+        <v>14.16952261954316</v>
       </c>
       <c r="N22">
-        <v>0</v>
+        <v>8.495972801469948</v>
       </c>
       <c r="O22">
-        <v>10.85332255054243</v>
-      </c>
-    </row>
-    <row r="23" spans="1:15">
+        <v>12.26115778411536</v>
+      </c>
+      <c r="P22">
+        <v>0</v>
+      </c>
+      <c r="Q22">
+        <v>14.23939410051885</v>
+      </c>
+    </row>
+    <row r="23" spans="1:17">
       <c r="A23" s="1">
         <v>21</v>
       </c>
       <c r="B23">
-        <v>17.90956021780068</v>
+        <v>16.73804611356654</v>
       </c>
       <c r="C23">
-        <v>9.976639179967188</v>
+        <v>10.34372600552564</v>
       </c>
       <c r="D23">
-        <v>6.929823450031165</v>
+        <v>6.677282641832735</v>
+      </c>
+      <c r="E23">
+        <v>0</v>
       </c>
       <c r="F23">
-        <v>14.58599003004967</v>
+        <v>18.29978251155207</v>
       </c>
       <c r="G23">
-        <v>2.070621982009242</v>
+        <v>22.01960500855716</v>
       </c>
       <c r="H23">
-        <v>0</v>
+        <v>1.974884364140682</v>
       </c>
       <c r="I23">
-        <v>9.830018454858958</v>
+        <v>2.583887776250782</v>
+      </c>
+      <c r="J23">
+        <v>8.727986231439109</v>
       </c>
       <c r="K23">
-        <v>15.72208572997616</v>
+        <v>14.83766576313561</v>
+      </c>
+      <c r="L23">
+        <v>0</v>
+      </c>
+      <c r="M23">
+        <v>13.96358213286159</v>
       </c>
       <c r="N23">
-        <v>0</v>
+        <v>8.411948986640406</v>
       </c>
       <c r="O23">
-        <v>10.92883132943631</v>
-      </c>
-    </row>
-    <row r="24" spans="1:15">
+        <v>12.09282738314547</v>
+      </c>
+      <c r="P23">
+        <v>0</v>
+      </c>
+      <c r="Q23">
+        <v>14.23966160588653</v>
+      </c>
+    </row>
+    <row r="24" spans="1:17">
       <c r="A24" s="1">
         <v>22</v>
       </c>
       <c r="B24">
-        <v>16.65579174708287</v>
+        <v>15.55134794630418</v>
       </c>
       <c r="C24">
-        <v>9.347431976856017</v>
+        <v>10.13406786413769</v>
       </c>
       <c r="D24">
-        <v>6.543389738885786</v>
+        <v>6.330425875991528</v>
+      </c>
+      <c r="E24">
+        <v>0</v>
       </c>
       <c r="F24">
-        <v>14.4374314401219</v>
+        <v>17.86534822021077</v>
       </c>
       <c r="G24">
-        <v>2.077140839515708</v>
+        <v>21.61019279126741</v>
       </c>
       <c r="H24">
-        <v>0</v>
+        <v>2.239402734730189</v>
       </c>
       <c r="I24">
-        <v>10.36148305352974</v>
+        <v>2.793264979392167</v>
+      </c>
+      <c r="J24">
+        <v>8.786469199756045</v>
       </c>
       <c r="K24">
-        <v>14.70451648290388</v>
+        <v>14.95702000549543</v>
+      </c>
+      <c r="L24">
+        <v>0</v>
+      </c>
+      <c r="M24">
+        <v>13.16377699572247</v>
       </c>
       <c r="N24">
-        <v>0</v>
+        <v>8.086186886756817</v>
       </c>
       <c r="O24">
-        <v>11.24763204342036</v>
-      </c>
-    </row>
-    <row r="25" spans="1:15">
+        <v>11.42962503122408</v>
+      </c>
+      <c r="P24">
+        <v>0</v>
+      </c>
+      <c r="Q24">
+        <v>14.22719320098878</v>
+      </c>
+    </row>
+    <row r="25" spans="1:17">
       <c r="A25" s="1">
         <v>23</v>
       </c>
       <c r="B25">
-        <v>15.19106392247181</v>
+        <v>14.15692240067591</v>
       </c>
       <c r="C25">
-        <v>8.619011061541251</v>
+        <v>9.90210684960709</v>
       </c>
       <c r="D25">
-        <v>6.098627648047433</v>
+        <v>5.932644677380305</v>
+      </c>
+      <c r="E25">
+        <v>0</v>
       </c>
       <c r="F25">
-        <v>14.37187384831362</v>
+        <v>17.42640261976918</v>
       </c>
       <c r="G25">
-        <v>2.084410194037968</v>
+        <v>21.21973032607122</v>
       </c>
       <c r="H25">
-        <v>0</v>
+        <v>2.537789136877867</v>
       </c>
       <c r="I25">
-        <v>10.96689797064122</v>
+        <v>3.032505131180765</v>
+      </c>
+      <c r="J25">
+        <v>8.861893927721001</v>
       </c>
       <c r="K25">
-        <v>13.52322750111186</v>
+        <v>15.10426037342283</v>
+      </c>
+      <c r="L25">
+        <v>0</v>
+      </c>
+      <c r="M25">
+        <v>12.24159658791194</v>
       </c>
       <c r="N25">
-        <v>0</v>
+        <v>7.71986837160136</v>
       </c>
       <c r="O25">
-        <v>11.65297663024091</v>
+        <v>10.66924337291461</v>
+      </c>
+      <c r="P25">
+        <v>0</v>
+      </c>
+      <c r="Q25">
+        <v>14.24195880523114</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_3_44/res_line/loading_percent.xlsx
+++ b/Code/Results/Cases/Case_3_44/res_line/loading_percent.xlsx
@@ -366,13 +366,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:Q25"/>
+  <dimension ref="A1:S25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:17">
+    <row r="1" spans="1:19">
       <c r="B1" s="1">
         <v>0</v>
       </c>
@@ -421,1277 +421,1427 @@
       <c r="Q1" s="1">
         <v>15</v>
       </c>
-    </row>
-    <row r="2" spans="1:17">
+      <c r="R1" s="1">
+        <v>16</v>
+      </c>
+      <c r="S1" s="1">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="2" spans="1:19">
       <c r="A2" s="1">
         <v>0</v>
       </c>
       <c r="B2">
-        <v>13.05102558444129</v>
+        <v>13.02580516447751</v>
       </c>
       <c r="C2">
-        <v>9.70455401747547</v>
+        <v>9.348420142285562</v>
       </c>
       <c r="D2">
-        <v>5.607181700672839</v>
+        <v>5.641915381483333</v>
       </c>
       <c r="E2">
         <v>0</v>
       </c>
       <c r="F2">
-        <v>17.18984911378512</v>
+        <v>16.7221135308174</v>
       </c>
       <c r="G2">
-        <v>21.07830003222684</v>
+        <v>19.68017527280491</v>
       </c>
       <c r="H2">
-        <v>2.76687032843382</v>
+        <v>2.665908439052838</v>
       </c>
       <c r="I2">
-        <v>3.193937097452104</v>
+        <v>3.069739301490344</v>
       </c>
       <c r="J2">
-        <v>8.943795076594714</v>
+        <v>9.148764434500201</v>
       </c>
       <c r="K2">
-        <v>15.27186954504321</v>
+        <v>14.74153179928025</v>
       </c>
       <c r="L2">
-        <v>0</v>
+        <v>12.13029165383628</v>
       </c>
       <c r="M2">
-        <v>11.49838216929967</v>
+        <v>9.645909426054979</v>
       </c>
       <c r="N2">
-        <v>7.438875334903708</v>
+        <v>0</v>
       </c>
       <c r="O2">
-        <v>10.07955561403628</v>
+        <v>11.58048254174828</v>
       </c>
       <c r="P2">
-        <v>0</v>
+        <v>7.525429731740875</v>
       </c>
       <c r="Q2">
-        <v>14.31702577886715</v>
-      </c>
-    </row>
-    <row r="3" spans="1:17">
+        <v>10.02887744067569</v>
+      </c>
+      <c r="R2">
+        <v>0</v>
+      </c>
+      <c r="S2">
+        <v>13.93925816268892</v>
+      </c>
+    </row>
+    <row r="3" spans="1:19">
       <c r="A3" s="1">
         <v>1</v>
       </c>
       <c r="B3">
-        <v>12.22903236128531</v>
+        <v>12.23053696148774</v>
       </c>
       <c r="C3">
-        <v>9.579767563402257</v>
+        <v>9.169471219282981</v>
       </c>
       <c r="D3">
-        <v>5.382220207770231</v>
+        <v>5.398193486618833</v>
       </c>
       <c r="E3">
         <v>0</v>
       </c>
       <c r="F3">
-        <v>17.01158814617818</v>
+        <v>16.58657368473246</v>
       </c>
       <c r="G3">
-        <v>20.94859295889848</v>
+        <v>19.65376327580972</v>
       </c>
       <c r="H3">
-        <v>2.930929288048728</v>
+        <v>2.819458880114973</v>
       </c>
       <c r="I3">
-        <v>3.324908285809139</v>
+        <v>3.187100009597953</v>
       </c>
       <c r="J3">
-        <v>8.995719053000393</v>
+        <v>9.179728136581163</v>
       </c>
       <c r="K3">
-        <v>15.36862392493316</v>
+        <v>14.86177141004804</v>
       </c>
       <c r="L3">
-        <v>0</v>
+        <v>12.28600314776233</v>
       </c>
       <c r="M3">
-        <v>10.97352627292914</v>
+        <v>9.706766172893852</v>
       </c>
       <c r="N3">
-        <v>7.241802725267345</v>
+        <v>0</v>
       </c>
       <c r="O3">
-        <v>9.655389768981616</v>
+        <v>11.04222738419035</v>
       </c>
       <c r="P3">
-        <v>0</v>
+        <v>7.336926342453571</v>
       </c>
       <c r="Q3">
-        <v>14.35692613706762</v>
-      </c>
-    </row>
-    <row r="4" spans="1:17">
+        <v>9.60843802558437</v>
+      </c>
+      <c r="R3">
+        <v>0</v>
+      </c>
+      <c r="S3">
+        <v>14.005421111176</v>
+      </c>
+    </row>
+    <row r="4" spans="1:19">
       <c r="A4" s="1">
         <v>2</v>
       </c>
       <c r="B4">
-        <v>11.69342081295996</v>
+        <v>11.71269209610396</v>
       </c>
       <c r="C4">
-        <v>9.501762948602615</v>
+        <v>9.058521987756725</v>
       </c>
       <c r="D4">
-        <v>5.238834147444016</v>
+        <v>5.242790381818937</v>
       </c>
       <c r="E4">
         <v>0</v>
       </c>
       <c r="F4">
-        <v>16.90906548244056</v>
+        <v>16.50933861609099</v>
       </c>
       <c r="G4">
-        <v>20.87900965833983</v>
+        <v>19.64893427667836</v>
       </c>
       <c r="H4">
-        <v>3.035502932781782</v>
+        <v>2.917361616481684</v>
       </c>
       <c r="I4">
-        <v>3.409141360632365</v>
+        <v>3.262877279213921</v>
       </c>
       <c r="J4">
-        <v>9.030090659414638</v>
+        <v>9.199807062010061</v>
       </c>
       <c r="K4">
-        <v>15.43135584765914</v>
+        <v>14.93798263067401</v>
       </c>
       <c r="L4">
-        <v>0</v>
+        <v>12.38425607349713</v>
       </c>
       <c r="M4">
-        <v>10.63761938609415</v>
+        <v>9.760035542809414</v>
       </c>
       <c r="N4">
-        <v>7.117860415724022</v>
+        <v>0</v>
       </c>
       <c r="O4">
-        <v>9.385160767604493</v>
+        <v>10.69789758785885</v>
       </c>
       <c r="P4">
-        <v>0</v>
+        <v>7.218678497772127</v>
       </c>
       <c r="Q4">
-        <v>14.38677284438565</v>
-      </c>
-    </row>
-    <row r="5" spans="1:17">
+        <v>9.340382929298219</v>
+      </c>
+      <c r="R4">
+        <v>0</v>
+      </c>
+      <c r="S4">
+        <v>14.05045204603161</v>
+      </c>
+    </row>
+    <row r="5" spans="1:19">
       <c r="A5" s="1">
         <v>3</v>
       </c>
       <c r="B5">
-        <v>11.46503255224174</v>
+        <v>11.49195061888796</v>
       </c>
       <c r="C5">
-        <v>9.471719294501561</v>
+        <v>9.015809846171102</v>
       </c>
       <c r="D5">
-        <v>5.180566425597823</v>
+        <v>5.179520378142201</v>
       </c>
       <c r="E5">
         <v>0</v>
       </c>
       <c r="F5">
-        <v>16.8625198188373</v>
+        <v>16.47297168206267</v>
       </c>
       <c r="G5">
-        <v>20.8420524612039</v>
+        <v>19.63877435172104</v>
       </c>
       <c r="H5">
-        <v>3.079370516942188</v>
+        <v>2.958450054307491</v>
       </c>
       <c r="I5">
-        <v>3.447065508694812</v>
+        <v>3.297789547945841</v>
       </c>
       <c r="J5">
-        <v>9.042972782771962</v>
+        <v>9.20654282823466</v>
       </c>
       <c r="K5">
-        <v>15.45305140527913</v>
+        <v>14.96515793789826</v>
       </c>
       <c r="L5">
-        <v>0</v>
+        <v>12.4205188238598</v>
       </c>
       <c r="M5">
-        <v>10.4990743240237</v>
+        <v>9.783439779632511</v>
       </c>
       <c r="N5">
-        <v>7.0665987633511</v>
+        <v>0</v>
       </c>
       <c r="O5">
-        <v>9.271968737851163</v>
+        <v>10.55587284167729</v>
       </c>
       <c r="P5">
-        <v>0</v>
+        <v>7.169844046101885</v>
       </c>
       <c r="Q5">
-        <v>14.39582741391459</v>
-      </c>
-    </row>
-    <row r="6" spans="1:17">
+        <v>9.228056186627109</v>
+      </c>
+      <c r="R5">
+        <v>0</v>
+      </c>
+      <c r="S5">
+        <v>14.06559110232585</v>
+      </c>
+    </row>
+    <row r="6" spans="1:19">
       <c r="A6" s="1">
         <v>4</v>
       </c>
       <c r="B6">
-        <v>11.42375235840598</v>
+        <v>11.45202444537285</v>
       </c>
       <c r="C6">
-        <v>9.469310091346591</v>
+        <v>9.012116232260006</v>
       </c>
       <c r="D6">
-        <v>5.17258402654946</v>
+        <v>5.170714512386827</v>
       </c>
       <c r="E6">
         <v>0</v>
       </c>
       <c r="F6">
-        <v>16.84693000761549</v>
+        <v>16.45921648280869</v>
       </c>
       <c r="G6">
-        <v>20.822520721905</v>
+        <v>19.62388085438439</v>
       </c>
       <c r="H6">
-        <v>3.087051466262503</v>
+        <v>2.96566042368167</v>
       </c>
       <c r="I6">
-        <v>3.456801843954941</v>
+        <v>3.307629881735688</v>
       </c>
       <c r="J6">
-        <v>9.04302277137068</v>
+        <v>9.205584892945131</v>
       </c>
       <c r="K6">
-        <v>15.45097614904974</v>
+        <v>14.96424627621006</v>
       </c>
       <c r="L6">
-        <v>0</v>
+        <v>12.42116330471166</v>
       </c>
       <c r="M6">
-        <v>10.47790892916772</v>
+        <v>9.784804235730245</v>
       </c>
       <c r="N6">
-        <v>7.057972705370992</v>
+        <v>0</v>
       </c>
       <c r="O6">
-        <v>9.25214130798682</v>
+        <v>10.53411472965852</v>
       </c>
       <c r="P6">
-        <v>0</v>
+        <v>7.16162544334025</v>
       </c>
       <c r="Q6">
-        <v>14.39201115219249</v>
-      </c>
-    </row>
-    <row r="7" spans="1:17">
+        <v>9.208384346333279</v>
+      </c>
+      <c r="R6">
+        <v>0</v>
+      </c>
+      <c r="S6">
+        <v>14.06293217273282</v>
+      </c>
+    </row>
+    <row r="7" spans="1:19">
       <c r="A7" s="1">
         <v>5</v>
       </c>
       <c r="B7">
-        <v>11.68266582999874</v>
+        <v>11.70290511399568</v>
       </c>
       <c r="C7">
-        <v>9.508497913112576</v>
+        <v>9.065138671695754</v>
       </c>
       <c r="D7">
-        <v>5.242835701531108</v>
+        <v>5.249740005750028</v>
       </c>
       <c r="E7">
         <v>0</v>
       </c>
       <c r="F7">
-        <v>16.88677219847958</v>
+        <v>16.47529048003766</v>
       </c>
       <c r="G7">
-        <v>20.8416286209572</v>
+        <v>19.67920102724377</v>
       </c>
       <c r="H7">
-        <v>3.036993551960367</v>
+        <v>2.919144594638282</v>
       </c>
       <c r="I7">
-        <v>3.418580879664783</v>
+        <v>3.27428653655554</v>
       </c>
       <c r="J7">
-        <v>9.02446892585467</v>
+        <v>9.16557154705718</v>
       </c>
       <c r="K7">
-        <v>15.41602544313693</v>
+        <v>14.91805057213583</v>
       </c>
       <c r="L7">
-        <v>0</v>
+        <v>12.36509433116746</v>
       </c>
       <c r="M7">
-        <v>10.64126586268294</v>
+        <v>9.749470889750603</v>
       </c>
       <c r="N7">
-        <v>7.116985715682403</v>
+        <v>0</v>
       </c>
       <c r="O7">
-        <v>9.381235124492827</v>
+        <v>10.70028229724416</v>
       </c>
       <c r="P7">
-        <v>0</v>
+        <v>7.217515729840509</v>
       </c>
       <c r="Q7">
-        <v>14.37217388696689</v>
-      </c>
-    </row>
-    <row r="8" spans="1:17">
+        <v>9.336784533212168</v>
+      </c>
+      <c r="R7">
+        <v>0</v>
+      </c>
+      <c r="S7">
+        <v>14.02823598581818</v>
+      </c>
+    </row>
+    <row r="8" spans="1:19">
       <c r="A8" s="1">
         <v>6</v>
       </c>
       <c r="B8">
-        <v>12.76458727563914</v>
+        <v>12.75068621045018</v>
       </c>
       <c r="C8">
-        <v>9.671484845719025</v>
+        <v>9.292671507093205</v>
       </c>
       <c r="D8">
-        <v>5.536831061363194</v>
+        <v>5.574762902978716</v>
       </c>
       <c r="E8">
         <v>0</v>
       </c>
       <c r="F8">
-        <v>17.09879624799881</v>
+        <v>16.60629205087297</v>
       </c>
       <c r="G8">
-        <v>20.98330242452688</v>
+        <v>19.84373447087757</v>
       </c>
       <c r="H8">
-        <v>2.823760685499868</v>
+        <v>2.720256009598733</v>
       </c>
       <c r="I8">
-        <v>3.249662094879616</v>
+        <v>3.124107552043405</v>
       </c>
       <c r="J8">
-        <v>8.953566906852387</v>
+        <v>9.058845098826072</v>
       </c>
       <c r="K8">
-        <v>15.28398308668013</v>
+        <v>14.74537937759158</v>
       </c>
       <c r="L8">
-        <v>0</v>
+        <v>12.15051315206576</v>
       </c>
       <c r="M8">
-        <v>11.32729427807153</v>
+        <v>9.640047861350645</v>
       </c>
       <c r="N8">
-        <v>7.371377954809547</v>
+        <v>0</v>
       </c>
       <c r="O8">
-        <v>9.932369795105085</v>
+        <v>11.40114493644165</v>
       </c>
       <c r="P8">
-        <v>0</v>
+        <v>7.459841535369714</v>
       </c>
       <c r="Q8">
-        <v>14.31031172242259</v>
-      </c>
-    </row>
-    <row r="9" spans="1:17">
+        <v>9.883912685668985</v>
+      </c>
+      <c r="R8">
+        <v>0</v>
+      </c>
+      <c r="S8">
+        <v>13.91560200377089</v>
+      </c>
+    </row>
+    <row r="9" spans="1:19">
       <c r="A9" s="1">
         <v>7</v>
       </c>
       <c r="B9">
-        <v>14.65329755573807</v>
+        <v>14.57983851201782</v>
       </c>
       <c r="C9">
-        <v>9.967397918894351</v>
+        <v>9.720466859606683</v>
       </c>
       <c r="D9">
-        <v>6.061981556066541</v>
+        <v>6.14541355749854</v>
       </c>
       <c r="E9">
         <v>0</v>
       </c>
       <c r="F9">
-        <v>17.60707220860505</v>
+        <v>16.99355132224034</v>
       </c>
       <c r="G9">
-        <v>21.40803830431639</v>
+        <v>20.07866529337934</v>
       </c>
       <c r="H9">
-        <v>2.434138616033112</v>
+        <v>2.355861946295652</v>
       </c>
       <c r="I9">
-        <v>2.933787799575662</v>
+        <v>2.840161067111387</v>
       </c>
       <c r="J9">
-        <v>8.845107784920064</v>
+        <v>8.96888146766285</v>
       </c>
       <c r="K9">
-        <v>15.07990375257122</v>
+        <v>14.47180520233315</v>
       </c>
       <c r="L9">
-        <v>0</v>
+        <v>11.792241590802</v>
       </c>
       <c r="M9">
-        <v>12.55121459190583</v>
+        <v>9.581174128064175</v>
       </c>
       <c r="N9">
-        <v>7.845288443695147</v>
+        <v>0</v>
       </c>
       <c r="O9">
-        <v>10.93498109928994</v>
+        <v>12.6565094850714</v>
       </c>
       <c r="P9">
-        <v>0</v>
+        <v>7.914674380758906</v>
       </c>
       <c r="Q9">
-        <v>14.25927658617358</v>
-      </c>
-    </row>
-    <row r="10" spans="1:17">
+        <v>10.8767878697432</v>
+      </c>
+      <c r="R9">
+        <v>0</v>
+      </c>
+      <c r="S9">
+        <v>13.78607291132461</v>
+      </c>
+    </row>
+    <row r="10" spans="1:19">
       <c r="A10" s="1">
         <v>8</v>
       </c>
       <c r="B10">
-        <v>15.87703595149457</v>
+        <v>15.77174411559608</v>
       </c>
       <c r="C10">
-        <v>10.2202824688304</v>
+        <v>10.06758202959041</v>
       </c>
       <c r="D10">
-        <v>6.442213032404394</v>
+        <v>6.56937394917765</v>
       </c>
       <c r="E10">
         <v>0</v>
       </c>
       <c r="F10">
-        <v>17.90617932920859</v>
+        <v>17.14570343844852</v>
       </c>
       <c r="G10">
-        <v>21.5878061753144</v>
+        <v>20.53329586942771</v>
       </c>
       <c r="H10">
-        <v>2.196121657512931</v>
+        <v>2.136825951355939</v>
       </c>
       <c r="I10">
-        <v>2.729737258861612</v>
+        <v>2.661590021043681</v>
       </c>
       <c r="J10">
-        <v>8.748633491795824</v>
+        <v>8.731289905996329</v>
       </c>
       <c r="K10">
-        <v>14.86798497403377</v>
+        <v>14.18678971839752</v>
       </c>
       <c r="L10">
-        <v>0</v>
+        <v>11.47455746445405</v>
       </c>
       <c r="M10">
-        <v>13.41042027583581</v>
+        <v>9.535843874843227</v>
       </c>
       <c r="N10">
-        <v>8.040305131577336</v>
+        <v>0</v>
       </c>
       <c r="O10">
-        <v>11.51309459287388</v>
+        <v>13.52973449156776</v>
       </c>
       <c r="P10">
-        <v>0</v>
+        <v>8.096874214151509</v>
       </c>
       <c r="Q10">
-        <v>14.17502647551493</v>
-      </c>
-    </row>
-    <row r="11" spans="1:17">
+        <v>11.44962648693693</v>
+      </c>
+      <c r="R10">
+        <v>0</v>
+      </c>
+      <c r="S10">
+        <v>13.60286962392944</v>
+      </c>
+    </row>
+    <row r="11" spans="1:19">
       <c r="A11" s="1">
         <v>9</v>
       </c>
       <c r="B11">
-        <v>16.29306308278894</v>
+        <v>16.20577341542823</v>
       </c>
       <c r="C11">
-        <v>10.7561210896476</v>
+        <v>10.67383381162404</v>
       </c>
       <c r="D11">
-        <v>6.79332953689581</v>
+        <v>6.95104259812338</v>
       </c>
       <c r="E11">
         <v>0</v>
       </c>
       <c r="F11">
-        <v>17.17894179832226</v>
+        <v>16.3375225720748</v>
       </c>
       <c r="G11">
-        <v>20.18218089391943</v>
+        <v>20.0472006307636</v>
       </c>
       <c r="H11">
-        <v>3.087671724504743</v>
+        <v>3.050398248659899</v>
       </c>
       <c r="I11">
-        <v>2.69346796729635</v>
+        <v>2.6386720950963</v>
       </c>
       <c r="J11">
-        <v>8.465365993346635</v>
+        <v>8.24346916367691</v>
       </c>
       <c r="K11">
-        <v>14.15201858456792</v>
+        <v>13.50618686138112</v>
       </c>
       <c r="L11">
-        <v>0</v>
+        <v>10.97339837176947</v>
       </c>
       <c r="M11">
-        <v>14.05422813605392</v>
+        <v>9.039129929390963</v>
       </c>
       <c r="N11">
-        <v>7.031230156880201</v>
+        <v>0</v>
       </c>
       <c r="O11">
-        <v>10.88407872893614</v>
+        <v>14.15227513283791</v>
       </c>
       <c r="P11">
-        <v>0</v>
+        <v>7.083491120568773</v>
       </c>
       <c r="Q11">
-        <v>13.52742192453826</v>
-      </c>
-    </row>
-    <row r="12" spans="1:17">
+        <v>10.82848518567485</v>
+      </c>
+      <c r="R11">
+        <v>0</v>
+      </c>
+      <c r="S11">
+        <v>12.91939274038396</v>
+      </c>
+    </row>
+    <row r="12" spans="1:19">
       <c r="A12" s="1">
         <v>10</v>
       </c>
       <c r="B12">
-        <v>16.40577106376401</v>
+        <v>16.33809759034679</v>
       </c>
       <c r="C12">
-        <v>11.23768607164696</v>
+        <v>11.17258005834129</v>
       </c>
       <c r="D12">
-        <v>7.010070082506617</v>
+        <v>7.17503385980441</v>
       </c>
       <c r="E12">
         <v>0</v>
       </c>
       <c r="F12">
-        <v>16.52020658032903</v>
+        <v>15.6846972575378</v>
       </c>
       <c r="G12">
-        <v>19.00245273645725</v>
+        <v>19.32753813165408</v>
       </c>
       <c r="H12">
-        <v>4.385252626729756</v>
+        <v>4.359523499644431</v>
       </c>
       <c r="I12">
-        <v>2.683685377461588</v>
+        <v>2.631198018056375</v>
       </c>
       <c r="J12">
-        <v>8.256471792504801</v>
+        <v>8.017648810190366</v>
       </c>
       <c r="K12">
-        <v>13.64679687973351</v>
+        <v>13.06757164271645</v>
       </c>
       <c r="L12">
-        <v>0</v>
+        <v>10.68588658262428</v>
       </c>
       <c r="M12">
-        <v>14.42145893982405</v>
+        <v>8.671690607404026</v>
       </c>
       <c r="N12">
-        <v>6.264945939152229</v>
+        <v>0</v>
       </c>
       <c r="O12">
-        <v>10.23267717566793</v>
+        <v>14.50087608404583</v>
       </c>
       <c r="P12">
-        <v>0</v>
+        <v>6.316574432816094</v>
       </c>
       <c r="Q12">
-        <v>13.02180244247941</v>
-      </c>
-    </row>
-    <row r="13" spans="1:17">
+        <v>10.18403938612676</v>
+      </c>
+      <c r="R12">
+        <v>0</v>
+      </c>
+      <c r="S12">
+        <v>12.43678926013695</v>
+      </c>
+    </row>
+    <row r="13" spans="1:19">
       <c r="A13" s="1">
         <v>11</v>
       </c>
       <c r="B13">
-        <v>16.28678626927045</v>
+        <v>16.24031278744012</v>
       </c>
       <c r="C13">
-        <v>11.70573694493202</v>
+        <v>11.63478744184532</v>
       </c>
       <c r="D13">
-        <v>7.146964762557904</v>
+        <v>7.294314006694629</v>
       </c>
       <c r="E13">
         <v>0</v>
       </c>
       <c r="F13">
-        <v>15.83468994511263</v>
+        <v>15.10097050275636</v>
       </c>
       <c r="G13">
-        <v>17.86537358882536</v>
+        <v>18.14978985121624</v>
       </c>
       <c r="H13">
-        <v>5.761722652717001</v>
+        <v>5.740563449226753</v>
       </c>
       <c r="I13">
-        <v>2.709057671981493</v>
+        <v>2.652755886222725</v>
       </c>
       <c r="J13">
-        <v>8.083990284252247</v>
+        <v>7.951800518682584</v>
       </c>
       <c r="K13">
-        <v>13.25540324517724</v>
+        <v>12.77190458443084</v>
       </c>
       <c r="L13">
-        <v>0</v>
+        <v>10.51082679795752</v>
       </c>
       <c r="M13">
-        <v>14.61341056485154</v>
+        <v>8.384192215724585</v>
       </c>
       <c r="N13">
-        <v>5.682930403299399</v>
+        <v>0</v>
       </c>
       <c r="O13">
-        <v>9.508117090154288</v>
+        <v>14.67689724007291</v>
       </c>
       <c r="P13">
-        <v>0</v>
+        <v>5.737451886186505</v>
       </c>
       <c r="Q13">
-        <v>12.57381683827161</v>
-      </c>
-    </row>
-    <row r="14" spans="1:17">
+        <v>9.465585859906332</v>
+      </c>
+      <c r="R13">
+        <v>0</v>
+      </c>
+      <c r="S13">
+        <v>12.07283563020986</v>
+      </c>
+    </row>
+    <row r="14" spans="1:19">
       <c r="A14" s="1">
         <v>12</v>
       </c>
       <c r="B14">
-        <v>16.09535413794011</v>
+        <v>16.06480644701215</v>
       </c>
       <c r="C14">
-        <v>12.03815383243495</v>
+        <v>11.95311660556144</v>
       </c>
       <c r="D14">
-        <v>7.209530685218734</v>
+        <v>7.333007465809758</v>
       </c>
       <c r="E14">
         <v>0</v>
       </c>
       <c r="F14">
-        <v>15.33647166837471</v>
+        <v>14.71454359756592</v>
       </c>
       <c r="G14">
-        <v>17.08660583970281</v>
+        <v>17.13244409004183</v>
       </c>
       <c r="H14">
-        <v>6.748076871315936</v>
+        <v>6.728294988124722</v>
       </c>
       <c r="I14">
-        <v>2.745543542663542</v>
+        <v>2.684452403969435</v>
       </c>
       <c r="J14">
-        <v>7.980070442952568</v>
+        <v>7.958844514330815</v>
       </c>
       <c r="K14">
-        <v>13.03990459534598</v>
+        <v>12.62844936147098</v>
       </c>
       <c r="L14">
-        <v>0</v>
+        <v>10.43088041874476</v>
       </c>
       <c r="M14">
-        <v>14.67230103134655</v>
+        <v>8.225998026136349</v>
       </c>
       <c r="N14">
-        <v>5.416358350100365</v>
+        <v>0</v>
       </c>
       <c r="O14">
-        <v>8.962645217435737</v>
+        <v>14.72552961827595</v>
       </c>
       <c r="P14">
-        <v>0</v>
+        <v>5.474185261790661</v>
       </c>
       <c r="Q14">
-        <v>12.28737523568192</v>
-      </c>
-    </row>
-    <row r="15" spans="1:17">
+        <v>8.923940857558289</v>
+      </c>
+      <c r="R14">
+        <v>0</v>
+      </c>
+      <c r="S14">
+        <v>11.86748830781096</v>
+      </c>
+    </row>
+    <row r="15" spans="1:19">
       <c r="A15" s="1">
         <v>13</v>
       </c>
       <c r="B15">
-        <v>15.99582630149013</v>
+        <v>15.96972109407096</v>
       </c>
       <c r="C15">
-        <v>12.11157347679448</v>
+        <v>12.02178110691238</v>
       </c>
       <c r="D15">
-        <v>7.2090846884794</v>
+        <v>7.321845874736205</v>
       </c>
       <c r="E15">
         <v>0</v>
       </c>
       <c r="F15">
-        <v>15.20389366134608</v>
+        <v>14.62637145504979</v>
       </c>
       <c r="G15">
-        <v>16.89715950461992</v>
+        <v>16.80082311705467</v>
       </c>
       <c r="H15">
-        <v>6.978823418729392</v>
+        <v>6.958868365338808</v>
       </c>
       <c r="I15">
-        <v>2.767023415078257</v>
+        <v>2.704242521357708</v>
       </c>
       <c r="J15">
-        <v>7.960888088282085</v>
+        <v>7.983181685979246</v>
       </c>
       <c r="K15">
-        <v>13.00478471359352</v>
+        <v>12.61377961037094</v>
       </c>
       <c r="L15">
-        <v>0</v>
+        <v>10.42367986777706</v>
       </c>
       <c r="M15">
-        <v>14.65047697335159</v>
+        <v>8.201238567663752</v>
       </c>
       <c r="N15">
-        <v>5.373488590111826</v>
+        <v>0</v>
       </c>
       <c r="O15">
-        <v>8.812775238316281</v>
+        <v>14.70170221894229</v>
       </c>
       <c r="P15">
-        <v>0</v>
+        <v>5.432921484794462</v>
       </c>
       <c r="Q15">
-        <v>12.22602471232523</v>
-      </c>
-    </row>
-    <row r="16" spans="1:17">
+        <v>8.774848628994615</v>
+      </c>
+      <c r="R15">
+        <v>0</v>
+      </c>
+      <c r="S15">
+        <v>11.83537655515725</v>
+      </c>
+    </row>
+    <row r="16" spans="1:19">
       <c r="A16" s="1">
         <v>14</v>
       </c>
       <c r="B16">
-        <v>15.50815193280753</v>
+        <v>15.48726080115327</v>
       </c>
       <c r="C16">
-        <v>11.91472291783135</v>
+        <v>11.81474698173966</v>
       </c>
       <c r="D16">
-        <v>7.033915666281221</v>
+        <v>7.106183637504329</v>
       </c>
       <c r="E16">
         <v>0</v>
       </c>
       <c r="F16">
-        <v>15.18388635907578</v>
+        <v>14.74679361652677</v>
       </c>
       <c r="G16">
-        <v>17.01705266176168</v>
+        <v>16.2573974366186</v>
       </c>
       <c r="H16">
-        <v>6.786565218294403</v>
+        <v>6.761681396299922</v>
       </c>
       <c r="I16">
-        <v>2.855029854275598</v>
+        <v>2.780563997562844</v>
       </c>
       <c r="J16">
-        <v>8.034629868098861</v>
+        <v>8.217171106922375</v>
       </c>
       <c r="K16">
-        <v>13.17255363891826</v>
+        <v>12.80961262427757</v>
       </c>
       <c r="L16">
-        <v>0</v>
+        <v>10.54754755332643</v>
       </c>
       <c r="M16">
-        <v>14.27183645214317</v>
+        <v>8.334236939775487</v>
       </c>
       <c r="N16">
-        <v>5.389478182172986</v>
+        <v>0</v>
       </c>
       <c r="O16">
-        <v>8.678722257273574</v>
+        <v>14.32771582401636</v>
       </c>
       <c r="P16">
-        <v>0</v>
+        <v>5.457716473243432</v>
       </c>
       <c r="Q16">
-        <v>12.34618536926461</v>
-      </c>
-    </row>
-    <row r="17" spans="1:17">
+        <v>8.639632808545546</v>
+      </c>
+      <c r="R16">
+        <v>0</v>
+      </c>
+      <c r="S16">
+        <v>12.03477177283195</v>
+      </c>
+    </row>
+    <row r="17" spans="1:19">
       <c r="A17" s="1">
         <v>15</v>
       </c>
       <c r="B17">
-        <v>15.23222847193765</v>
+        <v>15.20747792948297</v>
       </c>
       <c r="C17">
-        <v>11.57695836871753</v>
+        <v>11.47198283098075</v>
       </c>
       <c r="D17">
-        <v>6.862498505926934</v>
+        <v>6.921339288447633</v>
       </c>
       <c r="E17">
         <v>0</v>
       </c>
       <c r="F17">
-        <v>15.43748614713275</v>
+        <v>15.0331887066034</v>
       </c>
       <c r="G17">
-        <v>17.52055756291711</v>
+        <v>16.46766840982296</v>
       </c>
       <c r="H17">
-        <v>6.08546409775319</v>
+        <v>6.055039195092081</v>
       </c>
       <c r="I17">
-        <v>2.904018526773061</v>
+        <v>2.82362932063912</v>
       </c>
       <c r="J17">
-        <v>8.145548233703016</v>
+        <v>8.393676573161459</v>
       </c>
       <c r="K17">
-        <v>13.40928605032265</v>
+        <v>13.03381861741323</v>
       </c>
       <c r="L17">
-        <v>0</v>
+        <v>10.69766773587551</v>
       </c>
       <c r="M17">
-        <v>13.94310009436605</v>
+        <v>8.50695181314402</v>
       </c>
       <c r="N17">
-        <v>5.518058710815075</v>
+        <v>0</v>
       </c>
       <c r="O17">
-        <v>8.873477618726897</v>
+        <v>14.0069277942264</v>
       </c>
       <c r="P17">
-        <v>0</v>
+        <v>5.591033600852093</v>
       </c>
       <c r="Q17">
-        <v>12.58799506336655</v>
-      </c>
-    </row>
-    <row r="18" spans="1:17">
+        <v>8.831875291486234</v>
+      </c>
+      <c r="R17">
+        <v>0</v>
+      </c>
+      <c r="S17">
+        <v>12.28916069692959</v>
+      </c>
+    </row>
+    <row r="18" spans="1:19">
       <c r="A18" s="1">
         <v>16</v>
       </c>
       <c r="B18">
-        <v>15.12063825427855</v>
+        <v>15.08216592700631</v>
       </c>
       <c r="C18">
-        <v>11.10089993750866</v>
+        <v>10.99120625519648</v>
       </c>
       <c r="D18">
-        <v>6.674264082476003</v>
+        <v>6.735350623504528</v>
       </c>
       <c r="E18">
         <v>0</v>
       </c>
       <c r="F18">
-        <v>15.96766158289233</v>
+        <v>15.53252547658986</v>
       </c>
       <c r="G18">
-        <v>18.44346322035459</v>
+        <v>17.21262783345809</v>
       </c>
       <c r="H18">
-        <v>4.904704470526769</v>
+        <v>4.866000932095664</v>
       </c>
       <c r="I18">
-        <v>2.912299310521382</v>
+        <v>2.828148497579951</v>
       </c>
       <c r="J18">
-        <v>8.307023087147222</v>
+        <v>8.567547784723892</v>
       </c>
       <c r="K18">
-        <v>13.76346160379868</v>
+        <v>13.34291948314701</v>
       </c>
       <c r="L18">
-        <v>0</v>
+        <v>10.91578905141898</v>
       </c>
       <c r="M18">
-        <v>13.62209200376042</v>
+        <v>8.753682550186765</v>
       </c>
       <c r="N18">
-        <v>5.890931687759407</v>
+        <v>0</v>
       </c>
       <c r="O18">
-        <v>9.380731570303462</v>
+        <v>13.69917949473735</v>
       </c>
       <c r="P18">
-        <v>0</v>
+        <v>5.964628958451286</v>
       </c>
       <c r="Q18">
-        <v>12.97702434459923</v>
-      </c>
-    </row>
-    <row r="19" spans="1:17">
+        <v>9.334637466452387</v>
+      </c>
+      <c r="R18">
+        <v>0</v>
+      </c>
+      <c r="S18">
+        <v>12.64966869980675</v>
+      </c>
+    </row>
+    <row r="19" spans="1:19">
       <c r="A19" s="1">
         <v>17</v>
       </c>
       <c r="B19">
-        <v>15.14080171364168</v>
+        <v>15.08150988668294</v>
       </c>
       <c r="C19">
-        <v>10.63764643438329</v>
+        <v>10.51488339226249</v>
       </c>
       <c r="D19">
-        <v>6.49941350623062</v>
+        <v>6.571893358341025</v>
       </c>
       <c r="E19">
         <v>0</v>
       </c>
       <c r="F19">
-        <v>16.64342629127325</v>
+        <v>16.13899400390108</v>
       </c>
       <c r="G19">
-        <v>19.59201442636438</v>
+        <v>18.22657988208713</v>
       </c>
       <c r="H19">
-        <v>3.553680604319178</v>
+        <v>3.502182248301744</v>
       </c>
       <c r="I19">
-        <v>2.903513421699199</v>
+        <v>2.821625984692433</v>
       </c>
       <c r="J19">
-        <v>8.492497373228316</v>
+        <v>8.734311641737484</v>
       </c>
       <c r="K19">
-        <v>14.19910202674159</v>
+        <v>13.70878869019248</v>
       </c>
       <c r="L19">
-        <v>0</v>
+        <v>11.17971033223547</v>
       </c>
       <c r="M19">
-        <v>13.34775085270124</v>
+        <v>9.050006341849572</v>
       </c>
       <c r="N19">
-        <v>6.586296227572159</v>
+        <v>0</v>
       </c>
       <c r="O19">
-        <v>10.09878817790843</v>
+        <v>13.44139268618257</v>
       </c>
       <c r="P19">
-        <v>0</v>
+        <v>6.656750432858821</v>
       </c>
       <c r="Q19">
-        <v>13.44307169135943</v>
-      </c>
-    </row>
-    <row r="20" spans="1:17">
+        <v>10.04663971857963</v>
+      </c>
+      <c r="R19">
+        <v>0</v>
+      </c>
+      <c r="S19">
+        <v>13.06082992574953</v>
+      </c>
+    </row>
+    <row r="20" spans="1:19">
       <c r="A20" s="1">
         <v>18</v>
       </c>
       <c r="B20">
-        <v>15.54642219671074</v>
+        <v>15.44767422040769</v>
       </c>
       <c r="C20">
-        <v>10.1806873672028</v>
+        <v>10.01953329867484</v>
       </c>
       <c r="D20">
-        <v>6.358434903177635</v>
+        <v>6.465108466112795</v>
       </c>
       <c r="E20">
         <v>0</v>
       </c>
       <c r="F20">
-        <v>17.75829946920003</v>
+        <v>17.08031122930296</v>
       </c>
       <c r="G20">
-        <v>21.42096721078145</v>
+        <v>20.05581429337194</v>
       </c>
       <c r="H20">
-        <v>2.259477041899883</v>
+        <v>2.194219059321268</v>
       </c>
       <c r="I20">
-        <v>2.813054829695262</v>
+        <v>2.742841774463302</v>
       </c>
       <c r="J20">
-        <v>8.754293674588848</v>
+        <v>8.870014504161079</v>
       </c>
       <c r="K20">
-        <v>14.87193613768714</v>
+        <v>14.23341149520229</v>
       </c>
       <c r="L20">
-        <v>0</v>
+        <v>11.53639595499438</v>
       </c>
       <c r="M20">
-        <v>13.20622634136243</v>
+        <v>9.521017825372061</v>
       </c>
       <c r="N20">
-        <v>7.983467626225393</v>
+        <v>0</v>
       </c>
       <c r="O20">
-        <v>11.35357264582068</v>
+        <v>13.32507990813417</v>
       </c>
       <c r="P20">
-        <v>0</v>
+        <v>8.044139224786823</v>
       </c>
       <c r="Q20">
-        <v>14.14753245149877</v>
-      </c>
-    </row>
-    <row r="21" spans="1:17">
+        <v>11.29087753603927</v>
+      </c>
+      <c r="R20">
+        <v>0</v>
+      </c>
+      <c r="S20">
+        <v>13.63292925548243</v>
+      </c>
+    </row>
+    <row r="21" spans="1:19">
       <c r="A21" s="1">
         <v>19</v>
       </c>
       <c r="B21">
-        <v>16.46203367055068</v>
+        <v>16.34602826328706</v>
       </c>
       <c r="C21">
-        <v>10.30955458232684</v>
+        <v>10.16904834590348</v>
       </c>
       <c r="D21">
-        <v>6.606078170420463</v>
+        <v>6.795560513815545</v>
       </c>
       <c r="E21">
         <v>0</v>
       </c>
       <c r="F21">
-        <v>18.16275702592358</v>
+        <v>17.13640725451315</v>
       </c>
       <c r="G21">
-        <v>21.86115736311599</v>
+        <v>21.97182242233065</v>
       </c>
       <c r="H21">
-        <v>2.036244866235579</v>
+        <v>1.99002129975363</v>
       </c>
       <c r="I21">
-        <v>2.649711199622821</v>
+        <v>2.604232547070108</v>
       </c>
       <c r="J21">
-        <v>8.73061826536833</v>
+        <v>8.295254976467634</v>
       </c>
       <c r="K21">
-        <v>14.83684418944979</v>
+        <v>14.02248044011032</v>
       </c>
       <c r="L21">
-        <v>0</v>
+        <v>11.30712382754362</v>
       </c>
       <c r="M21">
-        <v>13.79131540803307</v>
+        <v>9.507032880282253</v>
       </c>
       <c r="N21">
-        <v>8.337832453907932</v>
+        <v>0</v>
       </c>
       <c r="O21">
-        <v>11.93957275973456</v>
+        <v>13.90714121735682</v>
       </c>
       <c r="P21">
-        <v>0</v>
+        <v>8.38468952422652</v>
       </c>
       <c r="Q21">
-        <v>14.20958982887158</v>
-      </c>
-    </row>
-    <row r="22" spans="1:17">
+        <v>11.87532829981719</v>
+      </c>
+      <c r="R21">
+        <v>0</v>
+      </c>
+      <c r="S21">
+        <v>13.4510437511421</v>
+      </c>
+    </row>
+    <row r="22" spans="1:19">
       <c r="A22" s="1">
         <v>20</v>
       </c>
       <c r="B22">
-        <v>17.03452068886498</v>
+        <v>16.9100981960167</v>
       </c>
       <c r="C22">
-        <v>10.40239860671191</v>
+        <v>10.27481097638817</v>
       </c>
       <c r="D22">
-        <v>6.767891479204762</v>
+        <v>7.012545177949628</v>
       </c>
       <c r="E22">
         <v>0</v>
       </c>
       <c r="F22">
-        <v>18.40810073163254</v>
+        <v>17.14250270311608</v>
       </c>
       <c r="G22">
-        <v>22.1168623861672</v>
+        <v>23.33470749381431</v>
       </c>
       <c r="H22">
-        <v>1.906939120570287</v>
+        <v>1.87275697485511</v>
       </c>
       <c r="I22">
-        <v>2.535534798563192</v>
+        <v>2.517414373053407</v>
       </c>
       <c r="J22">
-        <v>8.711268334837298</v>
+        <v>7.97035704283889</v>
       </c>
       <c r="K22">
-        <v>14.80073481319017</v>
+        <v>13.8656641491684</v>
       </c>
       <c r="L22">
-        <v>0</v>
+        <v>11.14955530278817</v>
       </c>
       <c r="M22">
-        <v>14.16952261954316</v>
+        <v>9.490169697688739</v>
       </c>
       <c r="N22">
-        <v>8.495972801469948</v>
+        <v>0</v>
       </c>
       <c r="O22">
-        <v>12.26115778411536</v>
+        <v>14.28173150424303</v>
       </c>
       <c r="P22">
-        <v>0</v>
+        <v>8.534560426865843</v>
       </c>
       <c r="Q22">
-        <v>14.23939410051885</v>
-      </c>
-    </row>
-    <row r="23" spans="1:17">
+        <v>12.19648142651345</v>
+      </c>
+      <c r="R22">
+        <v>0</v>
+      </c>
+      <c r="S22">
+        <v>13.31022289590321</v>
+      </c>
+    </row>
+    <row r="23" spans="1:19">
       <c r="A23" s="1">
         <v>21</v>
       </c>
       <c r="B23">
-        <v>16.73804611356654</v>
+        <v>16.61646052010448</v>
       </c>
       <c r="C23">
-        <v>10.34372600552564</v>
+        <v>10.21108346129178</v>
       </c>
       <c r="D23">
-        <v>6.677282641832735</v>
+        <v>6.885909771087226</v>
       </c>
       <c r="E23">
         <v>0</v>
       </c>
       <c r="F23">
-        <v>18.29978251155207</v>
+        <v>17.19146895951624</v>
       </c>
       <c r="G23">
-        <v>22.01960500855716</v>
+        <v>22.46066675887647</v>
       </c>
       <c r="H23">
-        <v>1.974884364140682</v>
+        <v>1.933787698701126</v>
       </c>
       <c r="I23">
-        <v>2.583887776250782</v>
+        <v>2.541680150314891</v>
       </c>
       <c r="J23">
-        <v>8.727986231439109</v>
+        <v>8.184991652687453</v>
       </c>
       <c r="K23">
-        <v>14.83766576313561</v>
+        <v>13.97881584141097</v>
       </c>
       <c r="L23">
-        <v>0</v>
+        <v>11.25204538569892</v>
       </c>
       <c r="M23">
-        <v>13.96358213286159</v>
+        <v>9.524661452042182</v>
       </c>
       <c r="N23">
-        <v>8.411948986640406</v>
+        <v>0</v>
       </c>
       <c r="O23">
-        <v>12.09282738314547</v>
+        <v>14.07990924300833</v>
       </c>
       <c r="P23">
-        <v>0</v>
+        <v>8.455380774862258</v>
       </c>
       <c r="Q23">
-        <v>14.23966160588653</v>
-      </c>
-    </row>
-    <row r="24" spans="1:17">
+        <v>12.02777870123976</v>
+      </c>
+      <c r="R23">
+        <v>0</v>
+      </c>
+      <c r="S23">
+        <v>13.42187503735045</v>
+      </c>
+    </row>
+    <row r="24" spans="1:19">
       <c r="A24" s="1">
         <v>22</v>
       </c>
       <c r="B24">
-        <v>15.55134794630418</v>
+        <v>15.45036250474901</v>
       </c>
       <c r="C24">
-        <v>10.13406786413769</v>
+        <v>9.961132019406675</v>
       </c>
       <c r="D24">
-        <v>6.330425875991528</v>
+        <v>6.437496585052147</v>
       </c>
       <c r="E24">
         <v>0</v>
       </c>
       <c r="F24">
-        <v>17.86534822021077</v>
+        <v>17.1808922138126</v>
       </c>
       <c r="G24">
-        <v>21.61019279126741</v>
+        <v>20.22067440612886</v>
       </c>
       <c r="H24">
-        <v>2.239402734730189</v>
+        <v>2.174037274793156</v>
       </c>
       <c r="I24">
-        <v>2.793264979392167</v>
+        <v>2.719548985513823</v>
       </c>
       <c r="J24">
-        <v>8.786469199756045</v>
+        <v>8.902243688760539</v>
       </c>
       <c r="K24">
-        <v>14.95702000549543</v>
+        <v>14.30812495705405</v>
       </c>
       <c r="L24">
-        <v>0</v>
+        <v>11.59110705397728</v>
       </c>
       <c r="M24">
-        <v>13.16377699572247</v>
+        <v>9.580290518846194</v>
       </c>
       <c r="N24">
-        <v>8.086186886756817</v>
+        <v>0</v>
       </c>
       <c r="O24">
-        <v>11.42962503122408</v>
+        <v>13.28421064369546</v>
       </c>
       <c r="P24">
-        <v>0</v>
+        <v>8.146656652886529</v>
       </c>
       <c r="Q24">
-        <v>14.22719320098878</v>
-      </c>
-    </row>
-    <row r="25" spans="1:17">
+        <v>11.36618622466779</v>
+      </c>
+      <c r="R24">
+        <v>0</v>
+      </c>
+      <c r="S24">
+        <v>13.70629852083146</v>
+      </c>
+    </row>
+    <row r="25" spans="1:19">
       <c r="A25" s="1">
         <v>23</v>
       </c>
       <c r="B25">
-        <v>14.15692240067591</v>
+        <v>14.09792047792348</v>
       </c>
       <c r="C25">
-        <v>9.90210684960709</v>
+        <v>9.627305080659243</v>
       </c>
       <c r="D25">
-        <v>5.932644677380305</v>
+        <v>6.000460177788866</v>
       </c>
       <c r="E25">
         <v>0</v>
       </c>
       <c r="F25">
-        <v>17.42640261976918</v>
+        <v>16.86411727277351</v>
       </c>
       <c r="G25">
-        <v>21.21973032607122</v>
+        <v>19.84539591645224</v>
       </c>
       <c r="H25">
-        <v>2.537789136877867</v>
+        <v>2.45241163977014</v>
       </c>
       <c r="I25">
-        <v>3.032505131180765</v>
+        <v>2.932835528953075</v>
       </c>
       <c r="J25">
-        <v>8.861893927721001</v>
+        <v>9.021956881866663</v>
       </c>
       <c r="K25">
-        <v>15.10426037342283</v>
+        <v>14.52550913989731</v>
       </c>
       <c r="L25">
-        <v>0</v>
+        <v>11.87263547551285</v>
       </c>
       <c r="M25">
-        <v>12.24159658791194</v>
+        <v>9.569596528179087</v>
       </c>
       <c r="N25">
-        <v>7.71986837160136</v>
+        <v>0</v>
       </c>
       <c r="O25">
-        <v>10.66924337291461</v>
+        <v>12.34004403029777</v>
       </c>
       <c r="P25">
-        <v>0</v>
+        <v>7.794413311953866</v>
       </c>
       <c r="Q25">
-        <v>14.24195880523114</v>
+        <v>10.61348176727379</v>
+      </c>
+      <c r="R25">
+        <v>0</v>
+      </c>
+      <c r="S25">
+        <v>13.80348215767163</v>
       </c>
     </row>
   </sheetData>
